--- a/database/industries/siman/save/product/monthly.xlsx
+++ b/database/industries/siman/save/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA13E33-041E-48C9-AB29-185D6233DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سیمان سفید</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -537,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,17 +758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -788,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -957,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1338,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1454,107 +1489,107 @@
       <c r="U11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
+      <c r="V11" s="11">
+        <v>10811</v>
       </c>
       <c r="W11" s="11">
-        <v>10811</v>
+        <v>18794</v>
       </c>
       <c r="X11" s="11">
-        <v>18794</v>
+        <v>18411</v>
       </c>
       <c r="Y11" s="11">
-        <v>18411</v>
+        <v>19140</v>
       </c>
       <c r="Z11" s="11">
-        <v>19140</v>
+        <v>21491</v>
       </c>
       <c r="AA11" s="11">
-        <v>21491</v>
+        <v>24349</v>
       </c>
       <c r="AB11" s="11">
-        <v>24349</v>
+        <v>21132</v>
       </c>
       <c r="AC11" s="11">
-        <v>21132</v>
+        <v>25077</v>
       </c>
       <c r="AD11" s="11">
-        <v>25077</v>
+        <v>22587</v>
       </c>
       <c r="AE11" s="11">
-        <v>22587</v>
+        <v>17553</v>
       </c>
       <c r="AF11" s="11">
-        <v>17553</v>
+        <v>21317</v>
       </c>
       <c r="AG11" s="11">
-        <v>21317</v>
+        <v>19837</v>
       </c>
       <c r="AH11" s="11">
-        <v>19837</v>
+        <v>22013</v>
       </c>
       <c r="AI11" s="11">
-        <v>22013</v>
+        <v>36027</v>
       </c>
       <c r="AJ11" s="11">
-        <v>36027</v>
+        <v>32441</v>
       </c>
       <c r="AK11" s="11">
-        <v>32441</v>
+        <v>20865</v>
       </c>
       <c r="AL11" s="11">
-        <v>20865</v>
+        <v>14540</v>
       </c>
       <c r="AM11" s="11">
-        <v>14540</v>
+        <v>26840</v>
       </c>
       <c r="AN11" s="11">
-        <v>26840</v>
+        <v>27137</v>
       </c>
       <c r="AO11" s="11">
-        <v>27137</v>
+        <v>24983</v>
       </c>
       <c r="AP11" s="11">
-        <v>24983</v>
+        <v>28390</v>
       </c>
       <c r="AQ11" s="11">
-        <v>28390</v>
+        <v>24741</v>
       </c>
       <c r="AR11" s="11">
-        <v>24741</v>
+        <v>-648</v>
       </c>
       <c r="AS11" s="11">
-        <v>-648</v>
+        <v>25186</v>
       </c>
       <c r="AT11" s="11">
-        <v>25186</v>
+        <v>21237</v>
       </c>
       <c r="AU11" s="11">
-        <v>21237</v>
+        <v>23700</v>
       </c>
       <c r="AV11" s="11">
-        <v>23700</v>
+        <v>30303</v>
       </c>
       <c r="AW11" s="11">
-        <v>30303</v>
+        <v>24063</v>
       </c>
       <c r="AX11" s="11">
-        <v>24063</v>
+        <v>27116</v>
       </c>
       <c r="AY11" s="11">
-        <v>27116</v>
+        <v>31022</v>
       </c>
       <c r="AZ11" s="11">
-        <v>31022</v>
+        <v>27299</v>
       </c>
       <c r="BA11" s="11">
-        <v>27299</v>
+        <v>29673</v>
       </c>
       <c r="BB11" s="11">
-        <v>29673</v>
+        <v>26703</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1586,20 +1621,20 @@
       <c r="L12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>57</v>
+      <c r="M12" s="13">
+        <v>6634</v>
       </c>
       <c r="N12" s="13">
-        <v>6634</v>
+        <v>3356</v>
       </c>
       <c r="O12" s="13">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
-        <v>0</v>
+        <v>10016</v>
       </c>
       <c r="Q12" s="13">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -1613,8 +1648,8 @@
       <c r="U12" s="13">
         <v>0</v>
       </c>
-      <c r="V12" s="13">
-        <v>0</v>
+      <c r="V12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W12" s="13" t="s">
         <v>57</v>
@@ -1649,36 +1684,36 @@
       <c r="AG12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>57</v>
+      <c r="AH12" s="13">
+        <v>587</v>
       </c>
       <c r="AI12" s="13">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
         <v>0</v>
       </c>
       <c r="AL12" s="13">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="AM12" s="13">
-        <v>6256</v>
+        <v>27260</v>
       </c>
       <c r="AN12" s="13">
-        <v>27260</v>
+        <v>186337</v>
       </c>
       <c r="AO12" s="13">
-        <v>186337</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="13">
         <v>27547</v>
       </c>
+      <c r="AQ12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AR12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1772,107 +1807,107 @@
       <c r="U13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>57</v>
+      <c r="V13" s="11">
+        <v>88475</v>
       </c>
       <c r="W13" s="11">
-        <v>88475</v>
+        <v>207400</v>
       </c>
       <c r="X13" s="11">
-        <v>207400</v>
+        <v>167344</v>
       </c>
       <c r="Y13" s="11">
-        <v>167344</v>
+        <v>164554</v>
       </c>
       <c r="Z13" s="11">
-        <v>164554</v>
+        <v>171058</v>
       </c>
       <c r="AA13" s="11">
-        <v>171058</v>
+        <v>153965</v>
       </c>
       <c r="AB13" s="11">
-        <v>153965</v>
+        <v>153154</v>
       </c>
       <c r="AC13" s="11">
-        <v>153154</v>
+        <v>209383</v>
       </c>
       <c r="AD13" s="11">
-        <v>209383</v>
+        <v>140423</v>
       </c>
       <c r="AE13" s="11">
-        <v>140423</v>
+        <v>114098</v>
       </c>
       <c r="AF13" s="11">
-        <v>114098</v>
+        <v>132416</v>
       </c>
       <c r="AG13" s="11">
-        <v>132416</v>
+        <v>130950</v>
       </c>
       <c r="AH13" s="11">
-        <v>130950</v>
+        <v>90395</v>
       </c>
       <c r="AI13" s="11">
-        <v>90395</v>
+        <v>139873</v>
       </c>
       <c r="AJ13" s="11">
-        <v>139873</v>
+        <v>147886</v>
       </c>
       <c r="AK13" s="11">
-        <v>147886</v>
+        <v>107423</v>
       </c>
       <c r="AL13" s="11">
-        <v>107423</v>
+        <v>106479</v>
       </c>
       <c r="AM13" s="11">
-        <v>106479</v>
+        <v>140821</v>
       </c>
       <c r="AN13" s="11">
-        <v>140821</v>
+        <v>173714</v>
       </c>
       <c r="AO13" s="11">
-        <v>173714</v>
+        <v>158509</v>
       </c>
       <c r="AP13" s="11">
-        <v>158509</v>
+        <v>172269</v>
       </c>
       <c r="AQ13" s="11">
-        <v>172269</v>
+        <v>140373</v>
       </c>
       <c r="AR13" s="11">
-        <v>140373</v>
+        <v>151743</v>
       </c>
       <c r="AS13" s="11">
-        <v>151743</v>
+        <v>172665</v>
       </c>
       <c r="AT13" s="11">
-        <v>172665</v>
+        <v>122380</v>
       </c>
       <c r="AU13" s="11">
-        <v>122380</v>
+        <v>155063</v>
       </c>
       <c r="AV13" s="11">
-        <v>155063</v>
+        <v>161625</v>
       </c>
       <c r="AW13" s="11">
-        <v>161625</v>
+        <v>134480</v>
       </c>
       <c r="AX13" s="11">
-        <v>134480</v>
+        <v>115271</v>
       </c>
       <c r="AY13" s="11">
-        <v>115271</v>
+        <v>181458</v>
       </c>
       <c r="AZ13" s="11">
-        <v>181458</v>
+        <v>163674</v>
       </c>
       <c r="BA13" s="11">
-        <v>163674</v>
+        <v>170203</v>
       </c>
       <c r="BB13" s="11">
-        <v>170203</v>
+        <v>196591</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1895,45 +1930,45 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>5685</v>
       </c>
       <c r="K14" s="13">
-        <v>5685</v>
+        <v>11504</v>
       </c>
       <c r="L14" s="13">
-        <v>11504</v>
+        <v>6679</v>
       </c>
       <c r="M14" s="13">
-        <v>6679</v>
+        <v>2932</v>
       </c>
       <c r="N14" s="13">
-        <v>2932</v>
+        <v>1808</v>
       </c>
       <c r="O14" s="13">
-        <v>1808</v>
+        <v>1749</v>
       </c>
       <c r="P14" s="13">
+        <v>1715</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>1642</v>
+      </c>
+      <c r="R14" s="13">
         <v>1749</v>
       </c>
-      <c r="Q14" s="13">
-        <v>1715</v>
-      </c>
-      <c r="R14" s="13">
-        <v>1642</v>
-      </c>
       <c r="S14" s="13">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="T14" s="13">
-        <v>1743</v>
+        <v>1595</v>
       </c>
       <c r="U14" s="13">
-        <v>1595</v>
-      </c>
-      <c r="V14" s="13">
         <v>1854</v>
       </c>
+      <c r="V14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2031,7 +2066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2054,45 +2089,45 @@
       <c r="I15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>57</v>
+      <c r="J15" s="11">
+        <v>3523</v>
       </c>
       <c r="K15" s="11">
-        <v>3523</v>
+        <v>6879</v>
       </c>
       <c r="L15" s="11">
-        <v>6879</v>
+        <v>6584</v>
       </c>
       <c r="M15" s="11">
-        <v>6584</v>
+        <v>8180</v>
       </c>
       <c r="N15" s="11">
-        <v>8180</v>
+        <v>7371</v>
       </c>
       <c r="O15" s="11">
-        <v>7371</v>
+        <v>6289</v>
       </c>
       <c r="P15" s="11">
-        <v>6289</v>
+        <v>6929</v>
       </c>
       <c r="Q15" s="11">
-        <v>6929</v>
+        <v>8188</v>
       </c>
       <c r="R15" s="11">
-        <v>8188</v>
+        <v>5660</v>
       </c>
       <c r="S15" s="11">
-        <v>5660</v>
+        <v>7158</v>
       </c>
       <c r="T15" s="11">
-        <v>7158</v>
+        <v>6645</v>
       </c>
       <c r="U15" s="11">
-        <v>6645</v>
-      </c>
-      <c r="V15" s="11">
         <v>8438</v>
       </c>
+      <c r="V15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2213,45 +2248,45 @@
       <c r="I16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>57</v>
+      <c r="J16" s="13">
+        <v>1275</v>
       </c>
       <c r="K16" s="13">
-        <v>1275</v>
+        <v>1714</v>
       </c>
       <c r="L16" s="13">
-        <v>1714</v>
+        <v>1903</v>
       </c>
       <c r="M16" s="13">
-        <v>1903</v>
+        <v>467</v>
       </c>
       <c r="N16" s="13">
-        <v>467</v>
+        <v>1155</v>
       </c>
       <c r="O16" s="13">
-        <v>1155</v>
+        <v>246</v>
       </c>
       <c r="P16" s="13">
-        <v>246</v>
+        <v>1167</v>
       </c>
       <c r="Q16" s="13">
-        <v>1167</v>
+        <v>2298</v>
       </c>
       <c r="R16" s="13">
-        <v>2298</v>
+        <v>0</v>
       </c>
       <c r="S16" s="13">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="T16" s="13">
-        <v>1522</v>
+        <v>39</v>
       </c>
       <c r="U16" s="13">
-        <v>39</v>
-      </c>
-      <c r="V16" s="13">
         <v>852</v>
       </c>
+      <c r="V16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2349,7 +2384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2411,11 +2446,11 @@
       <c r="V17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>57</v>
+      <c r="W17" s="11">
+        <v>15</v>
       </c>
       <c r="X17" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2433,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="AD17" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AE17" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="11">
         <v>0</v>
@@ -2444,8 +2479,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>57</v>
@@ -2471,44 +2506,44 @@
       <c r="AP17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>57</v>
+      <c r="AQ17" s="11">
+        <v>-29576</v>
       </c>
       <c r="AR17" s="11">
-        <v>-29576</v>
+        <v>14611</v>
       </c>
       <c r="AS17" s="11">
-        <v>14611</v>
+        <v>26662</v>
       </c>
       <c r="AT17" s="11">
-        <v>26662</v>
+        <v>27314</v>
       </c>
       <c r="AU17" s="11">
-        <v>27314</v>
+        <v>25799</v>
       </c>
       <c r="AV17" s="11">
-        <v>25799</v>
+        <v>25645</v>
       </c>
       <c r="AW17" s="11">
-        <v>25645</v>
+        <v>25273</v>
       </c>
       <c r="AX17" s="11">
-        <v>25273</v>
+        <v>25919</v>
       </c>
       <c r="AY17" s="11">
-        <v>25919</v>
+        <v>27004</v>
       </c>
       <c r="AZ17" s="11">
-        <v>27004</v>
+        <v>-156954</v>
       </c>
       <c r="BA17" s="11">
-        <v>-156954</v>
+        <v>24490</v>
       </c>
       <c r="BB17" s="11">
-        <v>24490</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2531,81 +2566,81 @@
       <c r="I18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>57</v>
+      <c r="J18" s="13">
+        <v>299</v>
       </c>
       <c r="K18" s="13">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
       </c>
       <c r="M18" s="13">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="N18" s="13">
-        <v>3375</v>
+        <v>4900</v>
       </c>
       <c r="O18" s="13">
-        <v>4900</v>
+        <v>4173</v>
       </c>
       <c r="P18" s="13">
-        <v>4173</v>
+        <v>4588</v>
       </c>
       <c r="Q18" s="13">
-        <v>4588</v>
+        <v>6723</v>
       </c>
       <c r="R18" s="13">
-        <v>6723</v>
+        <v>4032</v>
       </c>
       <c r="S18" s="13">
-        <v>4032</v>
+        <v>3413</v>
       </c>
       <c r="T18" s="13">
-        <v>3413</v>
+        <v>5951</v>
       </c>
       <c r="U18" s="13">
-        <v>5951</v>
-      </c>
-      <c r="V18" s="13">
         <v>4115</v>
       </c>
+      <c r="V18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>57</v>
+      <c r="Y18" s="13">
+        <v>5759</v>
       </c>
       <c r="Z18" s="13">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="AA18" s="13">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="AB18" s="13">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="AC18" s="13">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="AD18" s="13">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AE18" s="13">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AF18" s="13">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AG18" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AH18" s="13">
         <v>7856</v>
       </c>
+      <c r="AH18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2667,7 +2702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2702,17 +2737,17 @@
       <c r="M19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>57</v>
+      <c r="N19" s="11">
+        <v>956</v>
       </c>
       <c r="O19" s="11">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R19" s="11">
         <v>0</v>
@@ -2721,14 +2756,14 @@
         <v>0</v>
       </c>
       <c r="T19" s="11">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="U19" s="11">
-        <v>294</v>
-      </c>
-      <c r="V19" s="11">
         <v>197</v>
       </c>
+      <c r="V19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2826,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2885,45 +2920,45 @@
       <c r="U20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>57</v>
+      <c r="V20" s="13">
+        <v>26375</v>
       </c>
       <c r="W20" s="13">
-        <v>26375</v>
+        <v>78925</v>
       </c>
       <c r="X20" s="13">
-        <v>78925</v>
+        <v>62365</v>
       </c>
       <c r="Y20" s="13">
-        <v>62365</v>
+        <v>38739</v>
       </c>
       <c r="Z20" s="13">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="AA20" s="13">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="13">
         <v>0</v>
       </c>
       <c r="AC20" s="13">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AD20" s="13">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AE20" s="13">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AF20" s="13">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AG20" s="13">
-        <v>62289</v>
-      </c>
-      <c r="AH20" s="13">
         <v>20479</v>
       </c>
+      <c r="AH20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI20" s="13" t="s">
         <v>57</v>
       </c>
@@ -2948,44 +2983,44 @@
       <c r="AP20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>57</v>
+      <c r="AQ20" s="13">
+        <v>690282</v>
       </c>
       <c r="AR20" s="13">
-        <v>690282</v>
+        <v>110564</v>
       </c>
       <c r="AS20" s="13">
-        <v>110564</v>
+        <v>169974</v>
       </c>
       <c r="AT20" s="13">
-        <v>169974</v>
+        <v>192555</v>
       </c>
       <c r="AU20" s="13">
-        <v>192555</v>
+        <v>169077</v>
       </c>
       <c r="AV20" s="13">
-        <v>169077</v>
+        <v>140508</v>
       </c>
       <c r="AW20" s="13">
-        <v>140508</v>
+        <v>180806</v>
       </c>
       <c r="AX20" s="13">
-        <v>180806</v>
+        <v>219813</v>
       </c>
       <c r="AY20" s="13">
-        <v>219813</v>
+        <v>204773</v>
       </c>
       <c r="AZ20" s="13">
-        <v>204773</v>
+        <v>136083</v>
       </c>
       <c r="BA20" s="13">
-        <v>136083</v>
+        <v>198340</v>
       </c>
       <c r="BB20" s="13">
-        <v>198340</v>
+        <v>202659</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3008,14 +3043,14 @@
       <c r="I21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>57</v>
+      <c r="J21" s="11">
+        <v>21814</v>
       </c>
       <c r="K21" s="11">
-        <v>21814</v>
+        <v>72296</v>
       </c>
       <c r="L21" s="11">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="M21" s="11">
         <v>0</v>
@@ -3033,20 +3068,20 @@
         <v>0</v>
       </c>
       <c r="R21" s="11">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="S21" s="11">
-        <v>1513</v>
+        <v>43021</v>
       </c>
       <c r="T21" s="11">
-        <v>43021</v>
+        <v>47679</v>
       </c>
       <c r="U21" s="11">
-        <v>47679</v>
-      </c>
-      <c r="V21" s="11">
         <v>13935</v>
       </c>
+      <c r="V21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3080,35 +3115,35 @@
       <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>57</v>
+      <c r="AH21" s="11">
+        <v>40166</v>
       </c>
       <c r="AI21" s="11">
-        <v>40166</v>
+        <v>157376</v>
       </c>
       <c r="AJ21" s="11">
-        <v>157376</v>
+        <v>157438</v>
       </c>
       <c r="AK21" s="11">
-        <v>157438</v>
+        <v>80965</v>
       </c>
       <c r="AL21" s="11">
-        <v>80965</v>
+        <v>54772</v>
       </c>
       <c r="AM21" s="11">
-        <v>54772</v>
+        <v>131461</v>
       </c>
       <c r="AN21" s="11">
-        <v>131461</v>
+        <v>24750</v>
       </c>
       <c r="AO21" s="11">
-        <v>24750</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="11">
         <v>0</v>
       </c>
-      <c r="AQ21" s="11">
-        <v>0</v>
+      <c r="AQ21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>57</v>
@@ -3144,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3203,18 +3238,18 @@
       <c r="U22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V22" s="13" t="s">
-        <v>57</v>
+      <c r="V22" s="13">
+        <v>2809</v>
       </c>
       <c r="W22" s="13">
-        <v>2809</v>
+        <v>7731</v>
       </c>
       <c r="X22" s="13">
-        <v>7731</v>
-      </c>
-      <c r="Y22" s="13">
         <v>6481</v>
       </c>
+      <c r="Y22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z22" s="13" t="s">
         <v>57</v>
       </c>
@@ -3303,7 +3338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3326,45 +3361,45 @@
       <c r="I23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>57</v>
+      <c r="J23" s="11">
+        <v>37109</v>
       </c>
       <c r="K23" s="11">
-        <v>37109</v>
+        <v>66084</v>
       </c>
       <c r="L23" s="11">
-        <v>66084</v>
+        <v>54027</v>
       </c>
       <c r="M23" s="11">
-        <v>54027</v>
+        <v>56030</v>
       </c>
       <c r="N23" s="11">
-        <v>56030</v>
+        <v>48485</v>
       </c>
       <c r="O23" s="11">
-        <v>48485</v>
+        <v>53334</v>
       </c>
       <c r="P23" s="11">
-        <v>53334</v>
+        <v>62021</v>
       </c>
       <c r="Q23" s="11">
-        <v>62021</v>
+        <v>48501</v>
       </c>
       <c r="R23" s="11">
-        <v>48501</v>
+        <v>48465</v>
       </c>
       <c r="S23" s="11">
-        <v>48465</v>
+        <v>39927</v>
       </c>
       <c r="T23" s="11">
-        <v>39927</v>
+        <v>43232</v>
       </c>
       <c r="U23" s="11">
-        <v>43232</v>
-      </c>
-      <c r="V23" s="11">
         <v>59472</v>
       </c>
+      <c r="V23" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W23" s="11" t="s">
         <v>57</v>
       </c>
@@ -3462,7 +3497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3485,45 +3520,45 @@
       <c r="I24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>57</v>
+      <c r="J24" s="13">
+        <v>42582</v>
       </c>
       <c r="K24" s="13">
-        <v>42582</v>
+        <v>73964</v>
       </c>
       <c r="L24" s="13">
-        <v>73964</v>
+        <v>89431</v>
       </c>
       <c r="M24" s="13">
-        <v>89431</v>
+        <v>81111</v>
       </c>
       <c r="N24" s="13">
-        <v>81111</v>
+        <v>74418</v>
       </c>
       <c r="O24" s="13">
-        <v>74418</v>
+        <v>76297</v>
       </c>
       <c r="P24" s="13">
-        <v>76297</v>
+        <v>73978</v>
       </c>
       <c r="Q24" s="13">
-        <v>73978</v>
+        <v>77698</v>
       </c>
       <c r="R24" s="13">
-        <v>77698</v>
+        <v>82921</v>
       </c>
       <c r="S24" s="13">
-        <v>82921</v>
+        <v>88860</v>
       </c>
       <c r="T24" s="13">
-        <v>88860</v>
+        <v>74198</v>
       </c>
       <c r="U24" s="13">
-        <v>74198</v>
-      </c>
-      <c r="V24" s="13">
         <v>80042</v>
       </c>
+      <c r="V24" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W24" s="13" t="s">
         <v>57</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3644,45 +3679,45 @@
       <c r="I25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>57</v>
+      <c r="J25" s="11">
+        <v>3342</v>
       </c>
       <c r="K25" s="11">
-        <v>3342</v>
+        <v>7464</v>
       </c>
       <c r="L25" s="11">
-        <v>7464</v>
+        <v>6943</v>
       </c>
       <c r="M25" s="11">
-        <v>6943</v>
+        <v>8109</v>
       </c>
       <c r="N25" s="11">
-        <v>8109</v>
+        <v>6167</v>
       </c>
       <c r="O25" s="11">
-        <v>6167</v>
+        <v>5450</v>
       </c>
       <c r="P25" s="11">
-        <v>5450</v>
+        <v>5619</v>
       </c>
       <c r="Q25" s="11">
-        <v>5619</v>
+        <v>5489</v>
       </c>
       <c r="R25" s="11">
-        <v>5489</v>
+        <v>5558</v>
       </c>
       <c r="S25" s="11">
-        <v>5558</v>
+        <v>5329</v>
       </c>
       <c r="T25" s="11">
-        <v>5329</v>
+        <v>4485</v>
       </c>
       <c r="U25" s="11">
-        <v>4485</v>
-      </c>
-      <c r="V25" s="11">
         <v>6314</v>
       </c>
+      <c r="V25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W25" s="11" t="s">
         <v>57</v>
       </c>
@@ -3780,7 +3815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3837,7 +3872,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3903,8 +3938,8 @@
       <c r="X27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>57</v>
+      <c r="Y27" s="17">
+        <v>0</v>
       </c>
       <c r="Z27" s="17">
         <v>0</v>
@@ -3994,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
@@ -4016,142 +4051,142 @@
         <v>0</v>
       </c>
       <c r="J28" s="19">
-        <v>0</v>
+        <v>115629</v>
       </c>
       <c r="K28" s="19">
-        <v>115629</v>
+        <v>239905</v>
       </c>
       <c r="L28" s="19">
-        <v>239905</v>
+        <v>165567</v>
       </c>
       <c r="M28" s="19">
-        <v>165567</v>
+        <v>166838</v>
       </c>
       <c r="N28" s="19">
-        <v>166838</v>
+        <v>148616</v>
       </c>
       <c r="O28" s="19">
-        <v>148616</v>
+        <v>147538</v>
       </c>
       <c r="P28" s="19">
-        <v>147538</v>
+        <v>166533</v>
       </c>
       <c r="Q28" s="19">
-        <v>166533</v>
+        <v>150539</v>
       </c>
       <c r="R28" s="19">
-        <v>150539</v>
+        <v>149898</v>
       </c>
       <c r="S28" s="19">
-        <v>149898</v>
+        <v>190973</v>
       </c>
       <c r="T28" s="19">
-        <v>190973</v>
+        <v>184118</v>
       </c>
       <c r="U28" s="19">
-        <v>184118</v>
+        <v>175219</v>
       </c>
       <c r="V28" s="19">
-        <v>175219</v>
+        <v>128470</v>
       </c>
       <c r="W28" s="19">
-        <v>128470</v>
+        <v>312865</v>
       </c>
       <c r="X28" s="19">
-        <v>312865</v>
+        <v>254601</v>
       </c>
       <c r="Y28" s="19">
-        <v>254601</v>
+        <v>228192</v>
       </c>
       <c r="Z28" s="19">
-        <v>228192</v>
+        <v>214781</v>
       </c>
       <c r="AA28" s="19">
-        <v>214781</v>
+        <v>182460</v>
       </c>
       <c r="AB28" s="19">
-        <v>182460</v>
+        <v>180061</v>
       </c>
       <c r="AC28" s="19">
-        <v>180061</v>
+        <v>250269</v>
       </c>
       <c r="AD28" s="19">
-        <v>250269</v>
+        <v>205481</v>
       </c>
       <c r="AE28" s="19">
-        <v>205481</v>
+        <v>204748</v>
       </c>
       <c r="AF28" s="19">
-        <v>204748</v>
+        <v>221510</v>
       </c>
       <c r="AG28" s="19">
-        <v>221510</v>
+        <v>179122</v>
       </c>
       <c r="AH28" s="19">
-        <v>179122</v>
+        <v>153161</v>
       </c>
       <c r="AI28" s="19">
-        <v>153161</v>
+        <v>337688</v>
       </c>
       <c r="AJ28" s="19">
-        <v>337688</v>
+        <v>337765</v>
       </c>
       <c r="AK28" s="19">
-        <v>337765</v>
+        <v>209253</v>
       </c>
       <c r="AL28" s="19">
-        <v>209253</v>
+        <v>182047</v>
       </c>
       <c r="AM28" s="19">
-        <v>182047</v>
+        <v>326382</v>
       </c>
       <c r="AN28" s="19">
-        <v>326382</v>
+        <v>411938</v>
       </c>
       <c r="AO28" s="19">
-        <v>411938</v>
+        <v>183492</v>
       </c>
       <c r="AP28" s="19">
-        <v>183492</v>
+        <v>228206</v>
       </c>
       <c r="AQ28" s="19">
-        <v>228206</v>
+        <v>825820</v>
       </c>
       <c r="AR28" s="19">
-        <v>825820</v>
+        <v>276270</v>
       </c>
       <c r="AS28" s="19">
-        <v>276270</v>
+        <v>394487</v>
       </c>
       <c r="AT28" s="19">
-        <v>394487</v>
+        <v>363486</v>
       </c>
       <c r="AU28" s="19">
-        <v>363486</v>
+        <v>373639</v>
       </c>
       <c r="AV28" s="19">
-        <v>373639</v>
+        <v>358081</v>
       </c>
       <c r="AW28" s="19">
-        <v>358081</v>
+        <v>364622</v>
       </c>
       <c r="AX28" s="19">
-        <v>364622</v>
+        <v>388119</v>
       </c>
       <c r="AY28" s="19">
-        <v>388119</v>
+        <v>444257</v>
       </c>
       <c r="AZ28" s="19">
-        <v>444257</v>
+        <v>170102</v>
       </c>
       <c r="BA28" s="19">
-        <v>170102</v>
+        <v>422706</v>
       </c>
       <c r="BB28" s="19">
-        <v>422706</v>
+        <v>425953</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4206,7 +4241,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4261,7 +4296,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4316,7 +4351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4528,7 +4563,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4585,7 +4620,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4644,107 +4679,107 @@
       <c r="U35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="11" t="s">
-        <v>57</v>
+      <c r="V35" s="11">
+        <v>10680</v>
       </c>
       <c r="W35" s="11">
-        <v>10680</v>
+        <v>20560</v>
       </c>
       <c r="X35" s="11">
-        <v>20560</v>
+        <v>16951</v>
       </c>
       <c r="Y35" s="11">
-        <v>16951</v>
+        <v>20143</v>
       </c>
       <c r="Z35" s="11">
-        <v>20143</v>
+        <v>22386</v>
       </c>
       <c r="AA35" s="11">
-        <v>22386</v>
+        <v>24346</v>
       </c>
       <c r="AB35" s="11">
-        <v>24346</v>
+        <v>20598</v>
       </c>
       <c r="AC35" s="11">
-        <v>20598</v>
+        <v>23029</v>
       </c>
       <c r="AD35" s="11">
-        <v>23029</v>
+        <v>25439</v>
       </c>
       <c r="AE35" s="11">
-        <v>25439</v>
+        <v>16218</v>
       </c>
       <c r="AF35" s="11">
-        <v>16218</v>
+        <v>21107</v>
       </c>
       <c r="AG35" s="11">
-        <v>21107</v>
+        <v>19146</v>
       </c>
       <c r="AH35" s="11">
-        <v>19146</v>
+        <v>23062</v>
       </c>
       <c r="AI35" s="11">
-        <v>23062</v>
+        <v>30101</v>
       </c>
       <c r="AJ35" s="11">
-        <v>30101</v>
+        <v>28292</v>
       </c>
       <c r="AK35" s="11">
-        <v>28292</v>
+        <v>18260</v>
       </c>
       <c r="AL35" s="11">
-        <v>18260</v>
+        <v>13990</v>
       </c>
       <c r="AM35" s="11">
-        <v>13990</v>
+        <v>17715</v>
       </c>
       <c r="AN35" s="11">
-        <v>17715</v>
+        <v>22284</v>
       </c>
       <c r="AO35" s="11">
-        <v>22284</v>
+        <v>27801</v>
       </c>
       <c r="AP35" s="11">
-        <v>27801</v>
+        <v>28488</v>
       </c>
       <c r="AQ35" s="11">
-        <v>28488</v>
+        <v>24261</v>
       </c>
       <c r="AR35" s="11">
-        <v>24261</v>
+        <v>22915</v>
       </c>
       <c r="AS35" s="11">
-        <v>22915</v>
+        <v>25213</v>
       </c>
       <c r="AT35" s="11">
-        <v>25213</v>
+        <v>20182</v>
       </c>
       <c r="AU35" s="11">
-        <v>20182</v>
+        <v>24083</v>
       </c>
       <c r="AV35" s="11">
-        <v>24083</v>
+        <v>31393</v>
       </c>
       <c r="AW35" s="11">
-        <v>31393</v>
+        <v>22787</v>
       </c>
       <c r="AX35" s="11">
-        <v>22787</v>
+        <v>29511</v>
       </c>
       <c r="AY35" s="11">
-        <v>29511</v>
+        <v>30968</v>
       </c>
       <c r="AZ35" s="11">
-        <v>30968</v>
+        <v>33090</v>
       </c>
       <c r="BA35" s="11">
-        <v>33090</v>
+        <v>35026</v>
       </c>
       <c r="BB35" s="11">
-        <v>35026</v>
+        <v>25256</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4776,20 +4811,20 @@
       <c r="L36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="13" t="s">
-        <v>57</v>
+      <c r="M36" s="13">
+        <v>6634</v>
       </c>
       <c r="N36" s="13">
-        <v>6634</v>
+        <v>3356</v>
       </c>
       <c r="O36" s="13">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="P36" s="13">
-        <v>0</v>
+        <v>10016</v>
       </c>
       <c r="Q36" s="13">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13">
         <v>0</v>
@@ -4803,8 +4838,8 @@
       <c r="U36" s="13">
         <v>0</v>
       </c>
-      <c r="V36" s="13">
-        <v>0</v>
+      <c r="V36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W36" s="13" t="s">
         <v>57</v>
@@ -4839,14 +4874,14 @@
       <c r="AG36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>57</v>
+      <c r="AH36" s="13">
+        <v>587</v>
       </c>
       <c r="AI36" s="13">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AJ36" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="13">
         <v>0</v>
@@ -4864,11 +4899,11 @@
         <v>0</v>
       </c>
       <c r="AP36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="13">
         <v>1118</v>
       </c>
+      <c r="AQ36" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AR36" s="13" t="s">
         <v>57</v>
       </c>
@@ -4903,7 +4938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -4962,107 +4997,107 @@
       <c r="U37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V37" s="11" t="s">
-        <v>57</v>
+      <c r="V37" s="11">
+        <v>88614</v>
       </c>
       <c r="W37" s="11">
-        <v>88614</v>
+        <v>187766</v>
       </c>
       <c r="X37" s="11">
-        <v>187766</v>
+        <v>157818</v>
       </c>
       <c r="Y37" s="11">
-        <v>157818</v>
+        <v>171953</v>
       </c>
       <c r="Z37" s="11">
-        <v>171953</v>
+        <v>158348</v>
       </c>
       <c r="AA37" s="11">
-        <v>158348</v>
+        <v>150876</v>
       </c>
       <c r="AB37" s="11">
-        <v>150876</v>
+        <v>156400</v>
       </c>
       <c r="AC37" s="11">
-        <v>156400</v>
+        <v>209304</v>
       </c>
       <c r="AD37" s="11">
-        <v>209304</v>
+        <v>141379</v>
       </c>
       <c r="AE37" s="11">
-        <v>141379</v>
+        <v>129647</v>
       </c>
       <c r="AF37" s="11">
-        <v>129647</v>
+        <v>117928</v>
       </c>
       <c r="AG37" s="11">
-        <v>117928</v>
+        <v>129919</v>
       </c>
       <c r="AH37" s="11">
-        <v>129919</v>
+        <v>92070</v>
       </c>
       <c r="AI37" s="11">
-        <v>92070</v>
+        <v>137385</v>
       </c>
       <c r="AJ37" s="11">
-        <v>137385</v>
+        <v>159155</v>
       </c>
       <c r="AK37" s="11">
-        <v>159155</v>
+        <v>124244</v>
       </c>
       <c r="AL37" s="11">
-        <v>124244</v>
+        <v>90034</v>
       </c>
       <c r="AM37" s="11">
-        <v>90034</v>
+        <v>147875</v>
       </c>
       <c r="AN37" s="11">
-        <v>147875</v>
+        <v>146275</v>
       </c>
       <c r="AO37" s="11">
-        <v>146275</v>
+        <v>161714</v>
       </c>
       <c r="AP37" s="11">
-        <v>161714</v>
+        <v>167202</v>
       </c>
       <c r="AQ37" s="11">
-        <v>167202</v>
+        <v>147237</v>
       </c>
       <c r="AR37" s="11">
-        <v>147237</v>
+        <v>146937</v>
       </c>
       <c r="AS37" s="11">
-        <v>146937</v>
+        <v>170847</v>
       </c>
       <c r="AT37" s="11">
-        <v>170847</v>
+        <v>124668</v>
       </c>
       <c r="AU37" s="11">
-        <v>124668</v>
+        <v>156883</v>
       </c>
       <c r="AV37" s="11">
-        <v>156883</v>
+        <v>160445</v>
       </c>
       <c r="AW37" s="11">
-        <v>160445</v>
+        <v>130644</v>
       </c>
       <c r="AX37" s="11">
-        <v>130644</v>
+        <v>133425</v>
       </c>
       <c r="AY37" s="11">
-        <v>133425</v>
+        <v>180290</v>
       </c>
       <c r="AZ37" s="11">
-        <v>180290</v>
+        <v>152750</v>
       </c>
       <c r="BA37" s="11">
-        <v>152750</v>
+        <v>174888</v>
       </c>
       <c r="BB37" s="11">
-        <v>174888</v>
+        <v>205623</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5085,45 +5120,45 @@
       <c r="I38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>57</v>
+      <c r="J38" s="13">
+        <v>5685</v>
       </c>
       <c r="K38" s="13">
-        <v>5685</v>
+        <v>11504</v>
       </c>
       <c r="L38" s="13">
-        <v>11504</v>
+        <v>6679</v>
       </c>
       <c r="M38" s="13">
-        <v>6679</v>
+        <v>2932</v>
       </c>
       <c r="N38" s="13">
-        <v>2932</v>
+        <v>1808</v>
       </c>
       <c r="O38" s="13">
-        <v>1808</v>
+        <v>1749</v>
       </c>
       <c r="P38" s="13">
+        <v>1715</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>1642</v>
+      </c>
+      <c r="R38" s="13">
         <v>1749</v>
       </c>
-      <c r="Q38" s="13">
-        <v>1715</v>
-      </c>
-      <c r="R38" s="13">
-        <v>1642</v>
-      </c>
       <c r="S38" s="13">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="T38" s="13">
-        <v>1743</v>
+        <v>1595</v>
       </c>
       <c r="U38" s="13">
-        <v>1595</v>
-      </c>
-      <c r="V38" s="13">
         <v>1854</v>
       </c>
+      <c r="V38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5221,7 +5256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5244,45 +5279,45 @@
       <c r="I39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>57</v>
+      <c r="J39" s="11">
+        <v>3523</v>
       </c>
       <c r="K39" s="11">
-        <v>3523</v>
+        <v>6879</v>
       </c>
       <c r="L39" s="11">
-        <v>6879</v>
+        <v>6584</v>
       </c>
       <c r="M39" s="11">
-        <v>6584</v>
+        <v>8180</v>
       </c>
       <c r="N39" s="11">
-        <v>8180</v>
+        <v>7371</v>
       </c>
       <c r="O39" s="11">
-        <v>7371</v>
+        <v>6289</v>
       </c>
       <c r="P39" s="11">
-        <v>6289</v>
+        <v>6929</v>
       </c>
       <c r="Q39" s="11">
-        <v>6929</v>
+        <v>7171</v>
       </c>
       <c r="R39" s="11">
-        <v>7171</v>
+        <v>6677</v>
       </c>
       <c r="S39" s="11">
-        <v>6677</v>
+        <v>7158</v>
       </c>
       <c r="T39" s="11">
-        <v>7158</v>
+        <v>6645</v>
       </c>
       <c r="U39" s="11">
-        <v>6645</v>
-      </c>
-      <c r="V39" s="11">
         <v>8438</v>
       </c>
+      <c r="V39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W39" s="11" t="s">
         <v>57</v>
       </c>
@@ -5380,7 +5415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5403,45 +5438,45 @@
       <c r="I40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>57</v>
+      <c r="J40" s="13">
+        <v>1327</v>
       </c>
       <c r="K40" s="13">
-        <v>1327</v>
+        <v>2053</v>
       </c>
       <c r="L40" s="13">
-        <v>2053</v>
+        <v>463</v>
       </c>
       <c r="M40" s="13">
-        <v>463</v>
+        <v>732</v>
       </c>
       <c r="N40" s="13">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="O40" s="13">
-        <v>805</v>
+        <v>1081</v>
       </c>
       <c r="P40" s="13">
-        <v>1081</v>
+        <v>970</v>
       </c>
       <c r="Q40" s="13">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="R40" s="13">
-        <v>994</v>
+        <v>1172</v>
       </c>
       <c r="S40" s="13">
-        <v>1172</v>
+        <v>1015</v>
       </c>
       <c r="T40" s="13">
-        <v>1015</v>
+        <v>614</v>
       </c>
       <c r="U40" s="13">
-        <v>614</v>
-      </c>
-      <c r="V40" s="13">
         <v>978</v>
       </c>
+      <c r="V40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5539,7 +5574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5601,11 +5636,11 @@
       <c r="V41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
+      <c r="W41" s="11">
+        <v>15</v>
       </c>
       <c r="X41" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
@@ -5623,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AE41" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="11">
         <v>0</v>
@@ -5634,8 +5669,8 @@
       <c r="AG41" s="11">
         <v>0</v>
       </c>
-      <c r="AH41" s="11">
-        <v>0</v>
+      <c r="AH41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI41" s="11" t="s">
         <v>57</v>
@@ -5661,14 +5696,14 @@
       <c r="AP41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ41" s="11" t="s">
-        <v>57</v>
+      <c r="AQ41" s="11">
+        <v>0</v>
       </c>
       <c r="AR41" s="11">
-        <v>0</v>
+        <v>4613</v>
       </c>
       <c r="AS41" s="11">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="11">
         <v>0</v>
@@ -5698,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5721,81 +5756,81 @@
       <c r="I42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>57</v>
+      <c r="J42" s="13">
+        <v>299</v>
       </c>
       <c r="K42" s="13">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
       </c>
       <c r="M42" s="13">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="N42" s="13">
-        <v>3375</v>
+        <v>4900</v>
       </c>
       <c r="O42" s="13">
-        <v>4900</v>
+        <v>4173</v>
       </c>
       <c r="P42" s="13">
-        <v>4173</v>
+        <v>4588</v>
       </c>
       <c r="Q42" s="13">
-        <v>4588</v>
+        <v>6723</v>
       </c>
       <c r="R42" s="13">
-        <v>6723</v>
+        <v>4032</v>
       </c>
       <c r="S42" s="13">
-        <v>4032</v>
+        <v>3413</v>
       </c>
       <c r="T42" s="13">
-        <v>3413</v>
+        <v>5951</v>
       </c>
       <c r="U42" s="13">
-        <v>5951</v>
-      </c>
-      <c r="V42" s="13">
         <v>4115</v>
       </c>
+      <c r="V42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W42" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>57</v>
+      <c r="Y42" s="13">
+        <v>5759</v>
       </c>
       <c r="Z42" s="13">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="AA42" s="13">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="AB42" s="13">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="AC42" s="13">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="AD42" s="13">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AE42" s="13">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AF42" s="13">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AG42" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AH42" s="13">
         <v>7856</v>
       </c>
+      <c r="AH42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI42" s="13" t="s">
         <v>57</v>
       </c>
@@ -5857,7 +5892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5892,17 +5927,17 @@
       <c r="M43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>57</v>
+      <c r="N43" s="11">
+        <v>956</v>
       </c>
       <c r="O43" s="11">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="P43" s="11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R43" s="11">
         <v>0</v>
@@ -5911,14 +5946,14 @@
         <v>0</v>
       </c>
       <c r="T43" s="11">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="U43" s="11">
-        <v>294</v>
-      </c>
-      <c r="V43" s="11">
         <v>197</v>
       </c>
+      <c r="V43" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W43" s="11" t="s">
         <v>57</v>
       </c>
@@ -6016,7 +6051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6075,45 +6110,45 @@
       <c r="U44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V44" s="13" t="s">
-        <v>57</v>
+      <c r="V44" s="13">
+        <v>26375</v>
       </c>
       <c r="W44" s="13">
-        <v>26375</v>
+        <v>78925</v>
       </c>
       <c r="X44" s="13">
-        <v>78925</v>
+        <v>62365</v>
       </c>
       <c r="Y44" s="13">
-        <v>62365</v>
+        <v>38739</v>
       </c>
       <c r="Z44" s="13">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="AA44" s="13">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="13">
         <v>0</v>
       </c>
       <c r="AC44" s="13">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AD44" s="13">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AE44" s="13">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AF44" s="13">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AG44" s="13">
-        <v>62289</v>
-      </c>
-      <c r="AH44" s="13">
         <v>20479</v>
       </c>
+      <c r="AH44" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI44" s="13" t="s">
         <v>57</v>
       </c>
@@ -6138,11 +6173,11 @@
       <c r="AP44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>57</v>
+      <c r="AQ44" s="13">
+        <v>-1</v>
       </c>
       <c r="AR44" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="13">
         <v>0</v>
@@ -6163,19 +6198,19 @@
         <v>0</v>
       </c>
       <c r="AY44" s="13">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AZ44" s="13">
-        <v>2448</v>
+        <v>28955</v>
       </c>
       <c r="BA44" s="13">
-        <v>28955</v>
+        <v>97568</v>
       </c>
       <c r="BB44" s="13">
-        <v>97568</v>
+        <v>56400</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6198,14 +6233,14 @@
       <c r="I45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>57</v>
+      <c r="J45" s="11">
+        <v>27691</v>
       </c>
       <c r="K45" s="11">
-        <v>27691</v>
+        <v>72296</v>
       </c>
       <c r="L45" s="11">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="M45" s="11">
         <v>0</v>
@@ -6223,20 +6258,20 @@
         <v>0</v>
       </c>
       <c r="R45" s="11">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="S45" s="11">
-        <v>1513</v>
+        <v>43021</v>
       </c>
       <c r="T45" s="11">
-        <v>43021</v>
+        <v>47679</v>
       </c>
       <c r="U45" s="11">
-        <v>47679</v>
-      </c>
-      <c r="V45" s="11">
         <v>13935</v>
       </c>
+      <c r="V45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W45" s="11" t="s">
         <v>57</v>
       </c>
@@ -6270,14 +6305,14 @@
       <c r="AG45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH45" s="11" t="s">
-        <v>57</v>
+      <c r="AH45" s="11">
+        <v>40166</v>
       </c>
       <c r="AI45" s="11">
-        <v>40166</v>
+        <v>121040</v>
       </c>
       <c r="AJ45" s="11">
-        <v>121040</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="11">
         <v>0</v>
@@ -6297,8 +6332,8 @@
       <c r="AP45" s="11">
         <v>0</v>
       </c>
-      <c r="AQ45" s="11">
-        <v>0</v>
+      <c r="AQ45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR45" s="11" t="s">
         <v>57</v>
@@ -6334,7 +6369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6393,18 +6428,18 @@
       <c r="U46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V46" s="13" t="s">
-        <v>57</v>
+      <c r="V46" s="13">
+        <v>2809</v>
       </c>
       <c r="W46" s="13">
-        <v>2809</v>
+        <v>7731</v>
       </c>
       <c r="X46" s="13">
-        <v>7731</v>
-      </c>
-      <c r="Y46" s="13">
         <v>6481</v>
       </c>
+      <c r="Y46" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z46" s="13" t="s">
         <v>57</v>
       </c>
@@ -6493,7 +6528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6516,45 +6551,45 @@
       <c r="I47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>57</v>
+      <c r="J47" s="11">
+        <v>37109</v>
       </c>
       <c r="K47" s="11">
-        <v>37109</v>
+        <v>66084</v>
       </c>
       <c r="L47" s="11">
-        <v>66084</v>
+        <v>54027</v>
       </c>
       <c r="M47" s="11">
-        <v>54027</v>
+        <v>56030</v>
       </c>
       <c r="N47" s="11">
-        <v>56030</v>
+        <v>48485</v>
       </c>
       <c r="O47" s="11">
-        <v>48485</v>
+        <v>53334</v>
       </c>
       <c r="P47" s="11">
-        <v>53334</v>
+        <v>62021</v>
       </c>
       <c r="Q47" s="11">
-        <v>62021</v>
+        <v>48501</v>
       </c>
       <c r="R47" s="11">
-        <v>48501</v>
+        <v>48465</v>
       </c>
       <c r="S47" s="11">
-        <v>48465</v>
+        <v>39927</v>
       </c>
       <c r="T47" s="11">
-        <v>39927</v>
+        <v>43232</v>
       </c>
       <c r="U47" s="11">
-        <v>43232</v>
-      </c>
-      <c r="V47" s="11">
         <v>59472</v>
       </c>
+      <c r="V47" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W47" s="11" t="s">
         <v>57</v>
       </c>
@@ -6652,7 +6687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6675,45 +6710,45 @@
       <c r="I48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>57</v>
+      <c r="J48" s="13">
+        <v>38276</v>
       </c>
       <c r="K48" s="13">
-        <v>38276</v>
+        <v>82074</v>
       </c>
       <c r="L48" s="13">
-        <v>82074</v>
+        <v>76520</v>
       </c>
       <c r="M48" s="13">
-        <v>76520</v>
+        <v>72238</v>
       </c>
       <c r="N48" s="13">
-        <v>72238</v>
+        <v>84546</v>
       </c>
       <c r="O48" s="13">
-        <v>84546</v>
+        <v>75221</v>
       </c>
       <c r="P48" s="13">
-        <v>75221</v>
+        <v>79999</v>
       </c>
       <c r="Q48" s="13">
-        <v>79999</v>
+        <v>72743</v>
       </c>
       <c r="R48" s="13">
-        <v>72743</v>
+        <v>81537</v>
       </c>
       <c r="S48" s="13">
-        <v>81537</v>
+        <v>82527</v>
       </c>
       <c r="T48" s="13">
-        <v>82527</v>
+        <v>82977</v>
       </c>
       <c r="U48" s="13">
-        <v>82977</v>
-      </c>
-      <c r="V48" s="13">
         <v>97497</v>
       </c>
+      <c r="V48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6811,7 +6846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6834,45 +6869,45 @@
       <c r="I49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>57</v>
+      <c r="J49" s="11">
+        <v>3342</v>
       </c>
       <c r="K49" s="11">
-        <v>3342</v>
+        <v>7464</v>
       </c>
       <c r="L49" s="11">
-        <v>7464</v>
+        <v>6943</v>
       </c>
       <c r="M49" s="11">
-        <v>6943</v>
+        <v>8109</v>
       </c>
       <c r="N49" s="11">
-        <v>8109</v>
+        <v>6167</v>
       </c>
       <c r="O49" s="11">
-        <v>6167</v>
+        <v>5450</v>
       </c>
       <c r="P49" s="11">
-        <v>5450</v>
+        <v>5619</v>
       </c>
       <c r="Q49" s="11">
-        <v>5619</v>
+        <v>5489</v>
       </c>
       <c r="R49" s="11">
-        <v>5489</v>
+        <v>5558</v>
       </c>
       <c r="S49" s="11">
-        <v>5558</v>
+        <v>5329</v>
       </c>
       <c r="T49" s="11">
-        <v>5329</v>
+        <v>4485</v>
       </c>
       <c r="U49" s="11">
-        <v>4485</v>
-      </c>
-      <c r="V49" s="11">
         <v>6314</v>
       </c>
+      <c r="V49" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W49" s="11" t="s">
         <v>57</v>
       </c>
@@ -6970,7 +7005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7027,7 +7062,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7093,8 +7128,8 @@
       <c r="X51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>57</v>
+      <c r="Y51" s="17">
+        <v>0</v>
       </c>
       <c r="Z51" s="17">
         <v>0</v>
@@ -7184,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
@@ -7241,7 +7276,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>77</v>
       </c>
@@ -7307,8 +7342,8 @@
       <c r="X53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="17" t="s">
-        <v>57</v>
+      <c r="Y53" s="17">
+        <v>0</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
@@ -7398,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>74</v>
       </c>
@@ -7420,142 +7455,142 @@
         <v>0</v>
       </c>
       <c r="J54" s="19">
-        <v>0</v>
+        <v>117252</v>
       </c>
       <c r="K54" s="19">
-        <v>117252</v>
+        <v>248354</v>
       </c>
       <c r="L54" s="19">
-        <v>248354</v>
+        <v>151216</v>
       </c>
       <c r="M54" s="19">
-        <v>151216</v>
+        <v>158230</v>
       </c>
       <c r="N54" s="19">
-        <v>158230</v>
+        <v>158394</v>
       </c>
       <c r="O54" s="19">
-        <v>158394</v>
+        <v>147297</v>
       </c>
       <c r="P54" s="19">
-        <v>147297</v>
+        <v>172357</v>
       </c>
       <c r="Q54" s="19">
-        <v>172357</v>
+        <v>143263</v>
       </c>
       <c r="R54" s="19">
-        <v>143263</v>
+        <v>150703</v>
       </c>
       <c r="S54" s="19">
-        <v>150703</v>
+        <v>184133</v>
       </c>
       <c r="T54" s="19">
-        <v>184133</v>
+        <v>193472</v>
       </c>
       <c r="U54" s="19">
-        <v>193472</v>
+        <v>192800</v>
       </c>
       <c r="V54" s="19">
-        <v>192800</v>
+        <v>128478</v>
       </c>
       <c r="W54" s="19">
-        <v>128478</v>
+        <v>294997</v>
       </c>
       <c r="X54" s="19">
-        <v>294997</v>
+        <v>243615</v>
       </c>
       <c r="Y54" s="19">
-        <v>243615</v>
+        <v>236594</v>
       </c>
       <c r="Z54" s="19">
-        <v>236594</v>
+        <v>202966</v>
       </c>
       <c r="AA54" s="19">
-        <v>202966</v>
+        <v>179368</v>
       </c>
       <c r="AB54" s="19">
-        <v>179368</v>
+        <v>182773</v>
       </c>
       <c r="AC54" s="19">
-        <v>182773</v>
+        <v>248142</v>
       </c>
       <c r="AD54" s="19">
-        <v>248142</v>
+        <v>209289</v>
       </c>
       <c r="AE54" s="19">
-        <v>209289</v>
+        <v>218962</v>
       </c>
       <c r="AF54" s="19">
-        <v>218962</v>
+        <v>206812</v>
       </c>
       <c r="AG54" s="19">
-        <v>206812</v>
+        <v>177400</v>
       </c>
       <c r="AH54" s="19">
-        <v>177400</v>
+        <v>155885</v>
       </c>
       <c r="AI54" s="19">
-        <v>155885</v>
+        <v>292938</v>
       </c>
       <c r="AJ54" s="19">
-        <v>292938</v>
+        <v>187447</v>
       </c>
       <c r="AK54" s="19">
-        <v>187447</v>
+        <v>142504</v>
       </c>
       <c r="AL54" s="19">
-        <v>142504</v>
+        <v>104024</v>
       </c>
       <c r="AM54" s="19">
-        <v>104024</v>
+        <v>165589</v>
       </c>
       <c r="AN54" s="19">
-        <v>165589</v>
+        <v>168559</v>
       </c>
       <c r="AO54" s="19">
-        <v>168559</v>
+        <v>189515</v>
       </c>
       <c r="AP54" s="19">
-        <v>189515</v>
+        <v>196808</v>
       </c>
       <c r="AQ54" s="19">
-        <v>196808</v>
+        <v>171497</v>
       </c>
       <c r="AR54" s="19">
-        <v>171497</v>
+        <v>174465</v>
       </c>
       <c r="AS54" s="19">
-        <v>174465</v>
+        <v>196060</v>
       </c>
       <c r="AT54" s="19">
-        <v>196060</v>
+        <v>144850</v>
       </c>
       <c r="AU54" s="19">
-        <v>144850</v>
+        <v>180965</v>
       </c>
       <c r="AV54" s="19">
-        <v>180965</v>
+        <v>191838</v>
       </c>
       <c r="AW54" s="19">
-        <v>191838</v>
+        <v>153431</v>
       </c>
       <c r="AX54" s="19">
-        <v>153431</v>
+        <v>162936</v>
       </c>
       <c r="AY54" s="19">
-        <v>162936</v>
+        <v>213706</v>
       </c>
       <c r="AZ54" s="19">
-        <v>213706</v>
+        <v>214795</v>
       </c>
       <c r="BA54" s="19">
-        <v>214795</v>
+        <v>307482</v>
       </c>
       <c r="BB54" s="19">
-        <v>307482</v>
+        <v>287279</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7610,7 +7645,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7665,7 +7700,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7720,7 +7755,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -7877,7 +7912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7932,7 +7967,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>78</v>
       </c>
@@ -7989,7 +8024,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8048,107 +8083,107 @@
       <c r="U61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V61" s="11" t="s">
-        <v>57</v>
+      <c r="V61" s="11">
+        <v>39627</v>
       </c>
       <c r="W61" s="11">
-        <v>39627</v>
+        <v>77027</v>
       </c>
       <c r="X61" s="11">
-        <v>77027</v>
+        <v>65801</v>
       </c>
       <c r="Y61" s="11">
-        <v>65801</v>
+        <v>89345</v>
       </c>
       <c r="Z61" s="11">
-        <v>89345</v>
+        <v>104936</v>
       </c>
       <c r="AA61" s="11">
-        <v>104936</v>
+        <v>116390</v>
       </c>
       <c r="AB61" s="11">
-        <v>116390</v>
+        <v>99437</v>
       </c>
       <c r="AC61" s="11">
-        <v>99437</v>
+        <v>117329</v>
       </c>
       <c r="AD61" s="11">
-        <v>117329</v>
+        <v>131846</v>
       </c>
       <c r="AE61" s="11">
-        <v>131846</v>
+        <v>83934</v>
       </c>
       <c r="AF61" s="11">
-        <v>83934</v>
+        <v>109324</v>
       </c>
       <c r="AG61" s="11">
-        <v>109324</v>
+        <v>98840</v>
       </c>
       <c r="AH61" s="11">
-        <v>98840</v>
+        <v>167186</v>
       </c>
       <c r="AI61" s="11">
-        <v>167186</v>
+        <v>219772</v>
       </c>
       <c r="AJ61" s="11">
-        <v>219772</v>
+        <v>218995</v>
       </c>
       <c r="AK61" s="11">
-        <v>218995</v>
+        <v>166798</v>
       </c>
       <c r="AL61" s="11">
-        <v>166798</v>
+        <v>149244</v>
       </c>
       <c r="AM61" s="11">
-        <v>149244</v>
+        <v>227989</v>
       </c>
       <c r="AN61" s="11">
-        <v>227989</v>
+        <v>267371</v>
       </c>
       <c r="AO61" s="11">
-        <v>267371</v>
+        <v>307669</v>
       </c>
       <c r="AP61" s="11">
-        <v>307669</v>
+        <v>312157</v>
       </c>
       <c r="AQ61" s="11">
-        <v>312157</v>
+        <v>237996</v>
       </c>
       <c r="AR61" s="11">
-        <v>237996</v>
+        <v>230133</v>
       </c>
       <c r="AS61" s="11">
-        <v>230133</v>
+        <v>269861</v>
       </c>
       <c r="AT61" s="11">
-        <v>269861</v>
+        <v>235604</v>
       </c>
       <c r="AU61" s="11">
-        <v>235604</v>
+        <v>297108</v>
       </c>
       <c r="AV61" s="11">
-        <v>297108</v>
+        <v>443918</v>
       </c>
       <c r="AW61" s="11">
-        <v>443918</v>
+        <v>390281</v>
       </c>
       <c r="AX61" s="11">
-        <v>390281</v>
+        <v>482051</v>
       </c>
       <c r="AY61" s="11">
-        <v>482051</v>
+        <v>478687</v>
       </c>
       <c r="AZ61" s="11">
-        <v>478687</v>
+        <v>427419</v>
       </c>
       <c r="BA61" s="11">
-        <v>427419</v>
+        <v>477039</v>
       </c>
       <c r="BB61" s="11">
-        <v>477039</v>
+        <v>404948</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -8180,20 +8215,20 @@
       <c r="L62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M62" s="13" t="s">
-        <v>57</v>
+      <c r="M62" s="13">
+        <v>31684</v>
       </c>
       <c r="N62" s="13">
-        <v>31684</v>
+        <v>15738</v>
       </c>
       <c r="O62" s="13">
-        <v>15738</v>
+        <v>0</v>
       </c>
       <c r="P62" s="13">
-        <v>0</v>
+        <v>47528</v>
       </c>
       <c r="Q62" s="13">
-        <v>47528</v>
+        <v>0</v>
       </c>
       <c r="R62" s="13">
         <v>0</v>
@@ -8207,8 +8242,8 @@
       <c r="U62" s="13">
         <v>0</v>
       </c>
-      <c r="V62" s="13">
-        <v>0</v>
+      <c r="V62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W62" s="13" t="s">
         <v>57</v>
@@ -8243,14 +8278,14 @@
       <c r="AG62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH62" s="13" t="s">
-        <v>57</v>
+      <c r="AH62" s="13">
+        <v>5455</v>
       </c>
       <c r="AI62" s="13">
-        <v>5455</v>
+        <v>40352</v>
       </c>
       <c r="AJ62" s="13">
-        <v>40352</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="13">
         <v>0</v>
@@ -8268,11 +8303,11 @@
         <v>0</v>
       </c>
       <c r="AP62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="13">
         <v>14108</v>
       </c>
+      <c r="AQ62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AR62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8307,7 +8342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -8366,107 +8401,107 @@
       <c r="U63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>57</v>
+      <c r="V63" s="11">
+        <v>156660</v>
       </c>
       <c r="W63" s="11">
-        <v>156660</v>
+        <v>325816</v>
       </c>
       <c r="X63" s="11">
-        <v>325816</v>
+        <v>282701</v>
       </c>
       <c r="Y63" s="11">
-        <v>282701</v>
+        <v>363783</v>
       </c>
       <c r="Z63" s="11">
-        <v>363783</v>
+        <v>376275</v>
       </c>
       <c r="AA63" s="11">
-        <v>376275</v>
+        <v>359067</v>
       </c>
       <c r="AB63" s="11">
-        <v>359067</v>
+        <v>378334</v>
       </c>
       <c r="AC63" s="11">
-        <v>378334</v>
+        <v>534901</v>
       </c>
       <c r="AD63" s="11">
-        <v>534901</v>
+        <v>355004</v>
       </c>
       <c r="AE63" s="11">
-        <v>355004</v>
+        <v>328996</v>
       </c>
       <c r="AF63" s="11">
-        <v>328996</v>
+        <v>295609</v>
       </c>
       <c r="AG63" s="11">
-        <v>295609</v>
+        <v>331053</v>
       </c>
       <c r="AH63" s="11">
-        <v>331053</v>
+        <v>252271</v>
       </c>
       <c r="AI63" s="11">
-        <v>252271</v>
+        <v>490846</v>
       </c>
       <c r="AJ63" s="11">
-        <v>490846</v>
+        <v>565164</v>
       </c>
       <c r="AK63" s="11">
-        <v>565164</v>
+        <v>536861</v>
       </c>
       <c r="AL63" s="11">
-        <v>536861</v>
+        <v>539113</v>
       </c>
       <c r="AM63" s="11">
-        <v>539113</v>
+        <v>955486</v>
       </c>
       <c r="AN63" s="11">
-        <v>955486</v>
+        <v>669700</v>
       </c>
       <c r="AO63" s="11">
-        <v>669700</v>
+        <v>719700</v>
       </c>
       <c r="AP63" s="11">
-        <v>719700</v>
+        <v>799824</v>
       </c>
       <c r="AQ63" s="11">
-        <v>799824</v>
+        <v>693602</v>
       </c>
       <c r="AR63" s="11">
-        <v>693602</v>
+        <v>667009</v>
       </c>
       <c r="AS63" s="11">
-        <v>667009</v>
+        <v>863788</v>
       </c>
       <c r="AT63" s="11">
-        <v>863788</v>
+        <v>625079</v>
       </c>
       <c r="AU63" s="11">
-        <v>625079</v>
+        <v>774630</v>
       </c>
       <c r="AV63" s="11">
-        <v>774630</v>
+        <v>1039274</v>
       </c>
       <c r="AW63" s="11">
-        <v>1039274</v>
+        <v>1072318</v>
       </c>
       <c r="AX63" s="11">
-        <v>1072318</v>
+        <v>1020364</v>
       </c>
       <c r="AY63" s="11">
-        <v>1020364</v>
+        <v>1257899</v>
       </c>
       <c r="AZ63" s="11">
-        <v>1257899</v>
+        <v>1043249</v>
       </c>
       <c r="BA63" s="11">
-        <v>1043249</v>
+        <v>1152788</v>
       </c>
       <c r="BB63" s="11">
-        <v>1152788</v>
+        <v>1293920</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -8489,45 +8524,45 @@
       <c r="I64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>57</v>
+      <c r="J64" s="13">
+        <v>19129</v>
       </c>
       <c r="K64" s="13">
-        <v>19129</v>
+        <v>40353</v>
       </c>
       <c r="L64" s="13">
-        <v>40353</v>
+        <v>23589</v>
       </c>
       <c r="M64" s="13">
-        <v>23589</v>
+        <v>9372</v>
       </c>
       <c r="N64" s="13">
-        <v>9372</v>
+        <v>6939</v>
       </c>
       <c r="O64" s="13">
-        <v>6939</v>
+        <v>6679</v>
       </c>
       <c r="P64" s="13">
-        <v>6679</v>
+        <v>6356</v>
       </c>
       <c r="Q64" s="13">
-        <v>6356</v>
+        <v>6022</v>
       </c>
       <c r="R64" s="13">
-        <v>6022</v>
+        <v>6414</v>
       </c>
       <c r="S64" s="13">
-        <v>6414</v>
+        <v>6391</v>
       </c>
       <c r="T64" s="13">
-        <v>6391</v>
+        <v>5847</v>
       </c>
       <c r="U64" s="13">
-        <v>5847</v>
-      </c>
-      <c r="V64" s="13">
         <v>6798</v>
       </c>
+      <c r="V64" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W64" s="13" t="s">
         <v>57</v>
       </c>
@@ -8625,7 +8660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8648,45 +8683,45 @@
       <c r="I65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>57</v>
+      <c r="J65" s="11">
+        <v>10796</v>
       </c>
       <c r="K65" s="11">
-        <v>10796</v>
+        <v>21113</v>
       </c>
       <c r="L65" s="11">
-        <v>21113</v>
+        <v>20222</v>
       </c>
       <c r="M65" s="11">
-        <v>20222</v>
+        <v>26315</v>
       </c>
       <c r="N65" s="11">
-        <v>26315</v>
+        <v>28391</v>
       </c>
       <c r="O65" s="11">
-        <v>28391</v>
+        <v>24929</v>
       </c>
       <c r="P65" s="11">
-        <v>24929</v>
+        <v>26409</v>
       </c>
       <c r="Q65" s="11">
-        <v>26409</v>
+        <v>27022</v>
       </c>
       <c r="R65" s="11">
-        <v>27022</v>
+        <v>25078</v>
       </c>
       <c r="S65" s="11">
-        <v>25078</v>
+        <v>27007</v>
       </c>
       <c r="T65" s="11">
-        <v>27007</v>
+        <v>25016</v>
       </c>
       <c r="U65" s="11">
-        <v>25016</v>
-      </c>
-      <c r="V65" s="11">
         <v>31832</v>
       </c>
+      <c r="V65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W65" s="11" t="s">
         <v>57</v>
       </c>
@@ -8784,7 +8819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8807,45 +8842,45 @@
       <c r="I66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>57</v>
+      <c r="J66" s="13">
+        <v>4532</v>
       </c>
       <c r="K66" s="13">
-        <v>4532</v>
+        <v>6237</v>
       </c>
       <c r="L66" s="13">
-        <v>6237</v>
+        <v>1205</v>
       </c>
       <c r="M66" s="13">
-        <v>1205</v>
+        <v>1903</v>
       </c>
       <c r="N66" s="13">
-        <v>1903</v>
+        <v>2659</v>
       </c>
       <c r="O66" s="13">
-        <v>2659</v>
+        <v>3785</v>
       </c>
       <c r="P66" s="13">
-        <v>3785</v>
+        <v>3396</v>
       </c>
       <c r="Q66" s="13">
-        <v>3396</v>
+        <v>3480</v>
       </c>
       <c r="R66" s="13">
-        <v>3480</v>
+        <v>4101</v>
       </c>
       <c r="S66" s="13">
-        <v>4101</v>
+        <v>3554</v>
       </c>
       <c r="T66" s="13">
-        <v>3554</v>
+        <v>2147</v>
       </c>
       <c r="U66" s="13">
-        <v>2147</v>
-      </c>
-      <c r="V66" s="13">
         <v>3425</v>
       </c>
+      <c r="V66" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W66" s="13" t="s">
         <v>57</v>
       </c>
@@ -8943,7 +8978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -9005,11 +9040,11 @@
       <c r="V67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>57</v>
+      <c r="W67" s="11">
+        <v>76</v>
       </c>
       <c r="X67" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="11">
         <v>0</v>
@@ -9027,10 +9062,10 @@
         <v>0</v>
       </c>
       <c r="AD67" s="11">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="AE67" s="11">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="11">
         <v>0</v>
@@ -9038,8 +9073,8 @@
       <c r="AG67" s="11">
         <v>0</v>
       </c>
-      <c r="AH67" s="11">
-        <v>0</v>
+      <c r="AH67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI67" s="11" t="s">
         <v>57</v>
@@ -9065,14 +9100,14 @@
       <c r="AP67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ67" s="11" t="s">
-        <v>57</v>
+      <c r="AQ67" s="11">
+        <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>0</v>
+        <v>51026</v>
       </c>
       <c r="AS67" s="11">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="11">
         <v>0</v>
@@ -9102,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9125,81 +9160,81 @@
       <c r="I68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>57</v>
+      <c r="J68" s="13">
+        <v>882</v>
       </c>
       <c r="K68" s="13">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="L68" s="13">
         <v>0</v>
       </c>
       <c r="M68" s="13">
-        <v>0</v>
+        <v>15115</v>
       </c>
       <c r="N68" s="13">
-        <v>15115</v>
+        <v>21509</v>
       </c>
       <c r="O68" s="13">
-        <v>21509</v>
+        <v>16888</v>
       </c>
       <c r="P68" s="13">
-        <v>16888</v>
+        <v>19662</v>
       </c>
       <c r="Q68" s="13">
-        <v>19662</v>
+        <v>27275</v>
       </c>
       <c r="R68" s="13">
-        <v>27275</v>
+        <v>16017</v>
       </c>
       <c r="S68" s="13">
-        <v>16017</v>
+        <v>15332</v>
       </c>
       <c r="T68" s="13">
-        <v>15332</v>
+        <v>28893</v>
       </c>
       <c r="U68" s="13">
-        <v>28893</v>
-      </c>
-      <c r="V68" s="13">
         <v>23824</v>
       </c>
+      <c r="V68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W68" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>57</v>
+      <c r="Y68" s="13">
+        <v>45458</v>
       </c>
       <c r="Z68" s="13">
-        <v>45458</v>
+        <v>45558</v>
       </c>
       <c r="AA68" s="13">
-        <v>45558</v>
+        <v>39157</v>
       </c>
       <c r="AB68" s="13">
-        <v>39157</v>
+        <v>62886</v>
       </c>
       <c r="AC68" s="13">
-        <v>62886</v>
+        <v>59124</v>
       </c>
       <c r="AD68" s="13">
-        <v>59124</v>
+        <v>60297</v>
       </c>
       <c r="AE68" s="13">
-        <v>60297</v>
+        <v>61127</v>
       </c>
       <c r="AF68" s="13">
-        <v>61127</v>
+        <v>56456</v>
       </c>
       <c r="AG68" s="13">
-        <v>56456</v>
-      </c>
-      <c r="AH68" s="13">
         <v>80043</v>
       </c>
+      <c r="AH68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI68" s="13" t="s">
         <v>57</v>
       </c>
@@ -9261,7 +9296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9296,17 +9331,17 @@
       <c r="M69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N69" s="11" t="s">
-        <v>57</v>
+      <c r="N69" s="11">
+        <v>4055</v>
       </c>
       <c r="O69" s="11">
-        <v>4055</v>
+        <v>0</v>
       </c>
       <c r="P69" s="11">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="Q69" s="11">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
@@ -9315,14 +9350,14 @@
         <v>0</v>
       </c>
       <c r="T69" s="11">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="U69" s="11">
-        <v>1054</v>
-      </c>
-      <c r="V69" s="11">
         <v>746</v>
       </c>
+      <c r="V69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W69" s="11" t="s">
         <v>57</v>
       </c>
@@ -9420,7 +9455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9479,45 +9514,45 @@
       <c r="U70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V70" s="13" t="s">
-        <v>57</v>
+      <c r="V70" s="13">
+        <v>64472</v>
       </c>
       <c r="W70" s="13">
-        <v>64472</v>
+        <v>192480</v>
       </c>
       <c r="X70" s="13">
-        <v>192480</v>
+        <v>170349</v>
       </c>
       <c r="Y70" s="13">
-        <v>170349</v>
+        <v>116074</v>
       </c>
       <c r="Z70" s="13">
-        <v>116074</v>
+        <v>61457</v>
       </c>
       <c r="AA70" s="13">
-        <v>61457</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="13">
         <v>0</v>
       </c>
       <c r="AC70" s="13">
-        <v>0</v>
+        <v>45154</v>
       </c>
       <c r="AD70" s="13">
-        <v>45154</v>
+        <v>157142</v>
       </c>
       <c r="AE70" s="13">
-        <v>157142</v>
+        <v>295990</v>
       </c>
       <c r="AF70" s="13">
-        <v>295990</v>
+        <v>263674</v>
       </c>
       <c r="AG70" s="13">
-        <v>263674</v>
-      </c>
-      <c r="AH70" s="13">
         <v>89605</v>
       </c>
+      <c r="AH70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI70" s="13" t="s">
         <v>57</v>
       </c>
@@ -9542,8 +9577,8 @@
       <c r="AP70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ70" s="13" t="s">
-        <v>57</v>
+      <c r="AQ70" s="13">
+        <v>0</v>
       </c>
       <c r="AR70" s="13">
         <v>0</v>
@@ -9567,19 +9602,19 @@
         <v>0</v>
       </c>
       <c r="AY70" s="13">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="AZ70" s="13">
-        <v>20305</v>
+        <v>240180</v>
       </c>
       <c r="BA70" s="13">
-        <v>240180</v>
+        <v>812608</v>
       </c>
       <c r="BB70" s="13">
-        <v>812608</v>
+        <v>476775</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9602,14 +9637,14 @@
       <c r="I71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>57</v>
+      <c r="J71" s="11">
+        <v>50144</v>
       </c>
       <c r="K71" s="11">
-        <v>50144</v>
+        <v>157469</v>
       </c>
       <c r="L71" s="11">
-        <v>157469</v>
+        <v>0</v>
       </c>
       <c r="M71" s="11">
         <v>0</v>
@@ -9627,20 +9662,20 @@
         <v>0</v>
       </c>
       <c r="R71" s="11">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="S71" s="11">
-        <v>2873</v>
+        <v>85453</v>
       </c>
       <c r="T71" s="11">
-        <v>85453</v>
+        <v>104007</v>
       </c>
       <c r="U71" s="11">
-        <v>104007</v>
-      </c>
-      <c r="V71" s="11">
         <v>32132</v>
       </c>
+      <c r="V71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W71" s="11" t="s">
         <v>57</v>
       </c>
@@ -9674,14 +9709,14 @@
       <c r="AG71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH71" s="11" t="s">
-        <v>57</v>
+      <c r="AH71" s="11">
+        <v>176054</v>
       </c>
       <c r="AI71" s="11">
-        <v>176054</v>
+        <v>535629</v>
       </c>
       <c r="AJ71" s="11">
-        <v>535629</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="11">
         <v>0</v>
@@ -9701,8 +9736,8 @@
       <c r="AP71" s="11">
         <v>0</v>
       </c>
-      <c r="AQ71" s="11">
-        <v>0</v>
+      <c r="AQ71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR71" s="11" t="s">
         <v>57</v>
@@ -9738,7 +9773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9797,18 +9832,18 @@
       <c r="U72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V72" s="13" t="s">
-        <v>57</v>
+      <c r="V72" s="13">
+        <v>19087</v>
       </c>
       <c r="W72" s="13">
-        <v>19087</v>
+        <v>53917</v>
       </c>
       <c r="X72" s="13">
-        <v>53917</v>
-      </c>
-      <c r="Y72" s="13">
         <v>51595</v>
       </c>
+      <c r="Y72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z72" s="13" t="s">
         <v>57</v>
       </c>
@@ -9897,7 +9932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9920,45 +9955,45 @@
       <c r="I73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J73" s="11" t="s">
-        <v>57</v>
+      <c r="J73" s="11">
+        <v>52229</v>
       </c>
       <c r="K73" s="11">
-        <v>52229</v>
+        <v>95548</v>
       </c>
       <c r="L73" s="11">
-        <v>95548</v>
+        <v>82163</v>
       </c>
       <c r="M73" s="11">
-        <v>82163</v>
+        <v>103198</v>
       </c>
       <c r="N73" s="11">
-        <v>103198</v>
+        <v>97749</v>
       </c>
       <c r="O73" s="11">
-        <v>97749</v>
+        <v>105575</v>
       </c>
       <c r="P73" s="11">
-        <v>105575</v>
+        <v>122308</v>
       </c>
       <c r="Q73" s="11">
-        <v>122308</v>
+        <v>96015</v>
       </c>
       <c r="R73" s="11">
-        <v>96015</v>
+        <v>95841</v>
       </c>
       <c r="S73" s="11">
-        <v>95841</v>
+        <v>79188</v>
       </c>
       <c r="T73" s="11">
-        <v>79188</v>
+        <v>83241</v>
       </c>
       <c r="U73" s="11">
-        <v>83241</v>
-      </c>
-      <c r="V73" s="11">
         <v>114474</v>
       </c>
+      <c r="V73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W73" s="11" t="s">
         <v>57</v>
       </c>
@@ -10056,7 +10091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10079,45 +10114,45 @@
       <c r="I74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>57</v>
+      <c r="J74" s="13">
+        <v>41014</v>
       </c>
       <c r="K74" s="13">
-        <v>41014</v>
+        <v>91155</v>
       </c>
       <c r="L74" s="13">
-        <v>91155</v>
+        <v>88537</v>
       </c>
       <c r="M74" s="13">
-        <v>88537</v>
+        <v>106990</v>
       </c>
       <c r="N74" s="13">
-        <v>106990</v>
+        <v>138344</v>
       </c>
       <c r="O74" s="13">
-        <v>138344</v>
+        <v>125416</v>
       </c>
       <c r="P74" s="13">
-        <v>125416</v>
+        <v>133235</v>
       </c>
       <c r="Q74" s="13">
-        <v>133235</v>
+        <v>118425</v>
       </c>
       <c r="R74" s="13">
-        <v>118425</v>
+        <v>131779</v>
       </c>
       <c r="S74" s="13">
-        <v>131779</v>
+        <v>134157</v>
       </c>
       <c r="T74" s="13">
-        <v>134157</v>
+        <v>131689</v>
       </c>
       <c r="U74" s="13">
-        <v>131689</v>
-      </c>
-      <c r="V74" s="13">
         <v>154047</v>
       </c>
+      <c r="V74" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W74" s="13" t="s">
         <v>57</v>
       </c>
@@ -10215,7 +10250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>71</v>
       </c>
@@ -10238,45 +10273,45 @@
       <c r="I75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J75" s="11" t="s">
-        <v>57</v>
+      <c r="J75" s="11">
+        <v>9903</v>
       </c>
       <c r="K75" s="11">
-        <v>9903</v>
+        <v>22147</v>
       </c>
       <c r="L75" s="11">
-        <v>22147</v>
+        <v>20630</v>
       </c>
       <c r="M75" s="11">
-        <v>20630</v>
+        <v>25187</v>
       </c>
       <c r="N75" s="11">
-        <v>25187</v>
+        <v>23926</v>
       </c>
       <c r="O75" s="11">
-        <v>23926</v>
+        <v>21146</v>
       </c>
       <c r="P75" s="11">
-        <v>21146</v>
+        <v>21015</v>
       </c>
       <c r="Q75" s="11">
-        <v>21015</v>
+        <v>20348</v>
       </c>
       <c r="R75" s="11">
-        <v>20348</v>
+        <v>20588</v>
       </c>
       <c r="S75" s="11">
-        <v>20588</v>
+        <v>19722</v>
       </c>
       <c r="T75" s="11">
-        <v>19722</v>
+        <v>16577</v>
       </c>
       <c r="U75" s="11">
-        <v>16577</v>
-      </c>
-      <c r="V75" s="11">
         <v>23375</v>
       </c>
+      <c r="V75" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W75" s="11" t="s">
         <v>57</v>
       </c>
@@ -10374,7 +10409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>80</v>
       </c>
@@ -10431,7 +10466,7 @@
       <c r="BA76" s="15"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>73</v>
       </c>
@@ -10499,8 +10534,8 @@
       <c r="X77" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y77" s="17" t="s">
-        <v>57</v>
+      <c r="Y77" s="17">
+        <v>0</v>
       </c>
       <c r="Z77" s="17">
         <v>0</v>
@@ -10590,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10647,7 +10682,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>77</v>
       </c>
@@ -10715,8 +10750,8 @@
       <c r="X79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y79" s="17" t="s">
-        <v>57</v>
+      <c r="Y79" s="17">
+        <v>0</v>
       </c>
       <c r="Z79" s="17">
         <v>0</v>
@@ -10806,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10863,7 +10898,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
@@ -10931,8 +10966,8 @@
       <c r="X81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>57</v>
+      <c r="Y81" s="11">
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
@@ -11022,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
         <v>74</v>
       </c>
@@ -11044,142 +11079,142 @@
         <v>0</v>
       </c>
       <c r="J82" s="19">
-        <v>0</v>
+        <v>188629</v>
       </c>
       <c r="K82" s="19">
-        <v>188629</v>
+        <v>434022</v>
       </c>
       <c r="L82" s="19">
-        <v>434022</v>
+        <v>236346</v>
       </c>
       <c r="M82" s="19">
-        <v>236346</v>
+        <v>319764</v>
       </c>
       <c r="N82" s="19">
-        <v>319764</v>
+        <v>339310</v>
       </c>
       <c r="O82" s="19">
-        <v>339310</v>
+        <v>304418</v>
       </c>
       <c r="P82" s="19">
-        <v>304418</v>
+        <v>381464</v>
       </c>
       <c r="Q82" s="19">
-        <v>381464</v>
+        <v>298587</v>
       </c>
       <c r="R82" s="19">
-        <v>298587</v>
+        <v>302691</v>
       </c>
       <c r="S82" s="19">
-        <v>302691</v>
+        <v>370804</v>
       </c>
       <c r="T82" s="19">
-        <v>370804</v>
+        <v>398471</v>
       </c>
       <c r="U82" s="19">
-        <v>398471</v>
+        <v>390653</v>
       </c>
       <c r="V82" s="19">
-        <v>390653</v>
+        <v>279846</v>
       </c>
       <c r="W82" s="19">
-        <v>279846</v>
+        <v>649316</v>
       </c>
       <c r="X82" s="19">
-        <v>649316</v>
+        <v>570446</v>
       </c>
       <c r="Y82" s="19">
-        <v>570446</v>
+        <v>614660</v>
       </c>
       <c r="Z82" s="19">
-        <v>614660</v>
+        <v>588226</v>
       </c>
       <c r="AA82" s="19">
-        <v>588226</v>
+        <v>514614</v>
       </c>
       <c r="AB82" s="19">
-        <v>514614</v>
+        <v>540657</v>
       </c>
       <c r="AC82" s="19">
-        <v>540657</v>
+        <v>756508</v>
       </c>
       <c r="AD82" s="19">
-        <v>756508</v>
+        <v>706880</v>
       </c>
       <c r="AE82" s="19">
-        <v>706880</v>
+        <v>770047</v>
       </c>
       <c r="AF82" s="19">
-        <v>770047</v>
+        <v>725063</v>
       </c>
       <c r="AG82" s="19">
-        <v>725063</v>
+        <v>599541</v>
       </c>
       <c r="AH82" s="19">
-        <v>599541</v>
+        <v>600966</v>
       </c>
       <c r="AI82" s="19">
-        <v>600966</v>
+        <v>1286599</v>
       </c>
       <c r="AJ82" s="19">
-        <v>1286599</v>
+        <v>784159</v>
       </c>
       <c r="AK82" s="19">
-        <v>784159</v>
+        <v>703659</v>
       </c>
       <c r="AL82" s="19">
-        <v>703659</v>
+        <v>688357</v>
       </c>
       <c r="AM82" s="19">
-        <v>688357</v>
+        <v>1183475</v>
       </c>
       <c r="AN82" s="19">
-        <v>1183475</v>
+        <v>937071</v>
       </c>
       <c r="AO82" s="19">
-        <v>937071</v>
+        <v>1027369</v>
       </c>
       <c r="AP82" s="19">
-        <v>1027369</v>
+        <v>1126089</v>
       </c>
       <c r="AQ82" s="19">
-        <v>1126089</v>
+        <v>931598</v>
       </c>
       <c r="AR82" s="19">
-        <v>931598</v>
+        <v>948168</v>
       </c>
       <c r="AS82" s="19">
-        <v>948168</v>
+        <v>1133649</v>
       </c>
       <c r="AT82" s="19">
-        <v>1133649</v>
+        <v>860683</v>
       </c>
       <c r="AU82" s="19">
-        <v>860683</v>
+        <v>1071738</v>
       </c>
       <c r="AV82" s="19">
-        <v>1071738</v>
+        <v>1483192</v>
       </c>
       <c r="AW82" s="19">
-        <v>1483192</v>
+        <v>1462599</v>
       </c>
       <c r="AX82" s="19">
-        <v>1462599</v>
+        <v>1502415</v>
       </c>
       <c r="AY82" s="19">
-        <v>1502415</v>
+        <v>1756891</v>
       </c>
       <c r="AZ82" s="19">
-        <v>1756891</v>
+        <v>1710848</v>
       </c>
       <c r="BA82" s="19">
-        <v>1710848</v>
+        <v>2442435</v>
       </c>
       <c r="BB82" s="19">
-        <v>2442435</v>
+        <v>2175643</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11234,7 +11269,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11289,7 +11324,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11344,7 +11379,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>84</v>
       </c>
@@ -11501,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11556,7 +11591,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -11613,7 +11648,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11672,107 +11707,107 @@
       <c r="U89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V89" s="11" t="s">
-        <v>57</v>
+      <c r="V89" s="11">
+        <v>3710393</v>
       </c>
       <c r="W89" s="11">
-        <v>3710393</v>
+        <v>3746449</v>
       </c>
       <c r="X89" s="11">
-        <v>3746449</v>
+        <v>3881836</v>
       </c>
       <c r="Y89" s="11">
-        <v>3881836</v>
+        <v>4435536</v>
       </c>
       <c r="Z89" s="11">
-        <v>4435536</v>
+        <v>4687573</v>
       </c>
       <c r="AA89" s="11">
-        <v>4687573</v>
+        <v>4780662</v>
       </c>
       <c r="AB89" s="11">
-        <v>4780662</v>
+        <v>4827508</v>
       </c>
       <c r="AC89" s="11">
-        <v>4827508</v>
+        <v>5094837</v>
       </c>
       <c r="AD89" s="11">
-        <v>5094837</v>
+        <v>5182830</v>
       </c>
       <c r="AE89" s="11">
-        <v>5182830</v>
+        <v>5175361</v>
       </c>
       <c r="AF89" s="11">
-        <v>5175361</v>
+        <v>5179514</v>
       </c>
       <c r="AG89" s="11">
-        <v>5179514</v>
+        <v>5162436</v>
       </c>
       <c r="AH89" s="11">
-        <v>5162436</v>
+        <v>7249415</v>
       </c>
       <c r="AI89" s="11">
-        <v>7249415</v>
+        <v>7301153</v>
       </c>
       <c r="AJ89" s="11">
-        <v>7301153</v>
+        <v>7740527</v>
       </c>
       <c r="AK89" s="11">
-        <v>7740527</v>
+        <v>9134741</v>
       </c>
       <c r="AL89" s="11">
-        <v>9134741</v>
+        <v>10667906</v>
       </c>
       <c r="AM89" s="11">
-        <v>10667906</v>
+        <v>12870147</v>
       </c>
       <c r="AN89" s="11">
-        <v>12870147</v>
+        <v>11998404</v>
       </c>
       <c r="AO89" s="11">
-        <v>11998404</v>
+        <v>11066832</v>
       </c>
       <c r="AP89" s="11">
-        <v>11066832</v>
+        <v>10957583</v>
       </c>
       <c r="AQ89" s="11">
-        <v>10957583</v>
+        <v>9809818</v>
       </c>
       <c r="AR89" s="11">
-        <v>9809818</v>
+        <v>10042898</v>
       </c>
       <c r="AS89" s="11">
-        <v>10042898</v>
+        <v>10703248</v>
       </c>
       <c r="AT89" s="11">
-        <v>10703248</v>
+        <v>11674013</v>
       </c>
       <c r="AU89" s="11">
-        <v>11674013</v>
+        <v>12337091</v>
       </c>
       <c r="AV89" s="11">
-        <v>12337091</v>
+        <v>14140668</v>
       </c>
       <c r="AW89" s="11">
-        <v>14140668</v>
+        <v>17127699</v>
       </c>
       <c r="AX89" s="11">
-        <v>17127699</v>
+        <v>16334621</v>
       </c>
       <c r="AY89" s="11">
-        <v>16334621</v>
+        <v>15457472</v>
       </c>
       <c r="AZ89" s="11">
-        <v>15457472</v>
+        <v>12916863</v>
       </c>
       <c r="BA89" s="11">
-        <v>12916863</v>
+        <v>13619568</v>
       </c>
       <c r="BB89" s="11">
-        <v>13619568</v>
+        <v>16033735</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>58</v>
       </c>
@@ -11804,20 +11839,20 @@
       <c r="L90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M90" s="13" t="s">
-        <v>57</v>
+      <c r="M90" s="13">
+        <v>4776002</v>
       </c>
       <c r="N90" s="13">
-        <v>4776002</v>
+        <v>4689511</v>
       </c>
       <c r="O90" s="13">
-        <v>4689511</v>
+        <v>0</v>
       </c>
       <c r="P90" s="13">
-        <v>0</v>
+        <v>4745208</v>
       </c>
       <c r="Q90" s="13">
-        <v>4745208</v>
+        <v>0</v>
       </c>
       <c r="R90" s="13">
         <v>0</v>
@@ -11831,8 +11866,8 @@
       <c r="U90" s="13">
         <v>0</v>
       </c>
-      <c r="V90" s="13">
-        <v>0</v>
+      <c r="V90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W90" s="13" t="s">
         <v>57</v>
@@ -11867,15 +11902,15 @@
       <c r="AG90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH90" s="13" t="s">
-        <v>57</v>
+      <c r="AH90" s="13">
+        <v>9293015</v>
       </c>
       <c r="AI90" s="13">
-        <v>9293015</v>
-      </c>
-      <c r="AJ90" s="13">
         <v>9145966</v>
       </c>
+      <c r="AJ90" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AK90" s="13" t="s">
         <v>57</v>
       </c>
@@ -11891,12 +11926,12 @@
       <c r="AO90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ90" s="13">
+      <c r="AP90" s="13">
         <v>12621672</v>
       </c>
+      <c r="AQ90" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AR90" s="13" t="s">
         <v>57</v>
       </c>
@@ -11931,7 +11966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -11990,107 +12025,107 @@
       <c r="U91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V91" s="11" t="s">
-        <v>57</v>
+      <c r="V91" s="11">
+        <v>1767892</v>
       </c>
       <c r="W91" s="11">
-        <v>1767892</v>
+        <v>1735224</v>
       </c>
       <c r="X91" s="11">
-        <v>1735224</v>
+        <v>1791310</v>
       </c>
       <c r="Y91" s="11">
-        <v>1791310</v>
+        <v>2115596</v>
       </c>
       <c r="Z91" s="11">
-        <v>2115596</v>
+        <v>2376254</v>
       </c>
       <c r="AA91" s="11">
-        <v>2376254</v>
+        <v>2379881</v>
       </c>
       <c r="AB91" s="11">
-        <v>2379881</v>
+        <v>2419015</v>
       </c>
       <c r="AC91" s="11">
-        <v>2419015</v>
+        <v>2555618</v>
       </c>
       <c r="AD91" s="11">
-        <v>2555618</v>
+        <v>2511009</v>
       </c>
       <c r="AE91" s="11">
-        <v>2511009</v>
+        <v>2537629</v>
       </c>
       <c r="AF91" s="11">
-        <v>2537629</v>
+        <v>2506691</v>
       </c>
       <c r="AG91" s="11">
-        <v>2506691</v>
+        <v>2548149</v>
       </c>
       <c r="AH91" s="11">
-        <v>2548149</v>
+        <v>2739991</v>
       </c>
       <c r="AI91" s="11">
-        <v>2739991</v>
+        <v>3572777</v>
       </c>
       <c r="AJ91" s="11">
-        <v>3572777</v>
+        <v>3551029</v>
       </c>
       <c r="AK91" s="11">
-        <v>3551029</v>
+        <v>4321022</v>
       </c>
       <c r="AL91" s="11">
-        <v>4321022</v>
+        <v>5987882</v>
       </c>
       <c r="AM91" s="11">
-        <v>5987882</v>
+        <v>6461456</v>
       </c>
       <c r="AN91" s="11">
-        <v>6461456</v>
+        <v>4578363</v>
       </c>
       <c r="AO91" s="11">
-        <v>4578363</v>
+        <v>4450450</v>
       </c>
       <c r="AP91" s="11">
-        <v>4450450</v>
+        <v>4783579</v>
       </c>
       <c r="AQ91" s="11">
-        <v>4783579</v>
+        <v>4710786</v>
       </c>
       <c r="AR91" s="11">
-        <v>4710786</v>
+        <v>4539422</v>
       </c>
       <c r="AS91" s="11">
-        <v>4539422</v>
+        <v>5055916</v>
       </c>
       <c r="AT91" s="11">
-        <v>5055916</v>
+        <v>5013949</v>
       </c>
       <c r="AU91" s="11">
-        <v>5013949</v>
+        <v>4937644</v>
       </c>
       <c r="AV91" s="11">
-        <v>4937644</v>
+        <v>6477447</v>
       </c>
       <c r="AW91" s="11">
-        <v>6477447</v>
+        <v>8207939</v>
       </c>
       <c r="AX91" s="11">
-        <v>8207939</v>
+        <v>7647472</v>
       </c>
       <c r="AY91" s="11">
-        <v>7647472</v>
+        <v>6977087</v>
       </c>
       <c r="AZ91" s="11">
-        <v>6977087</v>
+        <v>6829781</v>
       </c>
       <c r="BA91" s="11">
-        <v>6829781</v>
+        <v>6591579</v>
       </c>
       <c r="BB91" s="11">
-        <v>6591579</v>
+        <v>6292681</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12113,44 +12148,44 @@
       <c r="I92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J92" s="13" t="s">
-        <v>57</v>
+      <c r="J92" s="13">
+        <v>3364820</v>
       </c>
       <c r="K92" s="13">
-        <v>3364820</v>
+        <v>3507736</v>
       </c>
       <c r="L92" s="13">
-        <v>3507736</v>
+        <v>3531816</v>
       </c>
       <c r="M92" s="13">
-        <v>3531816</v>
+        <v>3196453</v>
       </c>
       <c r="N92" s="13">
-        <v>3196453</v>
+        <v>3837942</v>
       </c>
       <c r="O92" s="13">
-        <v>3837942</v>
+        <v>3818754</v>
       </c>
       <c r="P92" s="13">
-        <v>3818754</v>
+        <v>3706122</v>
       </c>
       <c r="Q92" s="13">
-        <v>3706122</v>
+        <v>3667479</v>
       </c>
       <c r="R92" s="13">
-        <v>3667479</v>
+        <v>3667238</v>
       </c>
       <c r="S92" s="13">
-        <v>3667238</v>
+        <v>3666667</v>
       </c>
       <c r="T92" s="13">
+        <v>3665831</v>
+      </c>
+      <c r="U92" s="13">
         <v>3666667</v>
       </c>
-      <c r="U92" s="13">
-        <v>3665831</v>
-      </c>
-      <c r="V92" s="13">
-        <v>3666667</v>
+      <c r="V92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W92" s="13" t="s">
         <v>57</v>
@@ -12249,7 +12284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12272,45 +12307,45 @@
       <c r="I93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J93" s="11" t="s">
-        <v>57</v>
+      <c r="J93" s="11">
+        <v>3064434</v>
       </c>
       <c r="K93" s="11">
-        <v>3064434</v>
+        <v>3069196</v>
       </c>
       <c r="L93" s="11">
-        <v>3069196</v>
+        <v>3071385</v>
       </c>
       <c r="M93" s="11">
-        <v>3071385</v>
+        <v>3216993</v>
       </c>
       <c r="N93" s="11">
-        <v>3216993</v>
+        <v>3851716</v>
       </c>
       <c r="O93" s="11">
-        <v>3851716</v>
+        <v>3963905</v>
       </c>
       <c r="P93" s="11">
-        <v>3963905</v>
+        <v>3811372</v>
       </c>
       <c r="Q93" s="11">
-        <v>3811372</v>
+        <v>3768233</v>
       </c>
       <c r="R93" s="11">
-        <v>3768233</v>
+        <v>3755878</v>
       </c>
       <c r="S93" s="11">
-        <v>3755878</v>
+        <v>3772981</v>
       </c>
       <c r="T93" s="11">
-        <v>3772981</v>
+        <v>3764635</v>
       </c>
       <c r="U93" s="11">
-        <v>3764635</v>
-      </c>
-      <c r="V93" s="11">
         <v>3772458</v>
       </c>
+      <c r="V93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W93" s="11" t="s">
         <v>57</v>
       </c>
@@ -12408,7 +12443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12431,45 +12466,45 @@
       <c r="I94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J94" s="13" t="s">
-        <v>57</v>
+      <c r="J94" s="13">
+        <v>3415222</v>
       </c>
       <c r="K94" s="13">
-        <v>3415222</v>
+        <v>3037993</v>
       </c>
       <c r="L94" s="13">
-        <v>3037993</v>
+        <v>2602592</v>
       </c>
       <c r="M94" s="13">
-        <v>2602592</v>
+        <v>2599727</v>
       </c>
       <c r="N94" s="13">
-        <v>2599727</v>
+        <v>3303106</v>
       </c>
       <c r="O94" s="13">
-        <v>3303106</v>
+        <v>3501388</v>
       </c>
       <c r="P94" s="13">
-        <v>3501388</v>
+        <v>3501031</v>
       </c>
       <c r="Q94" s="13">
-        <v>3501031</v>
+        <v>3501006</v>
       </c>
       <c r="R94" s="13">
-        <v>3501006</v>
+        <v>3499147</v>
       </c>
       <c r="S94" s="13">
-        <v>3499147</v>
+        <v>3501478</v>
       </c>
       <c r="T94" s="13">
-        <v>3501478</v>
+        <v>3496743</v>
       </c>
       <c r="U94" s="13">
-        <v>3496743</v>
-      </c>
-      <c r="V94" s="13">
         <v>3502045</v>
       </c>
+      <c r="V94" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W94" s="13" t="s">
         <v>57</v>
       </c>
@@ -12567,7 +12602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12629,12 +12664,12 @@
       <c r="V95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X95" s="11">
+      <c r="W95" s="11">
         <v>5066667</v>
       </c>
+      <c r="X95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12650,12 +12685,12 @@
       <c r="AC95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE95" s="11">
+      <c r="AD95" s="11">
         <v>9353791</v>
       </c>
+      <c r="AE95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AF95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12689,15 +12724,15 @@
       <c r="AP95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ95" s="11" t="s">
-        <v>57</v>
+      <c r="AQ95" s="11">
+        <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS95" s="11">
         <v>11061348</v>
       </c>
+      <c r="AS95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12726,7 +12761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>64</v>
       </c>
@@ -12749,81 +12784,81 @@
       <c r="I96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="13" t="s">
-        <v>57</v>
+      <c r="J96" s="13">
+        <v>2949833</v>
       </c>
       <c r="K96" s="13">
-        <v>2949833</v>
+        <v>0</v>
       </c>
       <c r="L96" s="13">
         <v>0</v>
       </c>
       <c r="M96" s="13">
-        <v>0</v>
+        <v>4478519</v>
       </c>
       <c r="N96" s="13">
-        <v>4478519</v>
+        <v>4389592</v>
       </c>
       <c r="O96" s="13">
-        <v>4389592</v>
+        <v>4046969</v>
       </c>
       <c r="P96" s="13">
-        <v>4046969</v>
+        <v>4285527</v>
       </c>
       <c r="Q96" s="13">
-        <v>4285527</v>
+        <v>4056969</v>
       </c>
       <c r="R96" s="13">
-        <v>4056969</v>
+        <v>3972470</v>
       </c>
       <c r="S96" s="13">
-        <v>3972470</v>
+        <v>4492236</v>
       </c>
       <c r="T96" s="13">
-        <v>4492236</v>
+        <v>4855150</v>
       </c>
       <c r="U96" s="13">
-        <v>4855150</v>
-      </c>
-      <c r="V96" s="13">
         <v>5789550</v>
       </c>
+      <c r="V96" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W96" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>57</v>
+      <c r="Y96" s="13">
+        <v>7893384</v>
       </c>
       <c r="Z96" s="13">
-        <v>7893384</v>
+        <v>9107957</v>
       </c>
       <c r="AA96" s="13">
-        <v>9107957</v>
+        <v>9444525</v>
       </c>
       <c r="AB96" s="13">
-        <v>9444525</v>
+        <v>10889351</v>
       </c>
       <c r="AC96" s="13">
-        <v>10889351</v>
+        <v>11407293</v>
       </c>
       <c r="AD96" s="13">
-        <v>11407293</v>
+        <v>11452422</v>
       </c>
       <c r="AE96" s="13">
-        <v>11452422</v>
+        <v>10758008</v>
       </c>
       <c r="AF96" s="13">
-        <v>10758008</v>
+        <v>10287172</v>
       </c>
       <c r="AG96" s="13">
-        <v>10287172</v>
-      </c>
-      <c r="AH96" s="13">
         <v>10188773</v>
       </c>
+      <c r="AH96" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI96" s="13" t="s">
         <v>57</v>
       </c>
@@ -12885,7 +12920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>65</v>
       </c>
@@ -12920,17 +12955,17 @@
       <c r="M97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N97" s="11" t="s">
-        <v>57</v>
+      <c r="N97" s="11">
+        <v>4241632</v>
       </c>
       <c r="O97" s="11">
-        <v>4241632</v>
+        <v>0</v>
       </c>
       <c r="P97" s="11">
-        <v>0</v>
+        <v>3110000</v>
       </c>
       <c r="Q97" s="11">
-        <v>3110000</v>
+        <v>0</v>
       </c>
       <c r="R97" s="11">
         <v>0</v>
@@ -12939,14 +12974,14 @@
         <v>0</v>
       </c>
       <c r="T97" s="11">
-        <v>0</v>
+        <v>3585034</v>
       </c>
       <c r="U97" s="11">
-        <v>3585034</v>
-      </c>
-      <c r="V97" s="11">
         <v>3786802</v>
       </c>
+      <c r="V97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W97" s="11" t="s">
         <v>57</v>
       </c>
@@ -13044,7 +13079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>66</v>
       </c>
@@ -13103,45 +13138,45 @@
       <c r="U98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V98" s="13" t="s">
-        <v>57</v>
+      <c r="V98" s="13">
+        <v>2444436</v>
       </c>
       <c r="W98" s="13">
-        <v>2444436</v>
+        <v>2438771</v>
       </c>
       <c r="X98" s="13">
-        <v>2438771</v>
+        <v>2731484</v>
       </c>
       <c r="Y98" s="13">
-        <v>2731484</v>
+        <v>2996309</v>
       </c>
       <c r="Z98" s="13">
-        <v>2996309</v>
-      </c>
-      <c r="AA98" s="13">
         <v>3566860</v>
       </c>
+      <c r="AA98" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC98" s="13" t="s">
-        <v>57</v>
+      <c r="AC98" s="13">
+        <v>4249388</v>
       </c>
       <c r="AD98" s="13">
-        <v>4249388</v>
+        <v>4255247</v>
       </c>
       <c r="AE98" s="13">
-        <v>4255247</v>
+        <v>4390566</v>
       </c>
       <c r="AF98" s="13">
-        <v>4390566</v>
+        <v>4233075</v>
       </c>
       <c r="AG98" s="13">
-        <v>4233075</v>
-      </c>
-      <c r="AH98" s="13">
         <v>4375458</v>
       </c>
+      <c r="AH98" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI98" s="13" t="s">
         <v>57</v>
       </c>
@@ -13166,14 +13201,14 @@
       <c r="AP98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ98" s="13" t="s">
-        <v>57</v>
+      <c r="AQ98" s="13">
+        <v>27</v>
       </c>
       <c r="AR98" s="13">
-        <v>27</v>
-      </c>
-      <c r="AS98" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT98" s="13" t="s">
         <v>57</v>
@@ -13190,20 +13225,20 @@
       <c r="AX98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY98" s="13" t="s">
-        <v>57</v>
+      <c r="AY98" s="13">
+        <v>8294526</v>
       </c>
       <c r="AZ98" s="13">
-        <v>8294526</v>
+        <v>8294940</v>
       </c>
       <c r="BA98" s="13">
-        <v>8294940</v>
+        <v>8328632</v>
       </c>
       <c r="BB98" s="13">
-        <v>8328632</v>
+        <v>8453457</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>67</v>
       </c>
@@ -13226,14 +13261,14 @@
       <c r="I99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J99" s="11" t="s">
-        <v>57</v>
+      <c r="J99" s="11">
+        <v>1810841</v>
       </c>
       <c r="K99" s="11">
-        <v>1810841</v>
+        <v>2178115</v>
       </c>
       <c r="L99" s="11">
-        <v>2178115</v>
+        <v>0</v>
       </c>
       <c r="M99" s="11">
         <v>0</v>
@@ -13251,20 +13286,20 @@
         <v>0</v>
       </c>
       <c r="R99" s="11">
-        <v>0</v>
+        <v>1898876</v>
       </c>
       <c r="S99" s="11">
-        <v>1898876</v>
+        <v>1986309</v>
       </c>
       <c r="T99" s="11">
-        <v>1986309</v>
+        <v>2181401</v>
       </c>
       <c r="U99" s="11">
-        <v>2181401</v>
-      </c>
-      <c r="V99" s="11">
         <v>2305849</v>
       </c>
+      <c r="V99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W99" s="11" t="s">
         <v>57</v>
       </c>
@@ -13298,15 +13333,15 @@
       <c r="AG99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH99" s="11" t="s">
-        <v>57</v>
+      <c r="AH99" s="11">
+        <v>4383160</v>
       </c>
       <c r="AI99" s="11">
-        <v>4383160</v>
-      </c>
-      <c r="AJ99" s="11">
         <v>4425223</v>
       </c>
+      <c r="AJ99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AK99" s="11" t="s">
         <v>57</v>
       </c>
@@ -13362,7 +13397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>68</v>
       </c>
@@ -13421,18 +13456,18 @@
       <c r="U100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V100" s="13" t="s">
-        <v>57</v>
+      <c r="V100" s="13">
+        <v>6794945</v>
       </c>
       <c r="W100" s="13">
-        <v>6794945</v>
+        <v>6974130</v>
       </c>
       <c r="X100" s="13">
-        <v>6974130</v>
-      </c>
-      <c r="Y100" s="13">
         <v>7960963</v>
       </c>
+      <c r="Y100" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z100" s="13" t="s">
         <v>57</v>
       </c>
@@ -13521,7 +13556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>69</v>
       </c>
@@ -13544,45 +13579,45 @@
       <c r="I101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J101" s="11" t="s">
-        <v>57</v>
+      <c r="J101" s="11">
+        <v>1407448</v>
       </c>
       <c r="K101" s="11">
-        <v>1407448</v>
+        <v>1445857</v>
       </c>
       <c r="L101" s="11">
-        <v>1445857</v>
+        <v>1520777</v>
       </c>
       <c r="M101" s="11">
-        <v>1520777</v>
+        <v>1841835</v>
       </c>
       <c r="N101" s="11">
-        <v>1841835</v>
+        <v>2016067</v>
       </c>
       <c r="O101" s="11">
-        <v>2016067</v>
+        <v>1979507</v>
       </c>
       <c r="P101" s="11">
-        <v>1979507</v>
+        <v>1972042</v>
       </c>
       <c r="Q101" s="11">
-        <v>1972042</v>
+        <v>1979650</v>
       </c>
       <c r="R101" s="11">
-        <v>1979650</v>
+        <v>1977530</v>
       </c>
       <c r="S101" s="11">
-        <v>1977530</v>
+        <v>1983320</v>
       </c>
       <c r="T101" s="11">
-        <v>1983320</v>
+        <v>1925449</v>
       </c>
       <c r="U101" s="11">
-        <v>1925449</v>
-      </c>
-      <c r="V101" s="11">
         <v>1924839</v>
       </c>
+      <c r="V101" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="W101" s="11" t="s">
         <v>57</v>
       </c>
@@ -13680,7 +13715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>70</v>
       </c>
@@ -13703,45 +13738,45 @@
       <c r="I102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J102" s="13" t="s">
-        <v>57</v>
+      <c r="J102" s="13">
+        <v>1071533</v>
       </c>
       <c r="K102" s="13">
-        <v>1071533</v>
+        <v>1110644</v>
       </c>
       <c r="L102" s="13">
-        <v>1110644</v>
+        <v>1157044</v>
       </c>
       <c r="M102" s="13">
-        <v>1157044</v>
+        <v>1481076</v>
       </c>
       <c r="N102" s="13">
-        <v>1481076</v>
+        <v>1636316</v>
       </c>
       <c r="O102" s="13">
-        <v>1636316</v>
+        <v>1667300</v>
       </c>
       <c r="P102" s="13">
-        <v>1667300</v>
+        <v>1665458</v>
       </c>
       <c r="Q102" s="13">
-        <v>1665458</v>
+        <v>1627992</v>
       </c>
       <c r="R102" s="13">
-        <v>1627992</v>
+        <v>1616187</v>
       </c>
       <c r="S102" s="13">
-        <v>1616187</v>
+        <v>1625613</v>
       </c>
       <c r="T102" s="13">
-        <v>1625613</v>
+        <v>1587054</v>
       </c>
       <c r="U102" s="13">
-        <v>1587054</v>
-      </c>
-      <c r="V102" s="13">
         <v>1580018</v>
       </c>
+      <c r="V102" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W102" s="13" t="s">
         <v>57</v>
       </c>
@@ -13839,7 +13874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>71</v>
       </c>
@@ -13862,44 +13897,44 @@
       <c r="I103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>57</v>
+      <c r="J103" s="11">
+        <v>2963196</v>
       </c>
       <c r="K103" s="11">
-        <v>2963196</v>
+        <v>2967176</v>
       </c>
       <c r="L103" s="11">
-        <v>2967176</v>
+        <v>2971338</v>
       </c>
       <c r="M103" s="11">
-        <v>2971338</v>
+        <v>3106055</v>
       </c>
       <c r="N103" s="11">
-        <v>3106055</v>
+        <v>3879682</v>
       </c>
       <c r="O103" s="11">
-        <v>3879682</v>
+        <v>3880000</v>
       </c>
       <c r="P103" s="11">
-        <v>3880000</v>
+        <v>3739989</v>
       </c>
       <c r="Q103" s="11">
-        <v>3739989</v>
+        <v>3707050</v>
       </c>
       <c r="R103" s="11">
-        <v>3707050</v>
+        <v>3704210</v>
       </c>
       <c r="S103" s="11">
-        <v>3704210</v>
+        <v>3700882</v>
       </c>
       <c r="T103" s="11">
-        <v>3700882</v>
+        <v>3696098</v>
       </c>
       <c r="U103" s="11">
-        <v>3696098</v>
-      </c>
-      <c r="V103" s="11">
         <v>3702091</v>
+      </c>
+      <c r="V103" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W103" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/save/product/monthly.xlsx
+++ b/database/industries/siman/save/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA13E33-041E-48C9-AB29-185D6233DCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64CCC3-EBAC-441A-A6D9-DA7046C31AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سیمان سفید</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1483,113 +1483,113 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>10811</v>
+      </c>
+      <c r="U11" s="11">
+        <v>18794</v>
       </c>
       <c r="V11" s="11">
-        <v>10811</v>
+        <v>18411</v>
       </c>
       <c r="W11" s="11">
-        <v>18794</v>
+        <v>19140</v>
       </c>
       <c r="X11" s="11">
-        <v>18411</v>
+        <v>21491</v>
       </c>
       <c r="Y11" s="11">
-        <v>19140</v>
+        <v>24349</v>
       </c>
       <c r="Z11" s="11">
-        <v>21491</v>
+        <v>21132</v>
       </c>
       <c r="AA11" s="11">
-        <v>24349</v>
+        <v>25077</v>
       </c>
       <c r="AB11" s="11">
-        <v>21132</v>
+        <v>22587</v>
       </c>
       <c r="AC11" s="11">
-        <v>25077</v>
+        <v>17553</v>
       </c>
       <c r="AD11" s="11">
-        <v>22587</v>
+        <v>21317</v>
       </c>
       <c r="AE11" s="11">
-        <v>17553</v>
+        <v>19837</v>
       </c>
       <c r="AF11" s="11">
-        <v>21317</v>
+        <v>22013</v>
       </c>
       <c r="AG11" s="11">
-        <v>19837</v>
+        <v>36027</v>
       </c>
       <c r="AH11" s="11">
-        <v>22013</v>
+        <v>32441</v>
       </c>
       <c r="AI11" s="11">
-        <v>36027</v>
+        <v>20865</v>
       </c>
       <c r="AJ11" s="11">
-        <v>32441</v>
+        <v>14540</v>
       </c>
       <c r="AK11" s="11">
-        <v>20865</v>
+        <v>26840</v>
       </c>
       <c r="AL11" s="11">
-        <v>14540</v>
+        <v>27137</v>
       </c>
       <c r="AM11" s="11">
-        <v>26840</v>
+        <v>24983</v>
       </c>
       <c r="AN11" s="11">
-        <v>27137</v>
+        <v>28390</v>
       </c>
       <c r="AO11" s="11">
-        <v>24983</v>
+        <v>24741</v>
       </c>
       <c r="AP11" s="11">
-        <v>28390</v>
+        <v>24208</v>
       </c>
       <c r="AQ11" s="11">
-        <v>24741</v>
+        <v>25186</v>
       </c>
       <c r="AR11" s="11">
-        <v>-648</v>
+        <v>21237</v>
       </c>
       <c r="AS11" s="11">
-        <v>25186</v>
+        <v>23700</v>
       </c>
       <c r="AT11" s="11">
-        <v>21237</v>
+        <v>30303</v>
       </c>
       <c r="AU11" s="11">
-        <v>23700</v>
+        <v>24063</v>
       </c>
       <c r="AV11" s="11">
-        <v>30303</v>
+        <v>27116</v>
       </c>
       <c r="AW11" s="11">
-        <v>24063</v>
+        <v>36332</v>
       </c>
       <c r="AX11" s="11">
-        <v>27116</v>
+        <v>27299</v>
       </c>
       <c r="AY11" s="11">
-        <v>31022</v>
+        <v>29673</v>
       </c>
       <c r="AZ11" s="11">
-        <v>27299</v>
+        <v>26703</v>
       </c>
       <c r="BA11" s="11">
-        <v>29673</v>
+        <v>26410</v>
       </c>
       <c r="BB11" s="11">
-        <v>26703</v>
+        <v>26753</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1615,23 +1615,23 @@
       <c r="J12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>57</v>
+      <c r="K12" s="13">
+        <v>6634</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3356</v>
       </c>
       <c r="M12" s="13">
-        <v>6634</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>3356</v>
+        <v>10016</v>
       </c>
       <c r="O12" s="13">
         <v>0</v>
       </c>
       <c r="P12" s="13">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="13">
         <v>0</v>
@@ -1642,11 +1642,11 @@
       <c r="S12" s="13">
         <v>0</v>
       </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
+      <c r="T12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V12" s="13" t="s">
         <v>57</v>
@@ -1678,38 +1678,38 @@
       <c r="AE12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>57</v>
+      <c r="AF12" s="13">
+        <v>587</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>4412</v>
       </c>
       <c r="AH12" s="13">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="AK12" s="13">
-        <v>0</v>
+        <v>27260</v>
       </c>
       <c r="AL12" s="13">
-        <v>6256</v>
+        <v>186337</v>
       </c>
       <c r="AM12" s="13">
-        <v>27260</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="13">
-        <v>186337</v>
+        <v>27547</v>
       </c>
       <c r="AO12" s="13">
         <v>0</v>
       </c>
-      <c r="AP12" s="13">
-        <v>27547</v>
+      <c r="AP12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>57</v>
@@ -1748,7 +1748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1801,113 +1801,113 @@
       <c r="S13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>57</v>
+      <c r="T13" s="11">
+        <v>88475</v>
+      </c>
+      <c r="U13" s="11">
+        <v>207400</v>
       </c>
       <c r="V13" s="11">
-        <v>88475</v>
+        <v>167344</v>
       </c>
       <c r="W13" s="11">
-        <v>207400</v>
+        <v>164554</v>
       </c>
       <c r="X13" s="11">
-        <v>167344</v>
+        <v>171058</v>
       </c>
       <c r="Y13" s="11">
-        <v>164554</v>
+        <v>153965</v>
       </c>
       <c r="Z13" s="11">
-        <v>171058</v>
+        <v>153154</v>
       </c>
       <c r="AA13" s="11">
-        <v>153965</v>
+        <v>209383</v>
       </c>
       <c r="AB13" s="11">
-        <v>153154</v>
+        <v>140423</v>
       </c>
       <c r="AC13" s="11">
-        <v>209383</v>
+        <v>114098</v>
       </c>
       <c r="AD13" s="11">
-        <v>140423</v>
+        <v>132416</v>
       </c>
       <c r="AE13" s="11">
-        <v>114098</v>
+        <v>130950</v>
       </c>
       <c r="AF13" s="11">
-        <v>132416</v>
+        <v>90395</v>
       </c>
       <c r="AG13" s="11">
-        <v>130950</v>
+        <v>139873</v>
       </c>
       <c r="AH13" s="11">
-        <v>90395</v>
+        <v>147886</v>
       </c>
       <c r="AI13" s="11">
-        <v>139873</v>
+        <v>107423</v>
       </c>
       <c r="AJ13" s="11">
-        <v>147886</v>
+        <v>106479</v>
       </c>
       <c r="AK13" s="11">
-        <v>107423</v>
+        <v>140821</v>
       </c>
       <c r="AL13" s="11">
-        <v>106479</v>
+        <v>173714</v>
       </c>
       <c r="AM13" s="11">
-        <v>140821</v>
+        <v>158509</v>
       </c>
       <c r="AN13" s="11">
-        <v>173714</v>
+        <v>172269</v>
       </c>
       <c r="AO13" s="11">
-        <v>158509</v>
+        <v>140373</v>
       </c>
       <c r="AP13" s="11">
-        <v>172269</v>
+        <v>151743</v>
       </c>
       <c r="AQ13" s="11">
-        <v>140373</v>
+        <v>172665</v>
       </c>
       <c r="AR13" s="11">
-        <v>151743</v>
+        <v>122380</v>
       </c>
       <c r="AS13" s="11">
-        <v>172665</v>
+        <v>155063</v>
       </c>
       <c r="AT13" s="11">
-        <v>122380</v>
+        <v>161625</v>
       </c>
       <c r="AU13" s="11">
-        <v>155063</v>
+        <v>134480</v>
       </c>
       <c r="AV13" s="11">
-        <v>161625</v>
+        <v>115271</v>
       </c>
       <c r="AW13" s="11">
-        <v>134480</v>
+        <v>181458</v>
       </c>
       <c r="AX13" s="11">
-        <v>115271</v>
+        <v>163674</v>
       </c>
       <c r="AY13" s="11">
-        <v>181458</v>
+        <v>170203</v>
       </c>
       <c r="AZ13" s="11">
-        <v>163674</v>
+        <v>196591</v>
       </c>
       <c r="BA13" s="11">
-        <v>170203</v>
+        <v>212753</v>
       </c>
       <c r="BB13" s="11">
-        <v>196591</v>
+        <v>175818</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1924,48 +1924,48 @@
       <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13">
+        <v>5685</v>
+      </c>
+      <c r="I14" s="13">
+        <v>11504</v>
       </c>
       <c r="J14" s="13">
-        <v>5685</v>
+        <v>6679</v>
       </c>
       <c r="K14" s="13">
-        <v>11504</v>
+        <v>2932</v>
       </c>
       <c r="L14" s="13">
-        <v>6679</v>
+        <v>1808</v>
       </c>
       <c r="M14" s="13">
-        <v>2932</v>
+        <v>1749</v>
       </c>
       <c r="N14" s="13">
-        <v>1808</v>
+        <v>1715</v>
       </c>
       <c r="O14" s="13">
+        <v>1642</v>
+      </c>
+      <c r="P14" s="13">
         <v>1749</v>
       </c>
-      <c r="P14" s="13">
-        <v>1715</v>
-      </c>
       <c r="Q14" s="13">
-        <v>1642</v>
+        <v>1743</v>
       </c>
       <c r="R14" s="13">
-        <v>1749</v>
+        <v>1595</v>
       </c>
       <c r="S14" s="13">
-        <v>1743</v>
-      </c>
-      <c r="T14" s="13">
-        <v>1595</v>
-      </c>
-      <c r="U14" s="13">
         <v>1854</v>
       </c>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2083,48 +2083,48 @@
       <c r="G15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>57</v>
+      <c r="H15" s="11">
+        <v>3523</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6879</v>
       </c>
       <c r="J15" s="11">
-        <v>3523</v>
+        <v>6584</v>
       </c>
       <c r="K15" s="11">
-        <v>6879</v>
+        <v>8180</v>
       </c>
       <c r="L15" s="11">
-        <v>6584</v>
+        <v>7371</v>
       </c>
       <c r="M15" s="11">
-        <v>8180</v>
+        <v>6289</v>
       </c>
       <c r="N15" s="11">
-        <v>7371</v>
+        <v>6929</v>
       </c>
       <c r="O15" s="11">
-        <v>6289</v>
+        <v>8188</v>
       </c>
       <c r="P15" s="11">
-        <v>6929</v>
+        <v>5660</v>
       </c>
       <c r="Q15" s="11">
-        <v>8188</v>
+        <v>7158</v>
       </c>
       <c r="R15" s="11">
-        <v>5660</v>
+        <v>6645</v>
       </c>
       <c r="S15" s="11">
-        <v>7158</v>
-      </c>
-      <c r="T15" s="11">
-        <v>6645</v>
-      </c>
-      <c r="U15" s="11">
         <v>8438</v>
       </c>
+      <c r="T15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2242,48 +2242,48 @@
       <c r="G16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>57</v>
+      <c r="H16" s="13">
+        <v>1275</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1714</v>
       </c>
       <c r="J16" s="13">
-        <v>1275</v>
+        <v>1903</v>
       </c>
       <c r="K16" s="13">
-        <v>1714</v>
+        <v>467</v>
       </c>
       <c r="L16" s="13">
-        <v>1903</v>
+        <v>1155</v>
       </c>
       <c r="M16" s="13">
-        <v>467</v>
+        <v>246</v>
       </c>
       <c r="N16" s="13">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="O16" s="13">
-        <v>246</v>
+        <v>2298</v>
       </c>
       <c r="P16" s="13">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <v>2298</v>
+        <v>1522</v>
       </c>
       <c r="R16" s="13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="S16" s="13">
-        <v>1522</v>
-      </c>
-      <c r="T16" s="13">
-        <v>39</v>
-      </c>
-      <c r="U16" s="13">
         <v>852</v>
       </c>
+      <c r="T16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2440,14 +2440,14 @@
       <c r="T17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
+      <c r="U17" s="11">
+        <v>15</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
       </c>
       <c r="W17" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <v>0</v>
@@ -2462,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="AB17" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AC17" s="11">
         <v>0</v>
       </c>
       <c r="AD17" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>57</v>
@@ -2503,47 +2503,47 @@
       <c r="AO17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP17" s="11" t="s">
-        <v>57</v>
+      <c r="AP17" s="11">
+        <v>14611</v>
       </c>
       <c r="AQ17" s="11">
-        <v>-29576</v>
+        <v>26662</v>
       </c>
       <c r="AR17" s="11">
-        <v>14611</v>
+        <v>27314</v>
       </c>
       <c r="AS17" s="11">
-        <v>26662</v>
+        <v>25799</v>
       </c>
       <c r="AT17" s="11">
-        <v>27314</v>
+        <v>25645</v>
       </c>
       <c r="AU17" s="11">
-        <v>25799</v>
+        <v>25273</v>
       </c>
       <c r="AV17" s="11">
-        <v>25645</v>
+        <v>25919</v>
       </c>
       <c r="AW17" s="11">
-        <v>25273</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
-        <v>25919</v>
+        <v>24644</v>
       </c>
       <c r="AY17" s="11">
-        <v>27004</v>
+        <v>24490</v>
       </c>
       <c r="AZ17" s="11">
-        <v>-156954</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="11">
-        <v>24490</v>
+        <v>26426</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2560,84 +2560,84 @@
       <c r="G18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>57</v>
+      <c r="H18" s="13">
+        <v>299</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
       </c>
       <c r="J18" s="13">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="L18" s="13">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="M18" s="13">
-        <v>3375</v>
+        <v>4173</v>
       </c>
       <c r="N18" s="13">
-        <v>4900</v>
+        <v>4588</v>
       </c>
       <c r="O18" s="13">
-        <v>4173</v>
+        <v>6723</v>
       </c>
       <c r="P18" s="13">
-        <v>4588</v>
+        <v>4032</v>
       </c>
       <c r="Q18" s="13">
-        <v>6723</v>
+        <v>3413</v>
       </c>
       <c r="R18" s="13">
-        <v>4032</v>
+        <v>5951</v>
       </c>
       <c r="S18" s="13">
-        <v>3413</v>
-      </c>
-      <c r="T18" s="13">
-        <v>5951</v>
-      </c>
-      <c r="U18" s="13">
         <v>4115</v>
       </c>
+      <c r="T18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>57</v>
+      <c r="W18" s="13">
+        <v>5759</v>
+      </c>
+      <c r="X18" s="13">
+        <v>5002</v>
       </c>
       <c r="Y18" s="13">
-        <v>5759</v>
+        <v>4146</v>
       </c>
       <c r="Z18" s="13">
-        <v>5002</v>
+        <v>5775</v>
       </c>
       <c r="AA18" s="13">
-        <v>4146</v>
+        <v>5183</v>
       </c>
       <c r="AB18" s="13">
-        <v>5775</v>
+        <v>5265</v>
       </c>
       <c r="AC18" s="13">
-        <v>5183</v>
+        <v>5682</v>
       </c>
       <c r="AD18" s="13">
-        <v>5265</v>
+        <v>5488</v>
       </c>
       <c r="AE18" s="13">
-        <v>5682</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AG18" s="13">
         <v>7856</v>
       </c>
+      <c r="AF18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2731,36 +2731,36 @@
       <c r="K19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>57</v>
+      <c r="L19" s="11">
+        <v>956</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
       </c>
       <c r="N19" s="11">
-        <v>956</v>
+        <v>500</v>
       </c>
       <c r="O19" s="11">
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="11">
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="S19" s="11">
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <v>294</v>
-      </c>
-      <c r="U19" s="11">
         <v>197</v>
       </c>
+      <c r="T19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2914,48 +2914,48 @@
       <c r="S20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>57</v>
+      <c r="T20" s="13">
+        <v>26375</v>
+      </c>
+      <c r="U20" s="13">
+        <v>78925</v>
       </c>
       <c r="V20" s="13">
-        <v>26375</v>
+        <v>62365</v>
       </c>
       <c r="W20" s="13">
-        <v>78925</v>
+        <v>38739</v>
       </c>
       <c r="X20" s="13">
-        <v>62365</v>
+        <v>17230</v>
       </c>
       <c r="Y20" s="13">
-        <v>38739</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AB20" s="13">
-        <v>0</v>
+        <v>36929</v>
       </c>
       <c r="AC20" s="13">
-        <v>10626</v>
+        <v>67415</v>
       </c>
       <c r="AD20" s="13">
-        <v>36929</v>
+        <v>62289</v>
       </c>
       <c r="AE20" s="13">
-        <v>67415</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>62289</v>
-      </c>
-      <c r="AG20" s="13">
         <v>20479</v>
       </c>
+      <c r="AF20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH20" s="13" t="s">
         <v>57</v>
       </c>
@@ -2980,47 +2980,47 @@
       <c r="AO20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
+      <c r="AP20" s="13">
+        <v>110564</v>
       </c>
       <c r="AQ20" s="13">
-        <v>690282</v>
+        <v>169974</v>
       </c>
       <c r="AR20" s="13">
-        <v>110564</v>
+        <v>192555</v>
       </c>
       <c r="AS20" s="13">
-        <v>169974</v>
+        <v>169077</v>
       </c>
       <c r="AT20" s="13">
-        <v>192555</v>
+        <v>140508</v>
       </c>
       <c r="AU20" s="13">
-        <v>169077</v>
+        <v>180806</v>
       </c>
       <c r="AV20" s="13">
-        <v>140508</v>
+        <v>219813</v>
       </c>
       <c r="AW20" s="13">
-        <v>180806</v>
+        <v>204773</v>
       </c>
       <c r="AX20" s="13">
-        <v>219813</v>
+        <v>136083</v>
       </c>
       <c r="AY20" s="13">
-        <v>204773</v>
+        <v>198340</v>
       </c>
       <c r="AZ20" s="13">
-        <v>136083</v>
+        <v>202659</v>
       </c>
       <c r="BA20" s="13">
-        <v>198340</v>
+        <v>202465</v>
       </c>
       <c r="BB20" s="13">
-        <v>202659</v>
+        <v>72683</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3037,17 +3037,17 @@
       <c r="G21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>57</v>
+      <c r="H21" s="11">
+        <v>21814</v>
+      </c>
+      <c r="I21" s="11">
+        <v>72296</v>
       </c>
       <c r="J21" s="11">
-        <v>21814</v>
+        <v>0</v>
       </c>
       <c r="K21" s="11">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -3062,23 +3062,23 @@
         <v>0</v>
       </c>
       <c r="P21" s="11">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="Q21" s="11">
-        <v>0</v>
+        <v>43021</v>
       </c>
       <c r="R21" s="11">
-        <v>1513</v>
+        <v>47679</v>
       </c>
       <c r="S21" s="11">
-        <v>43021</v>
-      </c>
-      <c r="T21" s="11">
-        <v>47679</v>
-      </c>
-      <c r="U21" s="11">
         <v>13935</v>
       </c>
+      <c r="T21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3109,38 +3109,38 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>40166</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>157376</v>
       </c>
       <c r="AH21" s="11">
-        <v>40166</v>
+        <v>157438</v>
       </c>
       <c r="AI21" s="11">
-        <v>157376</v>
+        <v>80965</v>
       </c>
       <c r="AJ21" s="11">
-        <v>157438</v>
+        <v>54772</v>
       </c>
       <c r="AK21" s="11">
-        <v>80965</v>
+        <v>131461</v>
       </c>
       <c r="AL21" s="11">
-        <v>54772</v>
+        <v>24750</v>
       </c>
       <c r="AM21" s="11">
-        <v>131461</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="11">
-        <v>24750</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="11">
         <v>0</v>
       </c>
-      <c r="AP21" s="11">
-        <v>0</v>
+      <c r="AP21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>57</v>
@@ -3179,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3232,21 +3232,21 @@
       <c r="S22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>57</v>
+      <c r="T22" s="13">
+        <v>2809</v>
+      </c>
+      <c r="U22" s="13">
+        <v>7731</v>
       </c>
       <c r="V22" s="13">
-        <v>2809</v>
-      </c>
-      <c r="W22" s="13">
-        <v>7731</v>
-      </c>
-      <c r="X22" s="13">
         <v>6481</v>
       </c>
+      <c r="W22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y22" s="13" t="s">
         <v>57</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3355,48 +3355,48 @@
       <c r="G23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>57</v>
+      <c r="H23" s="11">
+        <v>37109</v>
+      </c>
+      <c r="I23" s="11">
+        <v>66084</v>
       </c>
       <c r="J23" s="11">
-        <v>37109</v>
+        <v>54027</v>
       </c>
       <c r="K23" s="11">
-        <v>66084</v>
+        <v>56030</v>
       </c>
       <c r="L23" s="11">
-        <v>54027</v>
+        <v>48485</v>
       </c>
       <c r="M23" s="11">
-        <v>56030</v>
+        <v>53334</v>
       </c>
       <c r="N23" s="11">
-        <v>48485</v>
+        <v>62021</v>
       </c>
       <c r="O23" s="11">
-        <v>53334</v>
+        <v>48501</v>
       </c>
       <c r="P23" s="11">
-        <v>62021</v>
+        <v>48465</v>
       </c>
       <c r="Q23" s="11">
-        <v>48501</v>
+        <v>39927</v>
       </c>
       <c r="R23" s="11">
-        <v>48465</v>
+        <v>43232</v>
       </c>
       <c r="S23" s="11">
-        <v>39927</v>
-      </c>
-      <c r="T23" s="11">
-        <v>43232</v>
-      </c>
-      <c r="U23" s="11">
         <v>59472</v>
       </c>
+      <c r="T23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V23" s="11" t="s">
         <v>57</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3514,48 +3514,48 @@
       <c r="G24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>57</v>
+      <c r="H24" s="13">
+        <v>42582</v>
+      </c>
+      <c r="I24" s="13">
+        <v>73964</v>
       </c>
       <c r="J24" s="13">
-        <v>42582</v>
+        <v>89431</v>
       </c>
       <c r="K24" s="13">
-        <v>73964</v>
+        <v>81111</v>
       </c>
       <c r="L24" s="13">
-        <v>89431</v>
+        <v>74418</v>
       </c>
       <c r="M24" s="13">
-        <v>81111</v>
+        <v>76297</v>
       </c>
       <c r="N24" s="13">
-        <v>74418</v>
+        <v>73978</v>
       </c>
       <c r="O24" s="13">
-        <v>76297</v>
+        <v>77698</v>
       </c>
       <c r="P24" s="13">
-        <v>73978</v>
+        <v>82921</v>
       </c>
       <c r="Q24" s="13">
-        <v>77698</v>
+        <v>88860</v>
       </c>
       <c r="R24" s="13">
-        <v>82921</v>
+        <v>74198</v>
       </c>
       <c r="S24" s="13">
-        <v>88860</v>
-      </c>
-      <c r="T24" s="13">
-        <v>74198</v>
-      </c>
-      <c r="U24" s="13">
         <v>80042</v>
       </c>
+      <c r="T24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V24" s="13" t="s">
         <v>57</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3673,48 +3673,48 @@
       <c r="G25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>57</v>
+      <c r="H25" s="11">
+        <v>3342</v>
+      </c>
+      <c r="I25" s="11">
+        <v>7464</v>
       </c>
       <c r="J25" s="11">
-        <v>3342</v>
+        <v>6943</v>
       </c>
       <c r="K25" s="11">
-        <v>7464</v>
+        <v>8109</v>
       </c>
       <c r="L25" s="11">
-        <v>6943</v>
+        <v>6167</v>
       </c>
       <c r="M25" s="11">
-        <v>8109</v>
+        <v>5450</v>
       </c>
       <c r="N25" s="11">
-        <v>6167</v>
+        <v>5619</v>
       </c>
       <c r="O25" s="11">
-        <v>5450</v>
+        <v>5489</v>
       </c>
       <c r="P25" s="11">
-        <v>5619</v>
+        <v>5558</v>
       </c>
       <c r="Q25" s="11">
-        <v>5489</v>
+        <v>5329</v>
       </c>
       <c r="R25" s="11">
-        <v>5558</v>
+        <v>4485</v>
       </c>
       <c r="S25" s="11">
-        <v>5329</v>
-      </c>
-      <c r="T25" s="11">
-        <v>4485</v>
-      </c>
-      <c r="U25" s="11">
         <v>6314</v>
       </c>
+      <c r="T25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V25" s="11" t="s">
         <v>57</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3932,11 +3932,11 @@
       <c r="V27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>57</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
@@ -4045,148 +4045,148 @@
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <v>0</v>
+        <v>115629</v>
       </c>
       <c r="I28" s="19">
-        <v>0</v>
+        <v>239905</v>
       </c>
       <c r="J28" s="19">
-        <v>115629</v>
+        <v>165567</v>
       </c>
       <c r="K28" s="19">
-        <v>239905</v>
+        <v>166838</v>
       </c>
       <c r="L28" s="19">
-        <v>165567</v>
+        <v>148616</v>
       </c>
       <c r="M28" s="19">
-        <v>166838</v>
+        <v>147538</v>
       </c>
       <c r="N28" s="19">
-        <v>148616</v>
+        <v>166533</v>
       </c>
       <c r="O28" s="19">
-        <v>147538</v>
+        <v>150539</v>
       </c>
       <c r="P28" s="19">
-        <v>166533</v>
+        <v>149898</v>
       </c>
       <c r="Q28" s="19">
-        <v>150539</v>
+        <v>190973</v>
       </c>
       <c r="R28" s="19">
-        <v>149898</v>
+        <v>184118</v>
       </c>
       <c r="S28" s="19">
-        <v>190973</v>
+        <v>175219</v>
       </c>
       <c r="T28" s="19">
-        <v>184118</v>
+        <v>128470</v>
       </c>
       <c r="U28" s="19">
-        <v>175219</v>
+        <v>312865</v>
       </c>
       <c r="V28" s="19">
-        <v>128470</v>
+        <v>254601</v>
       </c>
       <c r="W28" s="19">
-        <v>312865</v>
+        <v>228192</v>
       </c>
       <c r="X28" s="19">
-        <v>254601</v>
+        <v>214781</v>
       </c>
       <c r="Y28" s="19">
-        <v>228192</v>
+        <v>182460</v>
       </c>
       <c r="Z28" s="19">
-        <v>214781</v>
+        <v>180061</v>
       </c>
       <c r="AA28" s="19">
-        <v>182460</v>
+        <v>250269</v>
       </c>
       <c r="AB28" s="19">
-        <v>180061</v>
+        <v>205481</v>
       </c>
       <c r="AC28" s="19">
-        <v>250269</v>
+        <v>204748</v>
       </c>
       <c r="AD28" s="19">
-        <v>205481</v>
+        <v>221510</v>
       </c>
       <c r="AE28" s="19">
-        <v>204748</v>
+        <v>179122</v>
       </c>
       <c r="AF28" s="19">
-        <v>221510</v>
+        <v>153161</v>
       </c>
       <c r="AG28" s="19">
-        <v>179122</v>
+        <v>337688</v>
       </c>
       <c r="AH28" s="19">
-        <v>153161</v>
+        <v>337765</v>
       </c>
       <c r="AI28" s="19">
-        <v>337688</v>
+        <v>209253</v>
       </c>
       <c r="AJ28" s="19">
-        <v>337765</v>
+        <v>182047</v>
       </c>
       <c r="AK28" s="19">
-        <v>209253</v>
+        <v>326382</v>
       </c>
       <c r="AL28" s="19">
-        <v>182047</v>
+        <v>411938</v>
       </c>
       <c r="AM28" s="19">
-        <v>326382</v>
+        <v>183492</v>
       </c>
       <c r="AN28" s="19">
-        <v>411938</v>
+        <v>228206</v>
       </c>
       <c r="AO28" s="19">
-        <v>183492</v>
+        <v>165114</v>
       </c>
       <c r="AP28" s="19">
-        <v>228206</v>
+        <v>301126</v>
       </c>
       <c r="AQ28" s="19">
-        <v>825820</v>
+        <v>394487</v>
       </c>
       <c r="AR28" s="19">
-        <v>276270</v>
+        <v>363486</v>
       </c>
       <c r="AS28" s="19">
-        <v>394487</v>
+        <v>373639</v>
       </c>
       <c r="AT28" s="19">
-        <v>363486</v>
+        <v>358081</v>
       </c>
       <c r="AU28" s="19">
-        <v>373639</v>
+        <v>364622</v>
       </c>
       <c r="AV28" s="19">
-        <v>358081</v>
+        <v>388119</v>
       </c>
       <c r="AW28" s="19">
-        <v>364622</v>
+        <v>422563</v>
       </c>
       <c r="AX28" s="19">
-        <v>388119</v>
+        <v>351700</v>
       </c>
       <c r="AY28" s="19">
-        <v>444257</v>
+        <v>422706</v>
       </c>
       <c r="AZ28" s="19">
-        <v>170102</v>
+        <v>425953</v>
       </c>
       <c r="BA28" s="19">
-        <v>422706</v>
+        <v>468054</v>
       </c>
       <c r="BB28" s="19">
-        <v>425953</v>
+        <v>275254</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4241,7 +4241,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4296,7 +4296,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4563,7 +4563,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4673,113 +4673,113 @@
       <c r="S35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>57</v>
+      <c r="T35" s="11">
+        <v>10680</v>
+      </c>
+      <c r="U35" s="11">
+        <v>20560</v>
       </c>
       <c r="V35" s="11">
-        <v>10680</v>
+        <v>16951</v>
       </c>
       <c r="W35" s="11">
-        <v>20560</v>
+        <v>20143</v>
       </c>
       <c r="X35" s="11">
-        <v>16951</v>
+        <v>22386</v>
       </c>
       <c r="Y35" s="11">
-        <v>20143</v>
+        <v>24346</v>
       </c>
       <c r="Z35" s="11">
-        <v>22386</v>
+        <v>20598</v>
       </c>
       <c r="AA35" s="11">
-        <v>24346</v>
+        <v>23029</v>
       </c>
       <c r="AB35" s="11">
-        <v>20598</v>
+        <v>25439</v>
       </c>
       <c r="AC35" s="11">
-        <v>23029</v>
+        <v>16218</v>
       </c>
       <c r="AD35" s="11">
-        <v>25439</v>
+        <v>21107</v>
       </c>
       <c r="AE35" s="11">
-        <v>16218</v>
+        <v>19146</v>
       </c>
       <c r="AF35" s="11">
-        <v>21107</v>
+        <v>23062</v>
       </c>
       <c r="AG35" s="11">
-        <v>19146</v>
+        <v>30101</v>
       </c>
       <c r="AH35" s="11">
-        <v>23062</v>
+        <v>28292</v>
       </c>
       <c r="AI35" s="11">
-        <v>30101</v>
+        <v>18260</v>
       </c>
       <c r="AJ35" s="11">
-        <v>28292</v>
+        <v>13990</v>
       </c>
       <c r="AK35" s="11">
-        <v>18260</v>
+        <v>17715</v>
       </c>
       <c r="AL35" s="11">
-        <v>13990</v>
+        <v>22284</v>
       </c>
       <c r="AM35" s="11">
-        <v>17715</v>
+        <v>27801</v>
       </c>
       <c r="AN35" s="11">
-        <v>22284</v>
+        <v>28488</v>
       </c>
       <c r="AO35" s="11">
-        <v>27801</v>
+        <v>24261</v>
       </c>
       <c r="AP35" s="11">
-        <v>28488</v>
+        <v>22915</v>
       </c>
       <c r="AQ35" s="11">
-        <v>24261</v>
+        <v>25213</v>
       </c>
       <c r="AR35" s="11">
-        <v>22915</v>
+        <v>26445</v>
       </c>
       <c r="AS35" s="11">
-        <v>25213</v>
+        <v>24083</v>
       </c>
       <c r="AT35" s="11">
-        <v>20182</v>
+        <v>31393</v>
       </c>
       <c r="AU35" s="11">
-        <v>24083</v>
+        <v>22787</v>
       </c>
       <c r="AV35" s="11">
-        <v>31393</v>
+        <v>29511</v>
       </c>
       <c r="AW35" s="11">
-        <v>22787</v>
+        <v>30968</v>
       </c>
       <c r="AX35" s="11">
-        <v>29511</v>
+        <v>33090</v>
       </c>
       <c r="AY35" s="11">
-        <v>30968</v>
+        <v>35026</v>
       </c>
       <c r="AZ35" s="11">
-        <v>33090</v>
+        <v>25256</v>
       </c>
       <c r="BA35" s="11">
-        <v>35026</v>
+        <v>26819</v>
       </c>
       <c r="BB35" s="11">
-        <v>25256</v>
+        <v>25930</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
@@ -4805,23 +4805,23 @@
       <c r="J36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>57</v>
+      <c r="K36" s="13">
+        <v>6634</v>
+      </c>
+      <c r="L36" s="13">
+        <v>3356</v>
       </c>
       <c r="M36" s="13">
-        <v>6634</v>
+        <v>0</v>
       </c>
       <c r="N36" s="13">
-        <v>3356</v>
+        <v>10016</v>
       </c>
       <c r="O36" s="13">
         <v>0</v>
       </c>
       <c r="P36" s="13">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="13">
         <v>0</v>
@@ -4832,11 +4832,11 @@
       <c r="S36" s="13">
         <v>0</v>
       </c>
-      <c r="T36" s="13">
-        <v>0</v>
-      </c>
-      <c r="U36" s="13">
-        <v>0</v>
+      <c r="T36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V36" s="13" t="s">
         <v>57</v>
@@ -4868,17 +4868,17 @@
       <c r="AE36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG36" s="13" t="s">
-        <v>57</v>
+      <c r="AF36" s="13">
+        <v>587</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>4412</v>
       </c>
       <c r="AH36" s="13">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="13">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="13">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="AN36" s="13">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="AO36" s="13">
         <v>0</v>
       </c>
-      <c r="AP36" s="13">
-        <v>1118</v>
+      <c r="AP36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ36" s="13" t="s">
         <v>57</v>
@@ -4938,7 +4938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -4991,113 +4991,113 @@
       <c r="S37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>57</v>
+      <c r="T37" s="11">
+        <v>88614</v>
+      </c>
+      <c r="U37" s="11">
+        <v>187766</v>
       </c>
       <c r="V37" s="11">
-        <v>88614</v>
+        <v>157818</v>
       </c>
       <c r="W37" s="11">
-        <v>187766</v>
+        <v>171953</v>
       </c>
       <c r="X37" s="11">
-        <v>157818</v>
+        <v>158348</v>
       </c>
       <c r="Y37" s="11">
-        <v>171953</v>
+        <v>150876</v>
       </c>
       <c r="Z37" s="11">
-        <v>158348</v>
+        <v>156400</v>
       </c>
       <c r="AA37" s="11">
-        <v>150876</v>
+        <v>209304</v>
       </c>
       <c r="AB37" s="11">
-        <v>156400</v>
+        <v>141379</v>
       </c>
       <c r="AC37" s="11">
-        <v>209304</v>
+        <v>129647</v>
       </c>
       <c r="AD37" s="11">
-        <v>141379</v>
+        <v>117928</v>
       </c>
       <c r="AE37" s="11">
-        <v>129647</v>
+        <v>129919</v>
       </c>
       <c r="AF37" s="11">
-        <v>117928</v>
+        <v>92070</v>
       </c>
       <c r="AG37" s="11">
-        <v>129919</v>
+        <v>137385</v>
       </c>
       <c r="AH37" s="11">
-        <v>92070</v>
+        <v>159155</v>
       </c>
       <c r="AI37" s="11">
-        <v>137385</v>
+        <v>124244</v>
       </c>
       <c r="AJ37" s="11">
-        <v>159155</v>
+        <v>90034</v>
       </c>
       <c r="AK37" s="11">
-        <v>124244</v>
+        <v>147875</v>
       </c>
       <c r="AL37" s="11">
-        <v>90034</v>
+        <v>146275</v>
       </c>
       <c r="AM37" s="11">
-        <v>147875</v>
+        <v>161714</v>
       </c>
       <c r="AN37" s="11">
-        <v>146275</v>
+        <v>167202</v>
       </c>
       <c r="AO37" s="11">
-        <v>161714</v>
+        <v>147237</v>
       </c>
       <c r="AP37" s="11">
-        <v>167202</v>
+        <v>146937</v>
       </c>
       <c r="AQ37" s="11">
-        <v>147237</v>
+        <v>170847</v>
       </c>
       <c r="AR37" s="11">
-        <v>146937</v>
+        <v>124668</v>
       </c>
       <c r="AS37" s="11">
-        <v>170847</v>
+        <v>156883</v>
       </c>
       <c r="AT37" s="11">
-        <v>124668</v>
+        <v>160445</v>
       </c>
       <c r="AU37" s="11">
-        <v>156883</v>
+        <v>130644</v>
       </c>
       <c r="AV37" s="11">
-        <v>160445</v>
+        <v>133425</v>
       </c>
       <c r="AW37" s="11">
-        <v>130644</v>
+        <v>180290</v>
       </c>
       <c r="AX37" s="11">
-        <v>133425</v>
+        <v>152750</v>
       </c>
       <c r="AY37" s="11">
-        <v>180290</v>
+        <v>174888</v>
       </c>
       <c r="AZ37" s="11">
-        <v>152750</v>
+        <v>205623</v>
       </c>
       <c r="BA37" s="11">
-        <v>174888</v>
+        <v>189069</v>
       </c>
       <c r="BB37" s="11">
-        <v>205623</v>
+        <v>180909</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -5114,48 +5114,48 @@
       <c r="G38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>57</v>
+      <c r="H38" s="13">
+        <v>5685</v>
+      </c>
+      <c r="I38" s="13">
+        <v>11504</v>
       </c>
       <c r="J38" s="13">
-        <v>5685</v>
+        <v>6679</v>
       </c>
       <c r="K38" s="13">
-        <v>11504</v>
+        <v>2932</v>
       </c>
       <c r="L38" s="13">
-        <v>6679</v>
+        <v>1808</v>
       </c>
       <c r="M38" s="13">
-        <v>2932</v>
+        <v>1749</v>
       </c>
       <c r="N38" s="13">
-        <v>1808</v>
+        <v>1715</v>
       </c>
       <c r="O38" s="13">
+        <v>1642</v>
+      </c>
+      <c r="P38" s="13">
         <v>1749</v>
       </c>
-      <c r="P38" s="13">
-        <v>1715</v>
-      </c>
       <c r="Q38" s="13">
-        <v>1642</v>
+        <v>1743</v>
       </c>
       <c r="R38" s="13">
-        <v>1749</v>
+        <v>1595</v>
       </c>
       <c r="S38" s="13">
-        <v>1743</v>
-      </c>
-      <c r="T38" s="13">
-        <v>1595</v>
-      </c>
-      <c r="U38" s="13">
         <v>1854</v>
       </c>
+      <c r="T38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5273,48 +5273,48 @@
       <c r="G39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>57</v>
+      <c r="H39" s="11">
+        <v>3523</v>
+      </c>
+      <c r="I39" s="11">
+        <v>6879</v>
       </c>
       <c r="J39" s="11">
-        <v>3523</v>
+        <v>6584</v>
       </c>
       <c r="K39" s="11">
-        <v>6879</v>
+        <v>8180</v>
       </c>
       <c r="L39" s="11">
-        <v>6584</v>
+        <v>7371</v>
       </c>
       <c r="M39" s="11">
-        <v>8180</v>
+        <v>6289</v>
       </c>
       <c r="N39" s="11">
-        <v>7371</v>
+        <v>6929</v>
       </c>
       <c r="O39" s="11">
-        <v>6289</v>
+        <v>7171</v>
       </c>
       <c r="P39" s="11">
-        <v>6929</v>
+        <v>6677</v>
       </c>
       <c r="Q39" s="11">
-        <v>7171</v>
+        <v>7158</v>
       </c>
       <c r="R39" s="11">
-        <v>6677</v>
+        <v>6645</v>
       </c>
       <c r="S39" s="11">
-        <v>7158</v>
-      </c>
-      <c r="T39" s="11">
-        <v>6645</v>
-      </c>
-      <c r="U39" s="11">
         <v>8438</v>
       </c>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V39" s="11" t="s">
         <v>57</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5432,48 +5432,48 @@
       <c r="G40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>57</v>
+      <c r="H40" s="13">
+        <v>1327</v>
+      </c>
+      <c r="I40" s="13">
+        <v>2053</v>
       </c>
       <c r="J40" s="13">
-        <v>1327</v>
+        <v>463</v>
       </c>
       <c r="K40" s="13">
-        <v>2053</v>
+        <v>732</v>
       </c>
       <c r="L40" s="13">
-        <v>463</v>
+        <v>805</v>
       </c>
       <c r="M40" s="13">
-        <v>732</v>
+        <v>1081</v>
       </c>
       <c r="N40" s="13">
-        <v>805</v>
+        <v>970</v>
       </c>
       <c r="O40" s="13">
-        <v>1081</v>
+        <v>994</v>
       </c>
       <c r="P40" s="13">
-        <v>970</v>
+        <v>1172</v>
       </c>
       <c r="Q40" s="13">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="R40" s="13">
-        <v>1172</v>
+        <v>614</v>
       </c>
       <c r="S40" s="13">
-        <v>1015</v>
-      </c>
-      <c r="T40" s="13">
-        <v>614</v>
-      </c>
-      <c r="U40" s="13">
         <v>978</v>
       </c>
+      <c r="T40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5630,14 +5630,14 @@
       <c r="T41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>57</v>
+      <c r="U41" s="11">
+        <v>15</v>
+      </c>
+      <c r="V41" s="11">
+        <v>0</v>
       </c>
       <c r="W41" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X41" s="11">
         <v>0</v>
@@ -5652,22 +5652,22 @@
         <v>0</v>
       </c>
       <c r="AB41" s="11">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AC41" s="11">
         <v>0</v>
       </c>
       <c r="AD41" s="11">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="11">
         <v>0</v>
       </c>
-      <c r="AF41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>0</v>
+      <c r="AF41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>57</v>
@@ -5693,14 +5693,14 @@
       <c r="AO41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP41" s="11" t="s">
-        <v>57</v>
+      <c r="AP41" s="11">
+        <v>4613</v>
       </c>
       <c r="AQ41" s="11">
         <v>0</v>
       </c>
       <c r="AR41" s="11">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
         <v>0</v>
@@ -5727,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="BA41" s="11">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="BB41" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5750,84 +5750,84 @@
       <c r="G42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>57</v>
+      <c r="H42" s="13">
+        <v>299</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
       </c>
       <c r="J42" s="13">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="K42" s="13">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="L42" s="13">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="M42" s="13">
-        <v>3375</v>
+        <v>4173</v>
       </c>
       <c r="N42" s="13">
-        <v>4900</v>
+        <v>4588</v>
       </c>
       <c r="O42" s="13">
-        <v>4173</v>
+        <v>6723</v>
       </c>
       <c r="P42" s="13">
-        <v>4588</v>
+        <v>4032</v>
       </c>
       <c r="Q42" s="13">
-        <v>6723</v>
+        <v>3413</v>
       </c>
       <c r="R42" s="13">
-        <v>4032</v>
+        <v>5951</v>
       </c>
       <c r="S42" s="13">
-        <v>3413</v>
-      </c>
-      <c r="T42" s="13">
-        <v>5951</v>
-      </c>
-      <c r="U42" s="13">
         <v>4115</v>
       </c>
+      <c r="T42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>57</v>
+      <c r="W42" s="13">
+        <v>5759</v>
+      </c>
+      <c r="X42" s="13">
+        <v>5002</v>
       </c>
       <c r="Y42" s="13">
-        <v>5759</v>
+        <v>4146</v>
       </c>
       <c r="Z42" s="13">
-        <v>5002</v>
+        <v>5775</v>
       </c>
       <c r="AA42" s="13">
-        <v>4146</v>
+        <v>5183</v>
       </c>
       <c r="AB42" s="13">
-        <v>5775</v>
+        <v>5265</v>
       </c>
       <c r="AC42" s="13">
-        <v>5183</v>
+        <v>5682</v>
       </c>
       <c r="AD42" s="13">
-        <v>5265</v>
+        <v>5488</v>
       </c>
       <c r="AE42" s="13">
-        <v>5682</v>
-      </c>
-      <c r="AF42" s="13">
-        <v>5488</v>
-      </c>
-      <c r="AG42" s="13">
         <v>7856</v>
       </c>
+      <c r="AF42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH42" s="13" t="s">
         <v>57</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5921,36 +5921,36 @@
       <c r="K43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>57</v>
+      <c r="L43" s="11">
+        <v>956</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
       </c>
       <c r="N43" s="11">
-        <v>956</v>
+        <v>500</v>
       </c>
       <c r="O43" s="11">
         <v>0</v>
       </c>
       <c r="P43" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="11">
         <v>0</v>
       </c>
       <c r="R43" s="11">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="S43" s="11">
-        <v>0</v>
-      </c>
-      <c r="T43" s="11">
-        <v>294</v>
-      </c>
-      <c r="U43" s="11">
         <v>197</v>
       </c>
+      <c r="T43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V43" s="11" t="s">
         <v>57</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6104,48 +6104,48 @@
       <c r="S44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>57</v>
+      <c r="T44" s="13">
+        <v>26375</v>
+      </c>
+      <c r="U44" s="13">
+        <v>78925</v>
       </c>
       <c r="V44" s="13">
-        <v>26375</v>
+        <v>62365</v>
       </c>
       <c r="W44" s="13">
-        <v>78925</v>
+        <v>38739</v>
       </c>
       <c r="X44" s="13">
-        <v>62365</v>
+        <v>17230</v>
       </c>
       <c r="Y44" s="13">
-        <v>38739</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="13">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="13">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="AB44" s="13">
-        <v>0</v>
+        <v>36929</v>
       </c>
       <c r="AC44" s="13">
-        <v>10626</v>
+        <v>67415</v>
       </c>
       <c r="AD44" s="13">
-        <v>36929</v>
+        <v>62289</v>
       </c>
       <c r="AE44" s="13">
-        <v>67415</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>62289</v>
-      </c>
-      <c r="AG44" s="13">
         <v>20479</v>
       </c>
+      <c r="AF44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG44" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH44" s="13" t="s">
         <v>57</v>
       </c>
@@ -6170,11 +6170,11 @@
       <c r="AO44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP44" s="13" t="s">
-        <v>57</v>
+      <c r="AP44" s="13">
+        <v>0</v>
       </c>
       <c r="AQ44" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="13">
         <v>0</v>
@@ -6192,25 +6192,25 @@
         <v>0</v>
       </c>
       <c r="AW44" s="13">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AX44" s="13">
-        <v>0</v>
+        <v>28955</v>
       </c>
       <c r="AY44" s="13">
-        <v>2448</v>
+        <v>97568</v>
       </c>
       <c r="AZ44" s="13">
-        <v>28955</v>
+        <v>56400</v>
       </c>
       <c r="BA44" s="13">
-        <v>97568</v>
+        <v>104075</v>
       </c>
       <c r="BB44" s="13">
-        <v>56400</v>
+        <v>72683</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6227,17 +6227,17 @@
       <c r="G45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>57</v>
+      <c r="H45" s="11">
+        <v>27691</v>
+      </c>
+      <c r="I45" s="11">
+        <v>72296</v>
       </c>
       <c r="J45" s="11">
-        <v>27691</v>
+        <v>0</v>
       </c>
       <c r="K45" s="11">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="L45" s="11">
         <v>0</v>
@@ -6252,23 +6252,23 @@
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="Q45" s="11">
-        <v>0</v>
+        <v>43021</v>
       </c>
       <c r="R45" s="11">
-        <v>1513</v>
+        <v>47679</v>
       </c>
       <c r="S45" s="11">
-        <v>43021</v>
-      </c>
-      <c r="T45" s="11">
-        <v>47679</v>
-      </c>
-      <c r="U45" s="11">
         <v>13935</v>
       </c>
+      <c r="T45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V45" s="11" t="s">
         <v>57</v>
       </c>
@@ -6299,17 +6299,17 @@
       <c r="AE45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>57</v>
+      <c r="AF45" s="11">
+        <v>40166</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>121040</v>
       </c>
       <c r="AH45" s="11">
-        <v>40166</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="11">
-        <v>121040</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="11">
         <v>0</v>
@@ -6329,8 +6329,8 @@
       <c r="AO45" s="11">
         <v>0</v>
       </c>
-      <c r="AP45" s="11">
-        <v>0</v>
+      <c r="AP45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>57</v>
@@ -6369,7 +6369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6422,21 +6422,21 @@
       <c r="S46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>57</v>
+      <c r="T46" s="13">
+        <v>2809</v>
+      </c>
+      <c r="U46" s="13">
+        <v>7731</v>
       </c>
       <c r="V46" s="13">
-        <v>2809</v>
-      </c>
-      <c r="W46" s="13">
-        <v>7731</v>
-      </c>
-      <c r="X46" s="13">
         <v>6481</v>
       </c>
+      <c r="W46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X46" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y46" s="13" t="s">
         <v>57</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6545,48 +6545,48 @@
       <c r="G47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>57</v>
+      <c r="H47" s="11">
+        <v>37109</v>
+      </c>
+      <c r="I47" s="11">
+        <v>66084</v>
       </c>
       <c r="J47" s="11">
-        <v>37109</v>
+        <v>54027</v>
       </c>
       <c r="K47" s="11">
-        <v>66084</v>
+        <v>56030</v>
       </c>
       <c r="L47" s="11">
-        <v>54027</v>
+        <v>48485</v>
       </c>
       <c r="M47" s="11">
-        <v>56030</v>
+        <v>53334</v>
       </c>
       <c r="N47" s="11">
-        <v>48485</v>
+        <v>62021</v>
       </c>
       <c r="O47" s="11">
-        <v>53334</v>
+        <v>48501</v>
       </c>
       <c r="P47" s="11">
-        <v>62021</v>
+        <v>48465</v>
       </c>
       <c r="Q47" s="11">
-        <v>48501</v>
+        <v>39927</v>
       </c>
       <c r="R47" s="11">
-        <v>48465</v>
+        <v>43232</v>
       </c>
       <c r="S47" s="11">
-        <v>39927</v>
-      </c>
-      <c r="T47" s="11">
-        <v>43232</v>
-      </c>
-      <c r="U47" s="11">
         <v>59472</v>
       </c>
+      <c r="T47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V47" s="11" t="s">
         <v>57</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6704,48 +6704,48 @@
       <c r="G48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>57</v>
+      <c r="H48" s="13">
+        <v>38276</v>
+      </c>
+      <c r="I48" s="13">
+        <v>82074</v>
       </c>
       <c r="J48" s="13">
-        <v>38276</v>
+        <v>76520</v>
       </c>
       <c r="K48" s="13">
-        <v>82074</v>
+        <v>72238</v>
       </c>
       <c r="L48" s="13">
-        <v>76520</v>
+        <v>84546</v>
       </c>
       <c r="M48" s="13">
-        <v>72238</v>
+        <v>75221</v>
       </c>
       <c r="N48" s="13">
-        <v>84546</v>
+        <v>79999</v>
       </c>
       <c r="O48" s="13">
-        <v>75221</v>
+        <v>72743</v>
       </c>
       <c r="P48" s="13">
-        <v>79999</v>
+        <v>81537</v>
       </c>
       <c r="Q48" s="13">
-        <v>72743</v>
+        <v>82527</v>
       </c>
       <c r="R48" s="13">
-        <v>81537</v>
+        <v>82977</v>
       </c>
       <c r="S48" s="13">
-        <v>82527</v>
-      </c>
-      <c r="T48" s="13">
-        <v>82977</v>
-      </c>
-      <c r="U48" s="13">
         <v>97497</v>
       </c>
+      <c r="T48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6863,48 +6863,48 @@
       <c r="G49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>57</v>
+      <c r="H49" s="11">
+        <v>3342</v>
+      </c>
+      <c r="I49" s="11">
+        <v>7464</v>
       </c>
       <c r="J49" s="11">
-        <v>3342</v>
+        <v>6943</v>
       </c>
       <c r="K49" s="11">
-        <v>7464</v>
+        <v>8109</v>
       </c>
       <c r="L49" s="11">
-        <v>6943</v>
+        <v>6167</v>
       </c>
       <c r="M49" s="11">
-        <v>8109</v>
+        <v>5450</v>
       </c>
       <c r="N49" s="11">
-        <v>6167</v>
+        <v>5619</v>
       </c>
       <c r="O49" s="11">
-        <v>5450</v>
+        <v>5489</v>
       </c>
       <c r="P49" s="11">
-        <v>5619</v>
+        <v>5558</v>
       </c>
       <c r="Q49" s="11">
-        <v>5489</v>
+        <v>5329</v>
       </c>
       <c r="R49" s="11">
-        <v>5558</v>
+        <v>4485</v>
       </c>
       <c r="S49" s="11">
-        <v>5329</v>
-      </c>
-      <c r="T49" s="11">
-        <v>4485</v>
-      </c>
-      <c r="U49" s="11">
         <v>6314</v>
       </c>
+      <c r="T49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V49" s="11" t="s">
         <v>57</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7122,11 +7122,11 @@
       <c r="V51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>57</v>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
       </c>
       <c r="Y51" s="17">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>77</v>
       </c>
@@ -7336,11 +7336,11 @@
       <c r="V53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>57</v>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
       </c>
       <c r="Y53" s="17">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>74</v>
       </c>
@@ -7449,148 +7449,148 @@
         <v>0</v>
       </c>
       <c r="H54" s="19">
-        <v>0</v>
+        <v>117252</v>
       </c>
       <c r="I54" s="19">
-        <v>0</v>
+        <v>248354</v>
       </c>
       <c r="J54" s="19">
-        <v>117252</v>
+        <v>151216</v>
       </c>
       <c r="K54" s="19">
-        <v>248354</v>
+        <v>158230</v>
       </c>
       <c r="L54" s="19">
-        <v>151216</v>
+        <v>158394</v>
       </c>
       <c r="M54" s="19">
-        <v>158230</v>
+        <v>147297</v>
       </c>
       <c r="N54" s="19">
-        <v>158394</v>
+        <v>172357</v>
       </c>
       <c r="O54" s="19">
-        <v>147297</v>
+        <v>143263</v>
       </c>
       <c r="P54" s="19">
-        <v>172357</v>
+        <v>150703</v>
       </c>
       <c r="Q54" s="19">
-        <v>143263</v>
+        <v>184133</v>
       </c>
       <c r="R54" s="19">
-        <v>150703</v>
+        <v>193472</v>
       </c>
       <c r="S54" s="19">
-        <v>184133</v>
+        <v>192800</v>
       </c>
       <c r="T54" s="19">
-        <v>193472</v>
+        <v>128478</v>
       </c>
       <c r="U54" s="19">
-        <v>192800</v>
+        <v>294997</v>
       </c>
       <c r="V54" s="19">
-        <v>128478</v>
+        <v>243615</v>
       </c>
       <c r="W54" s="19">
-        <v>294997</v>
+        <v>236594</v>
       </c>
       <c r="X54" s="19">
-        <v>243615</v>
+        <v>202966</v>
       </c>
       <c r="Y54" s="19">
-        <v>236594</v>
+        <v>179368</v>
       </c>
       <c r="Z54" s="19">
-        <v>202966</v>
+        <v>182773</v>
       </c>
       <c r="AA54" s="19">
-        <v>179368</v>
+        <v>248142</v>
       </c>
       <c r="AB54" s="19">
-        <v>182773</v>
+        <v>209289</v>
       </c>
       <c r="AC54" s="19">
-        <v>248142</v>
+        <v>218962</v>
       </c>
       <c r="AD54" s="19">
-        <v>209289</v>
+        <v>206812</v>
       </c>
       <c r="AE54" s="19">
-        <v>218962</v>
+        <v>177400</v>
       </c>
       <c r="AF54" s="19">
-        <v>206812</v>
+        <v>155885</v>
       </c>
       <c r="AG54" s="19">
-        <v>177400</v>
+        <v>292938</v>
       </c>
       <c r="AH54" s="19">
-        <v>155885</v>
+        <v>187447</v>
       </c>
       <c r="AI54" s="19">
-        <v>292938</v>
+        <v>142504</v>
       </c>
       <c r="AJ54" s="19">
-        <v>187447</v>
+        <v>104024</v>
       </c>
       <c r="AK54" s="19">
-        <v>142504</v>
+        <v>165589</v>
       </c>
       <c r="AL54" s="19">
-        <v>104024</v>
+        <v>168559</v>
       </c>
       <c r="AM54" s="19">
-        <v>165589</v>
+        <v>189515</v>
       </c>
       <c r="AN54" s="19">
-        <v>168559</v>
+        <v>196808</v>
       </c>
       <c r="AO54" s="19">
-        <v>189515</v>
+        <v>171498</v>
       </c>
       <c r="AP54" s="19">
-        <v>196808</v>
+        <v>174465</v>
       </c>
       <c r="AQ54" s="19">
-        <v>171497</v>
+        <v>196060</v>
       </c>
       <c r="AR54" s="19">
-        <v>174465</v>
+        <v>151113</v>
       </c>
       <c r="AS54" s="19">
-        <v>196060</v>
+        <v>180965</v>
       </c>
       <c r="AT54" s="19">
-        <v>144850</v>
+        <v>191838</v>
       </c>
       <c r="AU54" s="19">
-        <v>180965</v>
+        <v>153431</v>
       </c>
       <c r="AV54" s="19">
-        <v>191838</v>
+        <v>162936</v>
       </c>
       <c r="AW54" s="19">
-        <v>153431</v>
+        <v>213706</v>
       </c>
       <c r="AX54" s="19">
-        <v>162936</v>
+        <v>214795</v>
       </c>
       <c r="AY54" s="19">
-        <v>213706</v>
+        <v>307482</v>
       </c>
       <c r="AZ54" s="19">
-        <v>214795</v>
+        <v>287279</v>
       </c>
       <c r="BA54" s="19">
-        <v>307482</v>
+        <v>320368</v>
       </c>
       <c r="BB54" s="19">
-        <v>287279</v>
+        <v>279522</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7645,7 +7645,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7700,7 +7700,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7755,7 +7755,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7967,7 +7967,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>78</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8077,113 +8077,113 @@
       <c r="S61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U61" s="11" t="s">
-        <v>57</v>
+      <c r="T61" s="11">
+        <v>39627</v>
+      </c>
+      <c r="U61" s="11">
+        <v>77027</v>
       </c>
       <c r="V61" s="11">
-        <v>39627</v>
+        <v>65801</v>
       </c>
       <c r="W61" s="11">
-        <v>77027</v>
+        <v>89345</v>
       </c>
       <c r="X61" s="11">
-        <v>65801</v>
+        <v>104936</v>
       </c>
       <c r="Y61" s="11">
-        <v>89345</v>
+        <v>116390</v>
       </c>
       <c r="Z61" s="11">
-        <v>104936</v>
+        <v>99437</v>
       </c>
       <c r="AA61" s="11">
-        <v>116390</v>
+        <v>117329</v>
       </c>
       <c r="AB61" s="11">
-        <v>99437</v>
+        <v>131846</v>
       </c>
       <c r="AC61" s="11">
-        <v>117329</v>
+        <v>83934</v>
       </c>
       <c r="AD61" s="11">
-        <v>131846</v>
+        <v>109324</v>
       </c>
       <c r="AE61" s="11">
-        <v>83934</v>
+        <v>98840</v>
       </c>
       <c r="AF61" s="11">
-        <v>109324</v>
+        <v>167186</v>
       </c>
       <c r="AG61" s="11">
-        <v>98840</v>
+        <v>219772</v>
       </c>
       <c r="AH61" s="11">
-        <v>167186</v>
+        <v>218995</v>
       </c>
       <c r="AI61" s="11">
-        <v>219772</v>
+        <v>166798</v>
       </c>
       <c r="AJ61" s="11">
-        <v>218995</v>
+        <v>149244</v>
       </c>
       <c r="AK61" s="11">
-        <v>166798</v>
+        <v>227989</v>
       </c>
       <c r="AL61" s="11">
-        <v>149244</v>
+        <v>267371</v>
       </c>
       <c r="AM61" s="11">
-        <v>227989</v>
+        <v>307669</v>
       </c>
       <c r="AN61" s="11">
-        <v>267371</v>
+        <v>312157</v>
       </c>
       <c r="AO61" s="11">
-        <v>307669</v>
+        <v>237996</v>
       </c>
       <c r="AP61" s="11">
-        <v>312157</v>
+        <v>230133</v>
       </c>
       <c r="AQ61" s="11">
-        <v>237996</v>
+        <v>269861</v>
       </c>
       <c r="AR61" s="11">
-        <v>230133</v>
+        <v>235604</v>
       </c>
       <c r="AS61" s="11">
-        <v>269861</v>
+        <v>297108</v>
       </c>
       <c r="AT61" s="11">
-        <v>235604</v>
+        <v>443918</v>
       </c>
       <c r="AU61" s="11">
-        <v>297108</v>
+        <v>390281</v>
       </c>
       <c r="AV61" s="11">
-        <v>443918</v>
+        <v>482051</v>
       </c>
       <c r="AW61" s="11">
-        <v>390281</v>
+        <v>478687</v>
       </c>
       <c r="AX61" s="11">
-        <v>482051</v>
+        <v>427419</v>
       </c>
       <c r="AY61" s="11">
-        <v>478687</v>
+        <v>477039</v>
       </c>
       <c r="AZ61" s="11">
-        <v>427419</v>
+        <v>404948</v>
       </c>
       <c r="BA61" s="11">
-        <v>477039</v>
+        <v>404767</v>
       </c>
       <c r="BB61" s="11">
-        <v>404948</v>
+        <v>404035</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>58</v>
       </c>
@@ -8209,23 +8209,23 @@
       <c r="J62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>57</v>
+      <c r="K62" s="13">
+        <v>31684</v>
+      </c>
+      <c r="L62" s="13">
+        <v>15738</v>
       </c>
       <c r="M62" s="13">
-        <v>31684</v>
+        <v>0</v>
       </c>
       <c r="N62" s="13">
-        <v>15738</v>
+        <v>47528</v>
       </c>
       <c r="O62" s="13">
         <v>0</v>
       </c>
       <c r="P62" s="13">
-        <v>47528</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="13">
         <v>0</v>
@@ -8236,11 +8236,11 @@
       <c r="S62" s="13">
         <v>0</v>
       </c>
-      <c r="T62" s="13">
-        <v>0</v>
-      </c>
-      <c r="U62" s="13">
-        <v>0</v>
+      <c r="T62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V62" s="13" t="s">
         <v>57</v>
@@ -8272,17 +8272,17 @@
       <c r="AE62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>57</v>
+      <c r="AF62" s="13">
+        <v>5455</v>
+      </c>
+      <c r="AG62" s="13">
+        <v>40352</v>
       </c>
       <c r="AH62" s="13">
-        <v>5455</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="13">
-        <v>40352</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="13">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="AN62" s="13">
-        <v>0</v>
+        <v>14108</v>
       </c>
       <c r="AO62" s="13">
         <v>0</v>
       </c>
-      <c r="AP62" s="13">
-        <v>14108</v>
+      <c r="AP62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ62" s="13" t="s">
         <v>57</v>
@@ -8342,7 +8342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
@@ -8395,113 +8395,113 @@
       <c r="S63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U63" s="11" t="s">
-        <v>57</v>
+      <c r="T63" s="11">
+        <v>156660</v>
+      </c>
+      <c r="U63" s="11">
+        <v>325816</v>
       </c>
       <c r="V63" s="11">
-        <v>156660</v>
+        <v>282701</v>
       </c>
       <c r="W63" s="11">
-        <v>325816</v>
+        <v>363783</v>
       </c>
       <c r="X63" s="11">
-        <v>282701</v>
+        <v>376275</v>
       </c>
       <c r="Y63" s="11">
-        <v>363783</v>
+        <v>359067</v>
       </c>
       <c r="Z63" s="11">
-        <v>376275</v>
+        <v>378334</v>
       </c>
       <c r="AA63" s="11">
-        <v>359067</v>
+        <v>534901</v>
       </c>
       <c r="AB63" s="11">
-        <v>378334</v>
+        <v>355004</v>
       </c>
       <c r="AC63" s="11">
-        <v>534901</v>
+        <v>328996</v>
       </c>
       <c r="AD63" s="11">
-        <v>355004</v>
+        <v>295609</v>
       </c>
       <c r="AE63" s="11">
-        <v>328996</v>
+        <v>331053</v>
       </c>
       <c r="AF63" s="11">
-        <v>295609</v>
+        <v>252271</v>
       </c>
       <c r="AG63" s="11">
-        <v>331053</v>
+        <v>490846</v>
       </c>
       <c r="AH63" s="11">
-        <v>252271</v>
+        <v>565164</v>
       </c>
       <c r="AI63" s="11">
-        <v>490846</v>
+        <v>536861</v>
       </c>
       <c r="AJ63" s="11">
-        <v>565164</v>
+        <v>539113</v>
       </c>
       <c r="AK63" s="11">
-        <v>536861</v>
+        <v>955486</v>
       </c>
       <c r="AL63" s="11">
-        <v>539113</v>
+        <v>669700</v>
       </c>
       <c r="AM63" s="11">
-        <v>955486</v>
+        <v>719700</v>
       </c>
       <c r="AN63" s="11">
-        <v>669700</v>
+        <v>799824</v>
       </c>
       <c r="AO63" s="11">
-        <v>719700</v>
+        <v>693602</v>
       </c>
       <c r="AP63" s="11">
-        <v>799824</v>
+        <v>667009</v>
       </c>
       <c r="AQ63" s="11">
-        <v>693602</v>
+        <v>863788</v>
       </c>
       <c r="AR63" s="11">
-        <v>667009</v>
+        <v>625079</v>
       </c>
       <c r="AS63" s="11">
-        <v>863788</v>
+        <v>774630</v>
       </c>
       <c r="AT63" s="11">
-        <v>625079</v>
+        <v>1039274</v>
       </c>
       <c r="AU63" s="11">
-        <v>774630</v>
+        <v>1072318</v>
       </c>
       <c r="AV63" s="11">
-        <v>1039274</v>
+        <v>1020364</v>
       </c>
       <c r="AW63" s="11">
-        <v>1072318</v>
+        <v>1257899</v>
       </c>
       <c r="AX63" s="11">
-        <v>1020364</v>
+        <v>1043249</v>
       </c>
       <c r="AY63" s="11">
-        <v>1257899</v>
+        <v>1152788</v>
       </c>
       <c r="AZ63" s="11">
-        <v>1043249</v>
+        <v>1293920</v>
       </c>
       <c r="BA63" s="11">
-        <v>1152788</v>
+        <v>1166046</v>
       </c>
       <c r="BB63" s="11">
-        <v>1293920</v>
+        <v>1224621</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>60</v>
       </c>
@@ -8518,48 +8518,48 @@
       <c r="G64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>57</v>
+      <c r="H64" s="13">
+        <v>19129</v>
+      </c>
+      <c r="I64" s="13">
+        <v>40353</v>
       </c>
       <c r="J64" s="13">
-        <v>19129</v>
+        <v>23589</v>
       </c>
       <c r="K64" s="13">
-        <v>40353</v>
+        <v>9372</v>
       </c>
       <c r="L64" s="13">
-        <v>23589</v>
+        <v>6939</v>
       </c>
       <c r="M64" s="13">
-        <v>9372</v>
+        <v>6679</v>
       </c>
       <c r="N64" s="13">
-        <v>6939</v>
+        <v>6356</v>
       </c>
       <c r="O64" s="13">
-        <v>6679</v>
+        <v>6022</v>
       </c>
       <c r="P64" s="13">
-        <v>6356</v>
+        <v>6414</v>
       </c>
       <c r="Q64" s="13">
-        <v>6022</v>
+        <v>6391</v>
       </c>
       <c r="R64" s="13">
-        <v>6414</v>
+        <v>5847</v>
       </c>
       <c r="S64" s="13">
-        <v>6391</v>
-      </c>
-      <c r="T64" s="13">
-        <v>5847</v>
-      </c>
-      <c r="U64" s="13">
         <v>6798</v>
       </c>
+      <c r="T64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V64" s="13" t="s">
         <v>57</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8677,48 +8677,48 @@
       <c r="G65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>57</v>
+      <c r="H65" s="11">
+        <v>10796</v>
+      </c>
+      <c r="I65" s="11">
+        <v>21113</v>
       </c>
       <c r="J65" s="11">
-        <v>10796</v>
+        <v>20222</v>
       </c>
       <c r="K65" s="11">
-        <v>21113</v>
+        <v>26315</v>
       </c>
       <c r="L65" s="11">
-        <v>20222</v>
+        <v>28391</v>
       </c>
       <c r="M65" s="11">
-        <v>26315</v>
+        <v>24929</v>
       </c>
       <c r="N65" s="11">
-        <v>28391</v>
+        <v>26409</v>
       </c>
       <c r="O65" s="11">
-        <v>24929</v>
+        <v>27022</v>
       </c>
       <c r="P65" s="11">
-        <v>26409</v>
+        <v>25078</v>
       </c>
       <c r="Q65" s="11">
-        <v>27022</v>
+        <v>27007</v>
       </c>
       <c r="R65" s="11">
-        <v>25078</v>
+        <v>25016</v>
       </c>
       <c r="S65" s="11">
-        <v>27007</v>
-      </c>
-      <c r="T65" s="11">
-        <v>25016</v>
-      </c>
-      <c r="U65" s="11">
         <v>31832</v>
       </c>
+      <c r="T65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V65" s="11" t="s">
         <v>57</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8836,48 +8836,48 @@
       <c r="G66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>57</v>
+      <c r="H66" s="13">
+        <v>4532</v>
+      </c>
+      <c r="I66" s="13">
+        <v>6237</v>
       </c>
       <c r="J66" s="13">
-        <v>4532</v>
+        <v>1205</v>
       </c>
       <c r="K66" s="13">
-        <v>6237</v>
+        <v>1903</v>
       </c>
       <c r="L66" s="13">
-        <v>1205</v>
+        <v>2659</v>
       </c>
       <c r="M66" s="13">
-        <v>1903</v>
+        <v>3785</v>
       </c>
       <c r="N66" s="13">
-        <v>2659</v>
+        <v>3396</v>
       </c>
       <c r="O66" s="13">
-        <v>3785</v>
+        <v>3480</v>
       </c>
       <c r="P66" s="13">
-        <v>3396</v>
+        <v>4101</v>
       </c>
       <c r="Q66" s="13">
-        <v>3480</v>
+        <v>3554</v>
       </c>
       <c r="R66" s="13">
-        <v>4101</v>
+        <v>2147</v>
       </c>
       <c r="S66" s="13">
-        <v>3554</v>
-      </c>
-      <c r="T66" s="13">
-        <v>2147</v>
-      </c>
-      <c r="U66" s="13">
         <v>3425</v>
       </c>
+      <c r="T66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U66" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V66" s="13" t="s">
         <v>57</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -9034,14 +9034,14 @@
       <c r="T67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V67" s="11" t="s">
-        <v>57</v>
+      <c r="U67" s="11">
+        <v>76</v>
+      </c>
+      <c r="V67" s="11">
+        <v>0</v>
       </c>
       <c r="W67" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="X67" s="11">
         <v>0</v>
@@ -9056,22 +9056,22 @@
         <v>0</v>
       </c>
       <c r="AB67" s="11">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="AC67" s="11">
         <v>0</v>
       </c>
       <c r="AD67" s="11">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="11">
         <v>0</v>
       </c>
-      <c r="AF67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="11">
-        <v>0</v>
+      <c r="AF67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH67" s="11" t="s">
         <v>57</v>
@@ -9097,14 +9097,14 @@
       <c r="AO67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP67" s="11" t="s">
-        <v>57</v>
+      <c r="AP67" s="11">
+        <v>51026</v>
       </c>
       <c r="AQ67" s="11">
         <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="11">
         <v>0</v>
@@ -9131,13 +9131,13 @@
         <v>0</v>
       </c>
       <c r="BA67" s="11">
-        <v>0</v>
+        <v>6529</v>
       </c>
       <c r="BB67" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9154,84 +9154,84 @@
       <c r="G68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>57</v>
+      <c r="H68" s="13">
+        <v>882</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
       </c>
       <c r="J68" s="13">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="K68" s="13">
-        <v>0</v>
+        <v>15115</v>
       </c>
       <c r="L68" s="13">
-        <v>0</v>
+        <v>21509</v>
       </c>
       <c r="M68" s="13">
-        <v>15115</v>
+        <v>16888</v>
       </c>
       <c r="N68" s="13">
-        <v>21509</v>
+        <v>19662</v>
       </c>
       <c r="O68" s="13">
-        <v>16888</v>
+        <v>27275</v>
       </c>
       <c r="P68" s="13">
-        <v>19662</v>
+        <v>16017</v>
       </c>
       <c r="Q68" s="13">
-        <v>27275</v>
+        <v>15332</v>
       </c>
       <c r="R68" s="13">
-        <v>16017</v>
+        <v>28893</v>
       </c>
       <c r="S68" s="13">
-        <v>15332</v>
-      </c>
-      <c r="T68" s="13">
-        <v>28893</v>
-      </c>
-      <c r="U68" s="13">
         <v>23824</v>
       </c>
+      <c r="T68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>57</v>
+      <c r="W68" s="13">
+        <v>45458</v>
+      </c>
+      <c r="X68" s="13">
+        <v>45558</v>
       </c>
       <c r="Y68" s="13">
-        <v>45458</v>
+        <v>39157</v>
       </c>
       <c r="Z68" s="13">
-        <v>45558</v>
+        <v>62886</v>
       </c>
       <c r="AA68" s="13">
-        <v>39157</v>
+        <v>59124</v>
       </c>
       <c r="AB68" s="13">
-        <v>62886</v>
+        <v>60297</v>
       </c>
       <c r="AC68" s="13">
-        <v>59124</v>
+        <v>61127</v>
       </c>
       <c r="AD68" s="13">
-        <v>60297</v>
+        <v>56456</v>
       </c>
       <c r="AE68" s="13">
-        <v>61127</v>
-      </c>
-      <c r="AF68" s="13">
-        <v>56456</v>
-      </c>
-      <c r="AG68" s="13">
         <v>80043</v>
       </c>
+      <c r="AF68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH68" s="13" t="s">
         <v>57</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9325,36 +9325,36 @@
       <c r="K69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>57</v>
+      <c r="L69" s="11">
+        <v>4055</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
       </c>
       <c r="N69" s="11">
-        <v>4055</v>
+        <v>1555</v>
       </c>
       <c r="O69" s="11">
         <v>0</v>
       </c>
       <c r="P69" s="11">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="11">
         <v>0</v>
       </c>
       <c r="R69" s="11">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="S69" s="11">
-        <v>0</v>
-      </c>
-      <c r="T69" s="11">
-        <v>1054</v>
-      </c>
-      <c r="U69" s="11">
         <v>746</v>
       </c>
+      <c r="T69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V69" s="11" t="s">
         <v>57</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9508,48 +9508,48 @@
       <c r="S70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>57</v>
+      <c r="T70" s="13">
+        <v>64472</v>
+      </c>
+      <c r="U70" s="13">
+        <v>192480</v>
       </c>
       <c r="V70" s="13">
-        <v>64472</v>
+        <v>170349</v>
       </c>
       <c r="W70" s="13">
-        <v>192480</v>
+        <v>116074</v>
       </c>
       <c r="X70" s="13">
-        <v>170349</v>
+        <v>61457</v>
       </c>
       <c r="Y70" s="13">
-        <v>116074</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="13">
-        <v>61457</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="13">
-        <v>0</v>
+        <v>45154</v>
       </c>
       <c r="AB70" s="13">
-        <v>0</v>
+        <v>157142</v>
       </c>
       <c r="AC70" s="13">
-        <v>45154</v>
+        <v>295990</v>
       </c>
       <c r="AD70" s="13">
-        <v>157142</v>
+        <v>263674</v>
       </c>
       <c r="AE70" s="13">
-        <v>295990</v>
-      </c>
-      <c r="AF70" s="13">
-        <v>263674</v>
-      </c>
-      <c r="AG70" s="13">
         <v>89605</v>
       </c>
+      <c r="AF70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH70" s="13" t="s">
         <v>57</v>
       </c>
@@ -9574,8 +9574,8 @@
       <c r="AO70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP70" s="13" t="s">
-        <v>57</v>
+      <c r="AP70" s="13">
+        <v>0</v>
       </c>
       <c r="AQ70" s="13">
         <v>0</v>
@@ -9596,25 +9596,25 @@
         <v>0</v>
       </c>
       <c r="AW70" s="13">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="AX70" s="13">
-        <v>0</v>
+        <v>240180</v>
       </c>
       <c r="AY70" s="13">
-        <v>20305</v>
+        <v>812608</v>
       </c>
       <c r="AZ70" s="13">
-        <v>240180</v>
+        <v>476775</v>
       </c>
       <c r="BA70" s="13">
-        <v>812608</v>
+        <v>736576</v>
       </c>
       <c r="BB70" s="13">
-        <v>476775</v>
+        <v>512883</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9631,17 +9631,17 @@
       <c r="G71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>57</v>
+      <c r="H71" s="11">
+        <v>50144</v>
+      </c>
+      <c r="I71" s="11">
+        <v>157469</v>
       </c>
       <c r="J71" s="11">
-        <v>50144</v>
+        <v>0</v>
       </c>
       <c r="K71" s="11">
-        <v>157469</v>
+        <v>0</v>
       </c>
       <c r="L71" s="11">
         <v>0</v>
@@ -9656,23 +9656,23 @@
         <v>0</v>
       </c>
       <c r="P71" s="11">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="Q71" s="11">
-        <v>0</v>
+        <v>85453</v>
       </c>
       <c r="R71" s="11">
-        <v>2873</v>
+        <v>104007</v>
       </c>
       <c r="S71" s="11">
-        <v>85453</v>
-      </c>
-      <c r="T71" s="11">
-        <v>104007</v>
-      </c>
-      <c r="U71" s="11">
         <v>32132</v>
       </c>
+      <c r="T71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V71" s="11" t="s">
         <v>57</v>
       </c>
@@ -9703,17 +9703,17 @@
       <c r="AE71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG71" s="11" t="s">
-        <v>57</v>
+      <c r="AF71" s="11">
+        <v>176054</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>535629</v>
       </c>
       <c r="AH71" s="11">
-        <v>176054</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
-        <v>535629</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="11">
         <v>0</v>
@@ -9733,8 +9733,8 @@
       <c r="AO71" s="11">
         <v>0</v>
       </c>
-      <c r="AP71" s="11">
-        <v>0</v>
+      <c r="AP71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>57</v>
@@ -9773,7 +9773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9826,21 +9826,21 @@
       <c r="S72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>57</v>
+      <c r="T72" s="13">
+        <v>19087</v>
+      </c>
+      <c r="U72" s="13">
+        <v>53917</v>
       </c>
       <c r="V72" s="13">
-        <v>19087</v>
-      </c>
-      <c r="W72" s="13">
-        <v>53917</v>
-      </c>
-      <c r="X72" s="13">
         <v>51595</v>
       </c>
+      <c r="W72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y72" s="13" t="s">
         <v>57</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9949,48 +9949,48 @@
       <c r="G73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>57</v>
+      <c r="H73" s="11">
+        <v>52229</v>
+      </c>
+      <c r="I73" s="11">
+        <v>95548</v>
       </c>
       <c r="J73" s="11">
-        <v>52229</v>
+        <v>82163</v>
       </c>
       <c r="K73" s="11">
-        <v>95548</v>
+        <v>103198</v>
       </c>
       <c r="L73" s="11">
-        <v>82163</v>
+        <v>97749</v>
       </c>
       <c r="M73" s="11">
-        <v>103198</v>
+        <v>105575</v>
       </c>
       <c r="N73" s="11">
-        <v>97749</v>
+        <v>122308</v>
       </c>
       <c r="O73" s="11">
-        <v>105575</v>
+        <v>96015</v>
       </c>
       <c r="P73" s="11">
-        <v>122308</v>
+        <v>95841</v>
       </c>
       <c r="Q73" s="11">
-        <v>96015</v>
+        <v>79188</v>
       </c>
       <c r="R73" s="11">
-        <v>95841</v>
+        <v>83241</v>
       </c>
       <c r="S73" s="11">
-        <v>79188</v>
-      </c>
-      <c r="T73" s="11">
-        <v>83241</v>
-      </c>
-      <c r="U73" s="11">
         <v>114474</v>
       </c>
+      <c r="T73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V73" s="11" t="s">
         <v>57</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10108,48 +10108,48 @@
       <c r="G74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>57</v>
+      <c r="H74" s="13">
+        <v>41014</v>
+      </c>
+      <c r="I74" s="13">
+        <v>91155</v>
       </c>
       <c r="J74" s="13">
-        <v>41014</v>
+        <v>88537</v>
       </c>
       <c r="K74" s="13">
-        <v>91155</v>
+        <v>106990</v>
       </c>
       <c r="L74" s="13">
-        <v>88537</v>
+        <v>138344</v>
       </c>
       <c r="M74" s="13">
-        <v>106990</v>
+        <v>125416</v>
       </c>
       <c r="N74" s="13">
-        <v>138344</v>
+        <v>133235</v>
       </c>
       <c r="O74" s="13">
-        <v>125416</v>
+        <v>118425</v>
       </c>
       <c r="P74" s="13">
-        <v>133235</v>
+        <v>131779</v>
       </c>
       <c r="Q74" s="13">
-        <v>118425</v>
+        <v>134157</v>
       </c>
       <c r="R74" s="13">
-        <v>131779</v>
+        <v>131689</v>
       </c>
       <c r="S74" s="13">
-        <v>134157</v>
-      </c>
-      <c r="T74" s="13">
-        <v>131689</v>
-      </c>
-      <c r="U74" s="13">
         <v>154047</v>
       </c>
+      <c r="T74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U74" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V74" s="13" t="s">
         <v>57</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>71</v>
       </c>
@@ -10267,48 +10267,48 @@
       <c r="G75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>57</v>
+      <c r="H75" s="11">
+        <v>9903</v>
+      </c>
+      <c r="I75" s="11">
+        <v>22147</v>
       </c>
       <c r="J75" s="11">
-        <v>9903</v>
+        <v>20630</v>
       </c>
       <c r="K75" s="11">
-        <v>22147</v>
+        <v>25187</v>
       </c>
       <c r="L75" s="11">
-        <v>20630</v>
+        <v>23926</v>
       </c>
       <c r="M75" s="11">
-        <v>25187</v>
+        <v>21146</v>
       </c>
       <c r="N75" s="11">
-        <v>23926</v>
+        <v>21015</v>
       </c>
       <c r="O75" s="11">
-        <v>21146</v>
+        <v>20348</v>
       </c>
       <c r="P75" s="11">
-        <v>21015</v>
+        <v>20588</v>
       </c>
       <c r="Q75" s="11">
-        <v>20348</v>
+        <v>19722</v>
       </c>
       <c r="R75" s="11">
-        <v>20588</v>
+        <v>16577</v>
       </c>
       <c r="S75" s="11">
-        <v>19722</v>
-      </c>
-      <c r="T75" s="11">
-        <v>16577</v>
-      </c>
-      <c r="U75" s="11">
         <v>23375</v>
       </c>
+      <c r="T75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U75" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V75" s="11" t="s">
         <v>57</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>80</v>
       </c>
@@ -10466,7 +10466,7 @@
       <c r="BA76" s="15"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>73</v>
       </c>
@@ -10528,11 +10528,11 @@
       <c r="V77" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W77" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="17" t="s">
-        <v>57</v>
+      <c r="W77" s="17">
+        <v>0</v>
+      </c>
+      <c r="X77" s="17">
+        <v>0</v>
       </c>
       <c r="Y77" s="17">
         <v>0</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>77</v>
       </c>
@@ -10744,11 +10744,11 @@
       <c r="V79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W79" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>57</v>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
       </c>
       <c r="Y79" s="17">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
@@ -10960,11 +10960,11 @@
       <c r="V81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>57</v>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>0</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>74</v>
       </c>
@@ -11073,148 +11073,148 @@
         <v>0</v>
       </c>
       <c r="H82" s="19">
-        <v>0</v>
+        <v>188629</v>
       </c>
       <c r="I82" s="19">
-        <v>0</v>
+        <v>434022</v>
       </c>
       <c r="J82" s="19">
-        <v>188629</v>
+        <v>236346</v>
       </c>
       <c r="K82" s="19">
-        <v>434022</v>
+        <v>319764</v>
       </c>
       <c r="L82" s="19">
-        <v>236346</v>
+        <v>339310</v>
       </c>
       <c r="M82" s="19">
-        <v>319764</v>
+        <v>304418</v>
       </c>
       <c r="N82" s="19">
-        <v>339310</v>
+        <v>381464</v>
       </c>
       <c r="O82" s="19">
-        <v>304418</v>
+        <v>298587</v>
       </c>
       <c r="P82" s="19">
-        <v>381464</v>
+        <v>302691</v>
       </c>
       <c r="Q82" s="19">
-        <v>298587</v>
+        <v>370804</v>
       </c>
       <c r="R82" s="19">
-        <v>302691</v>
+        <v>398471</v>
       </c>
       <c r="S82" s="19">
-        <v>370804</v>
+        <v>390653</v>
       </c>
       <c r="T82" s="19">
-        <v>398471</v>
+        <v>279846</v>
       </c>
       <c r="U82" s="19">
-        <v>390653</v>
+        <v>649316</v>
       </c>
       <c r="V82" s="19">
-        <v>279846</v>
+        <v>570446</v>
       </c>
       <c r="W82" s="19">
-        <v>649316</v>
+        <v>614660</v>
       </c>
       <c r="X82" s="19">
-        <v>570446</v>
+        <v>588226</v>
       </c>
       <c r="Y82" s="19">
-        <v>614660</v>
+        <v>514614</v>
       </c>
       <c r="Z82" s="19">
-        <v>588226</v>
+        <v>540657</v>
       </c>
       <c r="AA82" s="19">
-        <v>514614</v>
+        <v>756508</v>
       </c>
       <c r="AB82" s="19">
-        <v>540657</v>
+        <v>706880</v>
       </c>
       <c r="AC82" s="19">
-        <v>756508</v>
+        <v>770047</v>
       </c>
       <c r="AD82" s="19">
-        <v>706880</v>
+        <v>725063</v>
       </c>
       <c r="AE82" s="19">
-        <v>770047</v>
+        <v>599541</v>
       </c>
       <c r="AF82" s="19">
-        <v>725063</v>
+        <v>600966</v>
       </c>
       <c r="AG82" s="19">
-        <v>599541</v>
+        <v>1286599</v>
       </c>
       <c r="AH82" s="19">
-        <v>600966</v>
+        <v>784159</v>
       </c>
       <c r="AI82" s="19">
-        <v>1286599</v>
+        <v>703659</v>
       </c>
       <c r="AJ82" s="19">
-        <v>784159</v>
+        <v>688357</v>
       </c>
       <c r="AK82" s="19">
-        <v>703659</v>
+        <v>1183475</v>
       </c>
       <c r="AL82" s="19">
-        <v>688357</v>
+        <v>937071</v>
       </c>
       <c r="AM82" s="19">
-        <v>1183475</v>
+        <v>1027369</v>
       </c>
       <c r="AN82" s="19">
-        <v>937071</v>
+        <v>1126089</v>
       </c>
       <c r="AO82" s="19">
-        <v>1027369</v>
+        <v>931598</v>
       </c>
       <c r="AP82" s="19">
-        <v>1126089</v>
+        <v>948168</v>
       </c>
       <c r="AQ82" s="19">
-        <v>931598</v>
+        <v>1133649</v>
       </c>
       <c r="AR82" s="19">
-        <v>948168</v>
+        <v>860683</v>
       </c>
       <c r="AS82" s="19">
-        <v>1133649</v>
+        <v>1071738</v>
       </c>
       <c r="AT82" s="19">
-        <v>860683</v>
+        <v>1483192</v>
       </c>
       <c r="AU82" s="19">
-        <v>1071738</v>
+        <v>1462599</v>
       </c>
       <c r="AV82" s="19">
-        <v>1483192</v>
+        <v>1502415</v>
       </c>
       <c r="AW82" s="19">
-        <v>1462599</v>
+        <v>1756891</v>
       </c>
       <c r="AX82" s="19">
-        <v>1502415</v>
+        <v>1710848</v>
       </c>
       <c r="AY82" s="19">
-        <v>1756891</v>
+        <v>2442435</v>
       </c>
       <c r="AZ82" s="19">
-        <v>1710848</v>
+        <v>2175643</v>
       </c>
       <c r="BA82" s="19">
-        <v>2442435</v>
+        <v>2313918</v>
       </c>
       <c r="BB82" s="19">
-        <v>2175643</v>
+        <v>2141539</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11324,7 +11324,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11379,7 +11379,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>84</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11591,7 +11591,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11701,113 +11701,113 @@
       <c r="S89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T89" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U89" s="11" t="s">
-        <v>57</v>
+      <c r="T89" s="11">
+        <v>3710393</v>
+      </c>
+      <c r="U89" s="11">
+        <v>3746449</v>
       </c>
       <c r="V89" s="11">
-        <v>3710393</v>
+        <v>3881836</v>
       </c>
       <c r="W89" s="11">
-        <v>3746449</v>
+        <v>4435536</v>
       </c>
       <c r="X89" s="11">
-        <v>3881836</v>
+        <v>4687573</v>
       </c>
       <c r="Y89" s="11">
-        <v>4435536</v>
+        <v>4780662</v>
       </c>
       <c r="Z89" s="11">
-        <v>4687573</v>
+        <v>4827508</v>
       </c>
       <c r="AA89" s="11">
-        <v>4780662</v>
+        <v>5094837</v>
       </c>
       <c r="AB89" s="11">
-        <v>4827508</v>
+        <v>5182830</v>
       </c>
       <c r="AC89" s="11">
-        <v>5094837</v>
+        <v>5175361</v>
       </c>
       <c r="AD89" s="11">
-        <v>5182830</v>
+        <v>5179514</v>
       </c>
       <c r="AE89" s="11">
-        <v>5175361</v>
+        <v>5162436</v>
       </c>
       <c r="AF89" s="11">
-        <v>5179514</v>
+        <v>7249415</v>
       </c>
       <c r="AG89" s="11">
-        <v>5162436</v>
+        <v>7301153</v>
       </c>
       <c r="AH89" s="11">
-        <v>7249415</v>
+        <v>7740527</v>
       </c>
       <c r="AI89" s="11">
-        <v>7301153</v>
+        <v>9134741</v>
       </c>
       <c r="AJ89" s="11">
-        <v>7740527</v>
+        <v>10667906</v>
       </c>
       <c r="AK89" s="11">
-        <v>9134741</v>
+        <v>12870147</v>
       </c>
       <c r="AL89" s="11">
-        <v>10667906</v>
+        <v>11998404</v>
       </c>
       <c r="AM89" s="11">
-        <v>12870147</v>
+        <v>11066832</v>
       </c>
       <c r="AN89" s="11">
-        <v>11998404</v>
+        <v>10957583</v>
       </c>
       <c r="AO89" s="11">
-        <v>11066832</v>
+        <v>9809818</v>
       </c>
       <c r="AP89" s="11">
-        <v>10957583</v>
+        <v>10042898</v>
       </c>
       <c r="AQ89" s="11">
-        <v>9809818</v>
+        <v>10703248</v>
       </c>
       <c r="AR89" s="11">
-        <v>10042898</v>
+        <v>8909235</v>
       </c>
       <c r="AS89" s="11">
-        <v>10703248</v>
+        <v>12337091</v>
       </c>
       <c r="AT89" s="11">
-        <v>11674013</v>
+        <v>14140668</v>
       </c>
       <c r="AU89" s="11">
-        <v>12337091</v>
+        <v>17127699</v>
       </c>
       <c r="AV89" s="11">
-        <v>14140668</v>
+        <v>16334621</v>
       </c>
       <c r="AW89" s="11">
-        <v>17127699</v>
+        <v>15457472</v>
       </c>
       <c r="AX89" s="11">
-        <v>16334621</v>
+        <v>12916863</v>
       </c>
       <c r="AY89" s="11">
-        <v>15457472</v>
+        <v>13619568</v>
       </c>
       <c r="AZ89" s="11">
-        <v>12916863</v>
+        <v>16033735</v>
       </c>
       <c r="BA89" s="11">
-        <v>13619568</v>
+        <v>15092546</v>
       </c>
       <c r="BB89" s="11">
-        <v>16033735</v>
+        <v>15581759</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>58</v>
       </c>
@@ -11833,23 +11833,23 @@
       <c r="J90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>57</v>
+      <c r="K90" s="13">
+        <v>4776002</v>
+      </c>
+      <c r="L90" s="13">
+        <v>4689511</v>
       </c>
       <c r="M90" s="13">
-        <v>4776002</v>
+        <v>0</v>
       </c>
       <c r="N90" s="13">
-        <v>4689511</v>
+        <v>4745208</v>
       </c>
       <c r="O90" s="13">
         <v>0</v>
       </c>
       <c r="P90" s="13">
-        <v>4745208</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="13">
         <v>0</v>
@@ -11860,11 +11860,11 @@
       <c r="S90" s="13">
         <v>0</v>
       </c>
-      <c r="T90" s="13">
-        <v>0</v>
-      </c>
-      <c r="U90" s="13">
-        <v>0</v>
+      <c r="T90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V90" s="13" t="s">
         <v>57</v>
@@ -11896,18 +11896,18 @@
       <c r="AE90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG90" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH90" s="13">
+      <c r="AF90" s="13">
         <v>9293015</v>
       </c>
-      <c r="AI90" s="13">
+      <c r="AG90" s="13">
         <v>9145966</v>
       </c>
+      <c r="AH90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI90" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ90" s="13" t="s">
         <v>57</v>
       </c>
@@ -11920,14 +11920,14 @@
       <c r="AM90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN90" s="13" t="s">
-        <v>57</v>
+      <c r="AN90" s="13">
+        <v>12621672</v>
       </c>
       <c r="AO90" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP90" s="13">
-        <v>12621672</v>
+      <c r="AP90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ90" s="13" t="s">
         <v>57</v>
@@ -11966,7 +11966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -12019,113 +12019,113 @@
       <c r="S91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T91" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U91" s="11" t="s">
-        <v>57</v>
+      <c r="T91" s="11">
+        <v>1767892</v>
+      </c>
+      <c r="U91" s="11">
+        <v>1735224</v>
       </c>
       <c r="V91" s="11">
-        <v>1767892</v>
+        <v>1791310</v>
       </c>
       <c r="W91" s="11">
-        <v>1735224</v>
+        <v>2115596</v>
       </c>
       <c r="X91" s="11">
-        <v>1791310</v>
+        <v>2376254</v>
       </c>
       <c r="Y91" s="11">
-        <v>2115596</v>
+        <v>2379881</v>
       </c>
       <c r="Z91" s="11">
-        <v>2376254</v>
+        <v>2419015</v>
       </c>
       <c r="AA91" s="11">
-        <v>2379881</v>
+        <v>2555618</v>
       </c>
       <c r="AB91" s="11">
-        <v>2419015</v>
+        <v>2511009</v>
       </c>
       <c r="AC91" s="11">
-        <v>2555618</v>
+        <v>2537629</v>
       </c>
       <c r="AD91" s="11">
-        <v>2511009</v>
+        <v>2506691</v>
       </c>
       <c r="AE91" s="11">
-        <v>2537629</v>
+        <v>2548149</v>
       </c>
       <c r="AF91" s="11">
-        <v>2506691</v>
+        <v>2739991</v>
       </c>
       <c r="AG91" s="11">
-        <v>2548149</v>
+        <v>3572777</v>
       </c>
       <c r="AH91" s="11">
-        <v>2739991</v>
+        <v>3551029</v>
       </c>
       <c r="AI91" s="11">
-        <v>3572777</v>
+        <v>4321022</v>
       </c>
       <c r="AJ91" s="11">
-        <v>3551029</v>
+        <v>5987882</v>
       </c>
       <c r="AK91" s="11">
-        <v>4321022</v>
+        <v>6461456</v>
       </c>
       <c r="AL91" s="11">
-        <v>5987882</v>
+        <v>4578363</v>
       </c>
       <c r="AM91" s="11">
-        <v>6461456</v>
+        <v>4450450</v>
       </c>
       <c r="AN91" s="11">
-        <v>4578363</v>
+        <v>4783579</v>
       </c>
       <c r="AO91" s="11">
-        <v>4450450</v>
+        <v>4710786</v>
       </c>
       <c r="AP91" s="11">
-        <v>4783579</v>
+        <v>4539422</v>
       </c>
       <c r="AQ91" s="11">
-        <v>4710786</v>
+        <v>5055916</v>
       </c>
       <c r="AR91" s="11">
-        <v>4539422</v>
+        <v>5013949</v>
       </c>
       <c r="AS91" s="11">
-        <v>5055916</v>
+        <v>4937644</v>
       </c>
       <c r="AT91" s="11">
-        <v>5013949</v>
+        <v>6477447</v>
       </c>
       <c r="AU91" s="11">
-        <v>4937644</v>
+        <v>8207939</v>
       </c>
       <c r="AV91" s="11">
-        <v>6477447</v>
+        <v>7647472</v>
       </c>
       <c r="AW91" s="11">
-        <v>8207939</v>
+        <v>6977087</v>
       </c>
       <c r="AX91" s="11">
-        <v>7647472</v>
+        <v>6829781</v>
       </c>
       <c r="AY91" s="11">
-        <v>6977087</v>
+        <v>6591579</v>
       </c>
       <c r="AZ91" s="11">
-        <v>6829781</v>
+        <v>6292681</v>
       </c>
       <c r="BA91" s="11">
-        <v>6591579</v>
+        <v>6167304</v>
       </c>
       <c r="BB91" s="11">
-        <v>6292681</v>
+        <v>6769265</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12142,47 +12142,47 @@
       <c r="G92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>57</v>
+      <c r="H92" s="13">
+        <v>3364820</v>
+      </c>
+      <c r="I92" s="13">
+        <v>3507736</v>
       </c>
       <c r="J92" s="13">
-        <v>3364820</v>
+        <v>3531816</v>
       </c>
       <c r="K92" s="13">
-        <v>3507736</v>
+        <v>3196453</v>
       </c>
       <c r="L92" s="13">
-        <v>3531816</v>
+        <v>3837942</v>
       </c>
       <c r="M92" s="13">
-        <v>3196453</v>
+        <v>3818754</v>
       </c>
       <c r="N92" s="13">
-        <v>3837942</v>
+        <v>3706122</v>
       </c>
       <c r="O92" s="13">
-        <v>3818754</v>
+        <v>3667479</v>
       </c>
       <c r="P92" s="13">
-        <v>3706122</v>
+        <v>3667238</v>
       </c>
       <c r="Q92" s="13">
-        <v>3667479</v>
+        <v>3666667</v>
       </c>
       <c r="R92" s="13">
-        <v>3667238</v>
+        <v>3665831</v>
       </c>
       <c r="S92" s="13">
         <v>3666667</v>
       </c>
-      <c r="T92" s="13">
-        <v>3665831</v>
-      </c>
-      <c r="U92" s="13">
-        <v>3666667</v>
+      <c r="T92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V92" s="13" t="s">
         <v>57</v>
@@ -12284,7 +12284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12301,48 +12301,48 @@
       <c r="G93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>57</v>
+      <c r="H93" s="11">
+        <v>3064434</v>
+      </c>
+      <c r="I93" s="11">
+        <v>3069196</v>
       </c>
       <c r="J93" s="11">
-        <v>3064434</v>
+        <v>3071385</v>
       </c>
       <c r="K93" s="11">
-        <v>3069196</v>
+        <v>3216993</v>
       </c>
       <c r="L93" s="11">
-        <v>3071385</v>
+        <v>3851716</v>
       </c>
       <c r="M93" s="11">
-        <v>3216993</v>
+        <v>3963905</v>
       </c>
       <c r="N93" s="11">
-        <v>3851716</v>
+        <v>3811372</v>
       </c>
       <c r="O93" s="11">
-        <v>3963905</v>
+        <v>3768233</v>
       </c>
       <c r="P93" s="11">
-        <v>3811372</v>
+        <v>3755878</v>
       </c>
       <c r="Q93" s="11">
-        <v>3768233</v>
+        <v>3772981</v>
       </c>
       <c r="R93" s="11">
-        <v>3755878</v>
+        <v>3764635</v>
       </c>
       <c r="S93" s="11">
-        <v>3772981</v>
-      </c>
-      <c r="T93" s="11">
-        <v>3764635</v>
-      </c>
-      <c r="U93" s="11">
         <v>3772458</v>
       </c>
+      <c r="T93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V93" s="11" t="s">
         <v>57</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12460,48 +12460,48 @@
       <c r="G94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>57</v>
+      <c r="H94" s="13">
+        <v>3415222</v>
+      </c>
+      <c r="I94" s="13">
+        <v>3037993</v>
       </c>
       <c r="J94" s="13">
-        <v>3415222</v>
+        <v>2602592</v>
       </c>
       <c r="K94" s="13">
-        <v>3037993</v>
+        <v>2599727</v>
       </c>
       <c r="L94" s="13">
-        <v>2602592</v>
+        <v>3303106</v>
       </c>
       <c r="M94" s="13">
-        <v>2599727</v>
+        <v>3501388</v>
       </c>
       <c r="N94" s="13">
-        <v>3303106</v>
+        <v>3501031</v>
       </c>
       <c r="O94" s="13">
-        <v>3501388</v>
+        <v>3501006</v>
       </c>
       <c r="P94" s="13">
-        <v>3501031</v>
+        <v>3499147</v>
       </c>
       <c r="Q94" s="13">
-        <v>3501006</v>
+        <v>3501478</v>
       </c>
       <c r="R94" s="13">
-        <v>3499147</v>
+        <v>3496743</v>
       </c>
       <c r="S94" s="13">
-        <v>3501478</v>
-      </c>
-      <c r="T94" s="13">
-        <v>3496743</v>
-      </c>
-      <c r="U94" s="13">
         <v>3502045</v>
       </c>
+      <c r="T94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U94" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V94" s="13" t="s">
         <v>57</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12658,14 +12658,14 @@
       <c r="T95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U95" s="11" t="s">
-        <v>57</v>
+      <c r="U95" s="11">
+        <v>5066667</v>
       </c>
       <c r="V95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W95" s="11">
-        <v>5066667</v>
+      <c r="W95" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X95" s="11" t="s">
         <v>57</v>
@@ -12679,14 +12679,14 @@
       <c r="AA95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB95" s="11" t="s">
-        <v>57</v>
+      <c r="AB95" s="11">
+        <v>9353791</v>
       </c>
       <c r="AC95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD95" s="11">
-        <v>9353791</v>
+      <c r="AD95" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE95" s="11" t="s">
         <v>57</v>
@@ -12721,15 +12721,15 @@
       <c r="AO95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ95" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR95" s="11">
+      <c r="AP95" s="11">
         <v>11061348</v>
       </c>
+      <c r="AQ95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS95" s="11" t="s">
         <v>57</v>
       </c>
@@ -12754,14 +12754,14 @@
       <c r="AZ95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA95" s="11" t="s">
-        <v>57</v>
+      <c r="BA95" s="11">
+        <v>16120988</v>
       </c>
       <c r="BB95" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>64</v>
       </c>
@@ -12778,84 +12778,84 @@
       <c r="G96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>57</v>
+      <c r="H96" s="13">
+        <v>2949833</v>
+      </c>
+      <c r="I96" s="13">
+        <v>0</v>
       </c>
       <c r="J96" s="13">
-        <v>2949833</v>
+        <v>0</v>
       </c>
       <c r="K96" s="13">
-        <v>0</v>
+        <v>4478519</v>
       </c>
       <c r="L96" s="13">
-        <v>0</v>
+        <v>4389592</v>
       </c>
       <c r="M96" s="13">
-        <v>4478519</v>
+        <v>4046969</v>
       </c>
       <c r="N96" s="13">
-        <v>4389592</v>
+        <v>4285527</v>
       </c>
       <c r="O96" s="13">
-        <v>4046969</v>
+        <v>4056969</v>
       </c>
       <c r="P96" s="13">
-        <v>4285527</v>
+        <v>3972470</v>
       </c>
       <c r="Q96" s="13">
-        <v>4056969</v>
+        <v>4492236</v>
       </c>
       <c r="R96" s="13">
-        <v>3972470</v>
+        <v>4855150</v>
       </c>
       <c r="S96" s="13">
-        <v>4492236</v>
-      </c>
-      <c r="T96" s="13">
-        <v>4855150</v>
-      </c>
-      <c r="U96" s="13">
         <v>5789550</v>
       </c>
+      <c r="T96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U96" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X96" s="13" t="s">
-        <v>57</v>
+      <c r="W96" s="13">
+        <v>7893384</v>
+      </c>
+      <c r="X96" s="13">
+        <v>9107957</v>
       </c>
       <c r="Y96" s="13">
-        <v>7893384</v>
+        <v>9444525</v>
       </c>
       <c r="Z96" s="13">
-        <v>9107957</v>
+        <v>10889351</v>
       </c>
       <c r="AA96" s="13">
-        <v>9444525</v>
+        <v>11407293</v>
       </c>
       <c r="AB96" s="13">
-        <v>10889351</v>
+        <v>11452422</v>
       </c>
       <c r="AC96" s="13">
-        <v>11407293</v>
+        <v>10758008</v>
       </c>
       <c r="AD96" s="13">
-        <v>11452422</v>
+        <v>10287172</v>
       </c>
       <c r="AE96" s="13">
-        <v>10758008</v>
-      </c>
-      <c r="AF96" s="13">
-        <v>10287172</v>
-      </c>
-      <c r="AG96" s="13">
         <v>10188773</v>
       </c>
+      <c r="AF96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG96" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH96" s="13" t="s">
         <v>57</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>65</v>
       </c>
@@ -12949,36 +12949,36 @@
       <c r="K97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>57</v>
+      <c r="L97" s="11">
+        <v>4241632</v>
+      </c>
+      <c r="M97" s="11">
+        <v>0</v>
       </c>
       <c r="N97" s="11">
-        <v>4241632</v>
+        <v>3110000</v>
       </c>
       <c r="O97" s="11">
         <v>0</v>
       </c>
       <c r="P97" s="11">
-        <v>3110000</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="11">
         <v>0</v>
       </c>
       <c r="R97" s="11">
-        <v>0</v>
+        <v>3585034</v>
       </c>
       <c r="S97" s="11">
-        <v>0</v>
-      </c>
-      <c r="T97" s="11">
-        <v>3585034</v>
-      </c>
-      <c r="U97" s="11">
         <v>3786802</v>
       </c>
+      <c r="T97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U97" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V97" s="11" t="s">
         <v>57</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>66</v>
       </c>
@@ -13132,48 +13132,48 @@
       <c r="S98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U98" s="13" t="s">
-        <v>57</v>
+      <c r="T98" s="13">
+        <v>2444436</v>
+      </c>
+      <c r="U98" s="13">
+        <v>2438771</v>
       </c>
       <c r="V98" s="13">
-        <v>2444436</v>
+        <v>2731484</v>
       </c>
       <c r="W98" s="13">
-        <v>2438771</v>
+        <v>2996309</v>
       </c>
       <c r="X98" s="13">
-        <v>2731484</v>
-      </c>
-      <c r="Y98" s="13">
-        <v>2996309</v>
-      </c>
-      <c r="Z98" s="13">
         <v>3566860</v>
       </c>
-      <c r="AA98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB98" s="13" t="s">
-        <v>57</v>
+      <c r="Y98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA98" s="13">
+        <v>4249388</v>
+      </c>
+      <c r="AB98" s="13">
+        <v>4255247</v>
       </c>
       <c r="AC98" s="13">
-        <v>4249388</v>
+        <v>4390566</v>
       </c>
       <c r="AD98" s="13">
-        <v>4255247</v>
+        <v>4233075</v>
       </c>
       <c r="AE98" s="13">
-        <v>4390566</v>
-      </c>
-      <c r="AF98" s="13">
-        <v>4233075</v>
-      </c>
-      <c r="AG98" s="13">
         <v>4375458</v>
       </c>
+      <c r="AF98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG98" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH98" s="13" t="s">
         <v>57</v>
       </c>
@@ -13201,11 +13201,11 @@
       <c r="AP98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ98" s="13">
-        <v>27</v>
-      </c>
-      <c r="AR98" s="13">
-        <v>0</v>
+      <c r="AQ98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR98" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS98" s="13" t="s">
         <v>57</v>
@@ -13219,26 +13219,26 @@
       <c r="AV98" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW98" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX98" s="13" t="s">
-        <v>57</v>
+      <c r="AW98" s="13">
+        <v>8294526</v>
+      </c>
+      <c r="AX98" s="13">
+        <v>8294940</v>
       </c>
       <c r="AY98" s="13">
-        <v>8294526</v>
+        <v>8328632</v>
       </c>
       <c r="AZ98" s="13">
-        <v>8294940</v>
+        <v>8453457</v>
       </c>
       <c r="BA98" s="13">
-        <v>8328632</v>
+        <v>7077358</v>
       </c>
       <c r="BB98" s="13">
-        <v>8453457</v>
+        <v>7056437</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>67</v>
       </c>
@@ -13255,17 +13255,17 @@
       <c r="G99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>57</v>
+      <c r="H99" s="11">
+        <v>1810841</v>
+      </c>
+      <c r="I99" s="11">
+        <v>2178115</v>
       </c>
       <c r="J99" s="11">
-        <v>1810841</v>
+        <v>0</v>
       </c>
       <c r="K99" s="11">
-        <v>2178115</v>
+        <v>0</v>
       </c>
       <c r="L99" s="11">
         <v>0</v>
@@ -13280,23 +13280,23 @@
         <v>0</v>
       </c>
       <c r="P99" s="11">
-        <v>0</v>
+        <v>1898876</v>
       </c>
       <c r="Q99" s="11">
-        <v>0</v>
+        <v>1986309</v>
       </c>
       <c r="R99" s="11">
-        <v>1898876</v>
+        <v>2181401</v>
       </c>
       <c r="S99" s="11">
-        <v>1986309</v>
-      </c>
-      <c r="T99" s="11">
-        <v>2181401</v>
-      </c>
-      <c r="U99" s="11">
         <v>2305849</v>
       </c>
+      <c r="T99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V99" s="11" t="s">
         <v>57</v>
       </c>
@@ -13327,18 +13327,18 @@
       <c r="AE99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH99" s="11">
+      <c r="AF99" s="11">
         <v>4383160</v>
       </c>
-      <c r="AI99" s="11">
+      <c r="AG99" s="11">
         <v>4425223</v>
       </c>
+      <c r="AH99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ99" s="11" t="s">
         <v>57</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>68</v>
       </c>
@@ -13450,21 +13450,21 @@
       <c r="S100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U100" s="13" t="s">
-        <v>57</v>
+      <c r="T100" s="13">
+        <v>6794945</v>
+      </c>
+      <c r="U100" s="13">
+        <v>6974130</v>
       </c>
       <c r="V100" s="13">
-        <v>6794945</v>
-      </c>
-      <c r="W100" s="13">
-        <v>6974130</v>
-      </c>
-      <c r="X100" s="13">
         <v>7960963</v>
       </c>
+      <c r="W100" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X100" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y100" s="13" t="s">
         <v>57</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>69</v>
       </c>
@@ -13573,48 +13573,48 @@
       <c r="G101" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>57</v>
+      <c r="H101" s="11">
+        <v>1407448</v>
+      </c>
+      <c r="I101" s="11">
+        <v>1445857</v>
       </c>
       <c r="J101" s="11">
-        <v>1407448</v>
+        <v>1520777</v>
       </c>
       <c r="K101" s="11">
-        <v>1445857</v>
+        <v>1841835</v>
       </c>
       <c r="L101" s="11">
-        <v>1520777</v>
+        <v>2016067</v>
       </c>
       <c r="M101" s="11">
-        <v>1841835</v>
+        <v>1979507</v>
       </c>
       <c r="N101" s="11">
-        <v>2016067</v>
+        <v>1972042</v>
       </c>
       <c r="O101" s="11">
-        <v>1979507</v>
+        <v>1979650</v>
       </c>
       <c r="P101" s="11">
-        <v>1972042</v>
+        <v>1977530</v>
       </c>
       <c r="Q101" s="11">
-        <v>1979650</v>
+        <v>1983320</v>
       </c>
       <c r="R101" s="11">
-        <v>1977530</v>
+        <v>1925449</v>
       </c>
       <c r="S101" s="11">
-        <v>1983320</v>
-      </c>
-      <c r="T101" s="11">
-        <v>1925449</v>
-      </c>
-      <c r="U101" s="11">
         <v>1924839</v>
       </c>
+      <c r="T101" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U101" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V101" s="11" t="s">
         <v>57</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>70</v>
       </c>
@@ -13732,48 +13732,48 @@
       <c r="G102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H102" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>57</v>
+      <c r="H102" s="13">
+        <v>1071533</v>
+      </c>
+      <c r="I102" s="13">
+        <v>1110644</v>
       </c>
       <c r="J102" s="13">
-        <v>1071533</v>
+        <v>1157044</v>
       </c>
       <c r="K102" s="13">
-        <v>1110644</v>
+        <v>1481076</v>
       </c>
       <c r="L102" s="13">
-        <v>1157044</v>
+        <v>1636316</v>
       </c>
       <c r="M102" s="13">
-        <v>1481076</v>
+        <v>1667300</v>
       </c>
       <c r="N102" s="13">
-        <v>1636316</v>
+        <v>1665458</v>
       </c>
       <c r="O102" s="13">
-        <v>1667300</v>
+        <v>1627992</v>
       </c>
       <c r="P102" s="13">
-        <v>1665458</v>
+        <v>1616187</v>
       </c>
       <c r="Q102" s="13">
-        <v>1627992</v>
+        <v>1625613</v>
       </c>
       <c r="R102" s="13">
-        <v>1616187</v>
+        <v>1587054</v>
       </c>
       <c r="S102" s="13">
-        <v>1625613</v>
-      </c>
-      <c r="T102" s="13">
-        <v>1587054</v>
-      </c>
-      <c r="U102" s="13">
         <v>1580018</v>
       </c>
+      <c r="T102" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U102" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V102" s="13" t="s">
         <v>57</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>71</v>
       </c>
@@ -13891,47 +13891,47 @@
       <c r="G103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>57</v>
+      <c r="H103" s="11">
+        <v>2963196</v>
+      </c>
+      <c r="I103" s="11">
+        <v>2967176</v>
       </c>
       <c r="J103" s="11">
-        <v>2963196</v>
+        <v>2971338</v>
       </c>
       <c r="K103" s="11">
-        <v>2967176</v>
+        <v>3106055</v>
       </c>
       <c r="L103" s="11">
-        <v>2971338</v>
+        <v>3879682</v>
       </c>
       <c r="M103" s="11">
-        <v>3106055</v>
+        <v>3880000</v>
       </c>
       <c r="N103" s="11">
-        <v>3879682</v>
+        <v>3739989</v>
       </c>
       <c r="O103" s="11">
-        <v>3880000</v>
+        <v>3707050</v>
       </c>
       <c r="P103" s="11">
-        <v>3739989</v>
+        <v>3704210</v>
       </c>
       <c r="Q103" s="11">
-        <v>3707050</v>
+        <v>3700882</v>
       </c>
       <c r="R103" s="11">
-        <v>3704210</v>
+        <v>3696098</v>
       </c>
       <c r="S103" s="11">
-        <v>3700882</v>
-      </c>
-      <c r="T103" s="11">
-        <v>3696098</v>
-      </c>
-      <c r="U103" s="11">
         <v>3702091</v>
+      </c>
+      <c r="T103" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U103" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V103" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/save/product/monthly.xlsx
+++ b/database/industries/siman/save/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64CCC3-EBAC-441A-A6D9-DA7046C31AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +478,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -491,7 +490,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -538,23 +537,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,23 +572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/product/monthly.xlsx
+++ b/database/industries/siman/save/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3365,116 +3365,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>10811</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>10811</v>
+        <v>18794</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>18794</v>
+        <v>18411</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>18411</v>
+        <v>19140</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>19140</v>
+        <v>21491</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>21491</v>
+        <v>24349</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>24349</v>
+        <v>21132</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>21132</v>
+        <v>25077</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>25077</v>
+        <v>22587</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>22587</v>
+        <v>17553</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>17553</v>
+        <v>21317</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>21317</v>
+        <v>19837</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>19837</v>
+        <v>22013</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>22013</v>
+        <v>36027</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>36027</v>
+        <v>32441</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>32441</v>
+        <v>20865</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>20865</v>
+        <v>14540</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>14540</v>
+        <v>26840</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>26840</v>
+        <v>27137</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>27137</v>
+        <v>24983</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>24983</v>
+        <v>28390</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>28390</v>
+        <v>24741</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>24741</v>
+        <v>24208</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>24208</v>
+        <v>25186</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>25186</v>
+        <v>21237</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>21237</v>
+        <v>23700</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>23700</v>
+        <v>30303</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>30303</v>
+        <v>24063</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>24063</v>
+        <v>27116</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>27116</v>
+        <v>36332</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>36332</v>
+        <v>27299</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>27299</v>
+        <v>29673</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>29673</v>
+        <v>26703</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>26703</v>
+        <v>26410</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>26410</v>
+        <v>26753</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>26753</v>
+        <v>28595</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>28595</v>
+        <v>27719</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,20 +3497,20 @@
       <c r="H12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>57</v>
+      <c r="I12" s="16" t="n">
+        <v>6634</v>
       </c>
       <c r="J12" s="16" t="n">
-        <v>6634</v>
+        <v>3356</v>
       </c>
       <c r="K12" s="16" t="n">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>0</v>
+        <v>10016</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="N12" s="16" t="n">
         <v>0</v>
@@ -3524,8 +3524,8 @@
       <c r="Q12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="16" t="n">
-        <v>0</v>
+      <c r="R12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S12" s="16" t="s">
         <v>57</v>
@@ -3560,38 +3560,38 @@
       <c r="AC12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>57</v>
+      <c r="AD12" s="16" t="n">
+        <v>587</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>0</v>
+        <v>6256</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>6256</v>
+        <v>27260</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>27260</v>
+        <v>186337</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>186337</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>0</v>
+        <v>27547</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>27547</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AO12" s="16" t="s">
         <v>57</v>
@@ -3683,116 +3683,116 @@
       <c r="Q13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>57</v>
+      <c r="R13" s="13" t="n">
+        <v>88475</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>88475</v>
+        <v>207400</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>207400</v>
+        <v>167344</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>167344</v>
+        <v>164554</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>164554</v>
+        <v>171058</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>171058</v>
+        <v>153965</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>153965</v>
+        <v>153154</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>153154</v>
+        <v>209383</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>209383</v>
+        <v>140423</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>140423</v>
+        <v>114098</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>114098</v>
+        <v>132416</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>132416</v>
+        <v>130950</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>130950</v>
+        <v>90395</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>90395</v>
+        <v>139873</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>139873</v>
+        <v>147886</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>147886</v>
+        <v>107423</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>107423</v>
+        <v>106479</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>106479</v>
+        <v>140821</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>140821</v>
+        <v>173714</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>173714</v>
+        <v>158509</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>158509</v>
+        <v>172269</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>172269</v>
+        <v>140373</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>140373</v>
+        <v>151743</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>151743</v>
+        <v>172665</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>172665</v>
+        <v>122380</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>122380</v>
+        <v>155063</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>155063</v>
+        <v>161625</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>161625</v>
+        <v>134480</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>134480</v>
+        <v>115271</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>115271</v>
+        <v>181458</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>181458</v>
+        <v>163674</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>163674</v>
+        <v>170203</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>170203</v>
+        <v>196591</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>196591</v>
+        <v>212753</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>212753</v>
+        <v>175818</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>175818</v>
+        <v>184859</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>184859</v>
+        <v>128984</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,44 +3806,44 @@
       <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>57</v>
+      <c r="F14" s="16" t="n">
+        <v>5685</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>5685</v>
+        <v>11504</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>11504</v>
+        <v>6679</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>6679</v>
+        <v>2932</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>2932</v>
+        <v>1808</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>1808</v>
+        <v>1749</v>
       </c>
       <c r="L14" s="16" t="n">
+        <v>1715</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>1642</v>
+      </c>
+      <c r="N14" s="16" t="n">
         <v>1749</v>
       </c>
-      <c r="M14" s="16" t="n">
-        <v>1715</v>
-      </c>
-      <c r="N14" s="16" t="n">
-        <v>1642</v>
-      </c>
       <c r="O14" s="16" t="n">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>1743</v>
+        <v>1595</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>1595</v>
-      </c>
-      <c r="R14" s="16" t="n">
         <v>1854</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -3965,44 +3965,44 @@
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>57</v>
+      <c r="F15" s="13" t="n">
+        <v>3523</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>3523</v>
+        <v>6879</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>6879</v>
+        <v>6584</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>6584</v>
+        <v>8180</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>8180</v>
+        <v>7371</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>7371</v>
+        <v>6289</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>6289</v>
+        <v>6929</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>6929</v>
+        <v>8188</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>8188</v>
+        <v>5660</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>5660</v>
+        <v>7158</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>7158</v>
+        <v>6645</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>6645</v>
-      </c>
-      <c r="R15" s="13" t="n">
         <v>8438</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>57</v>
@@ -4124,44 +4124,44 @@
       <c r="E16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>57</v>
+      <c r="F16" s="16" t="n">
+        <v>1275</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>1275</v>
+        <v>1714</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>1714</v>
+        <v>1903</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>1903</v>
+        <v>467</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>467</v>
+        <v>1155</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>1155</v>
+        <v>246</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>246</v>
+        <v>1167</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>1167</v>
+        <v>2298</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>2298</v>
+        <v>0</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>1522</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="R16" s="16" t="n">
         <v>852</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>57</v>
@@ -4322,11 +4322,11 @@
       <c r="R17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="13" t="s">
-        <v>57</v>
+      <c r="S17" s="13" t="n">
+        <v>15</v>
       </c>
       <c r="T17" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U17" s="13" t="n">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="13" t="n">
         <v>0</v>
@@ -4355,8 +4355,8 @@
       <c r="AC17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>0</v>
+      <c r="AD17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>57</v>
@@ -4385,50 +4385,50 @@
       <c r="AM17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN17" s="13" t="s">
-        <v>57</v>
+      <c r="AN17" s="13" t="n">
+        <v>14611</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>14611</v>
+        <v>26662</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>26662</v>
+        <v>27314</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>27314</v>
+        <v>25799</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>25799</v>
+        <v>25645</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>25645</v>
+        <v>25273</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>25273</v>
+        <v>25919</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>25919</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>0</v>
+        <v>24644</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>24644</v>
+        <v>24490</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>24490</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>0</v>
+        <v>26426</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>26426</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB17" s="13" t="n">
-        <v>0</v>
+      <c r="BB17" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,80 +4442,80 @@
       <c r="E18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>57</v>
+      <c r="F18" s="16" t="n">
+        <v>299</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="H18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>3375</v>
+        <v>4900</v>
       </c>
       <c r="K18" s="16" t="n">
-        <v>4900</v>
+        <v>4173</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>4173</v>
+        <v>4588</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>4588</v>
+        <v>6723</v>
       </c>
       <c r="N18" s="16" t="n">
-        <v>6723</v>
+        <v>4032</v>
       </c>
       <c r="O18" s="16" t="n">
-        <v>4032</v>
+        <v>3413</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>3413</v>
+        <v>5951</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>5951</v>
-      </c>
-      <c r="R18" s="16" t="n">
         <v>4115</v>
       </c>
+      <c r="R18" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S18" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>57</v>
+      <c r="U18" s="16" t="n">
+        <v>5759</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>5488</v>
-      </c>
-      <c r="AD18" s="16" t="n">
         <v>7856</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE18" s="16" t="s">
         <v>57</v>
@@ -4613,17 +4613,17 @@
       <c r="I19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>57</v>
+      <c r="J19" s="13" t="n">
+        <v>956</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N19" s="13" t="n">
         <v>0</v>
@@ -4632,13 +4632,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="13" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="13" t="n">
-        <v>294</v>
-      </c>
-      <c r="R19" s="13" t="n">
         <v>197</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S19" s="13" t="s">
         <v>57</v>
@@ -4796,45 +4796,45 @@
       <c r="Q20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="16" t="s">
-        <v>57</v>
+      <c r="R20" s="16" t="n">
+        <v>26375</v>
       </c>
       <c r="S20" s="16" t="n">
-        <v>26375</v>
+        <v>78925</v>
       </c>
       <c r="T20" s="16" t="n">
-        <v>78925</v>
+        <v>62365</v>
       </c>
       <c r="U20" s="16" t="n">
-        <v>62365</v>
+        <v>38739</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="X20" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>62289</v>
-      </c>
-      <c r="AD20" s="16" t="n">
         <v>20479</v>
       </c>
+      <c r="AD20" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE20" s="16" t="s">
         <v>57</v>
       </c>
@@ -4862,50 +4862,50 @@
       <c r="AM20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AN20" s="16" t="s">
-        <v>57</v>
+      <c r="AN20" s="16" t="n">
+        <v>110564</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>110564</v>
+        <v>169974</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>169974</v>
+        <v>192555</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>192555</v>
+        <v>169077</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>169077</v>
+        <v>140508</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>140508</v>
+        <v>180806</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>180806</v>
+        <v>219813</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>219813</v>
+        <v>204773</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>204773</v>
+        <v>136083</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>136083</v>
+        <v>198340</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>198340</v>
+        <v>202659</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>202659</v>
+        <v>202465</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>202465</v>
+        <v>72683</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>72683</v>
+        <v>30062</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>30062</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,14 +4919,14 @@
       <c r="E21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>57</v>
+      <c r="F21" s="13" t="n">
+        <v>21814</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>21814</v>
+        <v>72296</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13" t="n">
         <v>0</v>
@@ -4944,20 +4944,20 @@
         <v>0</v>
       </c>
       <c r="N21" s="13" t="n">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="O21" s="13" t="n">
-        <v>1513</v>
+        <v>43021</v>
       </c>
       <c r="P21" s="13" t="n">
-        <v>43021</v>
+        <v>47679</v>
       </c>
       <c r="Q21" s="13" t="n">
-        <v>47679</v>
-      </c>
-      <c r="R21" s="13" t="n">
         <v>13935</v>
       </c>
+      <c r="R21" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S21" s="13" t="s">
         <v>57</v>
       </c>
@@ -4991,29 +4991,29 @@
       <c r="AC21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>57</v>
+      <c r="AD21" s="13" t="n">
+        <v>40166</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>40166</v>
+        <v>157376</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>157376</v>
+        <v>157438</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>157438</v>
+        <v>80965</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>80965</v>
+        <v>54772</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>54772</v>
+        <v>131461</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>131461</v>
+        <v>24750</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>24750</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="13" t="n">
         <v>0</v>
@@ -5021,8 +5021,8 @@
       <c r="AM21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="13" t="n">
-        <v>0</v>
+      <c r="AN21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO21" s="13" t="s">
         <v>57</v>
@@ -5114,17 +5114,17 @@
       <c r="Q22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R22" s="16" t="s">
-        <v>57</v>
+      <c r="R22" s="16" t="n">
+        <v>2809</v>
       </c>
       <c r="S22" s="16" t="n">
-        <v>2809</v>
+        <v>7731</v>
       </c>
       <c r="T22" s="16" t="n">
-        <v>7731</v>
-      </c>
-      <c r="U22" s="16" t="n">
         <v>6481</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V22" s="16" t="s">
         <v>57</v>
@@ -5237,44 +5237,44 @@
       <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>57</v>
+      <c r="F23" s="13" t="n">
+        <v>37109</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>37109</v>
+        <v>66084</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>66084</v>
+        <v>54027</v>
       </c>
       <c r="I23" s="13" t="n">
-        <v>54027</v>
+        <v>56030</v>
       </c>
       <c r="J23" s="13" t="n">
-        <v>56030</v>
+        <v>48485</v>
       </c>
       <c r="K23" s="13" t="n">
-        <v>48485</v>
+        <v>53334</v>
       </c>
       <c r="L23" s="13" t="n">
-        <v>53334</v>
+        <v>62021</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>62021</v>
+        <v>48501</v>
       </c>
       <c r="N23" s="13" t="n">
-        <v>48501</v>
+        <v>48465</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>48465</v>
+        <v>39927</v>
       </c>
       <c r="P23" s="13" t="n">
-        <v>39927</v>
+        <v>43232</v>
       </c>
       <c r="Q23" s="13" t="n">
-        <v>43232</v>
-      </c>
-      <c r="R23" s="13" t="n">
         <v>59472</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S23" s="13" t="s">
         <v>57</v>
@@ -5396,44 +5396,44 @@
       <c r="E24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>57</v>
+      <c r="F24" s="16" t="n">
+        <v>42582</v>
       </c>
       <c r="G24" s="16" t="n">
-        <v>42582</v>
+        <v>73964</v>
       </c>
       <c r="H24" s="16" t="n">
-        <v>73964</v>
+        <v>89431</v>
       </c>
       <c r="I24" s="16" t="n">
-        <v>89431</v>
+        <v>81111</v>
       </c>
       <c r="J24" s="16" t="n">
-        <v>81111</v>
+        <v>74418</v>
       </c>
       <c r="K24" s="16" t="n">
-        <v>74418</v>
+        <v>76297</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>76297</v>
+        <v>73978</v>
       </c>
       <c r="M24" s="16" t="n">
-        <v>73978</v>
+        <v>77698</v>
       </c>
       <c r="N24" s="16" t="n">
-        <v>77698</v>
+        <v>82921</v>
       </c>
       <c r="O24" s="16" t="n">
-        <v>82921</v>
+        <v>88860</v>
       </c>
       <c r="P24" s="16" t="n">
-        <v>88860</v>
+        <v>74198</v>
       </c>
       <c r="Q24" s="16" t="n">
-        <v>74198</v>
-      </c>
-      <c r="R24" s="16" t="n">
         <v>80042</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S24" s="16" t="s">
         <v>57</v>
@@ -5555,44 +5555,44 @@
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>57</v>
+      <c r="F25" s="13" t="n">
+        <v>3342</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>3342</v>
+        <v>7464</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>7464</v>
+        <v>6943</v>
       </c>
       <c r="I25" s="13" t="n">
-        <v>6943</v>
+        <v>8109</v>
       </c>
       <c r="J25" s="13" t="n">
-        <v>8109</v>
+        <v>6167</v>
       </c>
       <c r="K25" s="13" t="n">
-        <v>6167</v>
+        <v>5450</v>
       </c>
       <c r="L25" s="13" t="n">
-        <v>5450</v>
+        <v>5619</v>
       </c>
       <c r="M25" s="13" t="n">
-        <v>5619</v>
+        <v>5489</v>
       </c>
       <c r="N25" s="13" t="n">
-        <v>5489</v>
+        <v>5558</v>
       </c>
       <c r="O25" s="13" t="n">
-        <v>5558</v>
+        <v>5329</v>
       </c>
       <c r="P25" s="13" t="n">
-        <v>5329</v>
+        <v>4485</v>
       </c>
       <c r="Q25" s="13" t="n">
-        <v>4485</v>
-      </c>
-      <c r="R25" s="13" t="n">
         <v>6314</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S25" s="13" t="s">
         <v>57</v>
@@ -5814,8 +5814,8 @@
       <c r="T27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="20" t="s">
-        <v>57</v>
+      <c r="U27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="20" t="n">
         <v>0</v>
@@ -5927,151 +5927,151 @@
         <v>0</v>
       </c>
       <c r="F28" s="22" t="n">
-        <v>0</v>
+        <v>115629</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>115629</v>
+        <v>239905</v>
       </c>
       <c r="H28" s="22" t="n">
-        <v>239905</v>
+        <v>165567</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>165567</v>
+        <v>166838</v>
       </c>
       <c r="J28" s="22" t="n">
-        <v>166838</v>
+        <v>148616</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>148616</v>
+        <v>147538</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>147538</v>
+        <v>166533</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>166533</v>
+        <v>150539</v>
       </c>
       <c r="N28" s="22" t="n">
-        <v>150539</v>
+        <v>149898</v>
       </c>
       <c r="O28" s="22" t="n">
-        <v>149898</v>
+        <v>190973</v>
       </c>
       <c r="P28" s="22" t="n">
-        <v>190973</v>
+        <v>184118</v>
       </c>
       <c r="Q28" s="22" t="n">
-        <v>184118</v>
+        <v>175219</v>
       </c>
       <c r="R28" s="22" t="n">
-        <v>175219</v>
+        <v>128470</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>128470</v>
+        <v>312865</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>312865</v>
+        <v>254601</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>254601</v>
+        <v>228192</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>228192</v>
+        <v>214781</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>214781</v>
+        <v>182460</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>182460</v>
+        <v>180061</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>180061</v>
+        <v>250269</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>250269</v>
+        <v>205481</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>205481</v>
+        <v>204748</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>204748</v>
+        <v>221510</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>221510</v>
+        <v>179122</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>179122</v>
+        <v>153161</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>153161</v>
+        <v>337688</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>337688</v>
+        <v>337765</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>337765</v>
+        <v>209253</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>209253</v>
+        <v>182047</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>182047</v>
+        <v>326382</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>326382</v>
+        <v>411938</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>411938</v>
+        <v>183492</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>183492</v>
+        <v>228206</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>228206</v>
+        <v>165114</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>165114</v>
+        <v>301126</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>301126</v>
+        <v>394487</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>394487</v>
+        <v>363486</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>363486</v>
+        <v>373639</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>373639</v>
+        <v>358081</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>358081</v>
+        <v>364622</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>364622</v>
+        <v>388119</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>388119</v>
+        <v>422563</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>422563</v>
+        <v>351700</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>351700</v>
+        <v>422706</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>422706</v>
+        <v>425953</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>425953</v>
+        <v>468054</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>468054</v>
+        <v>275254</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>275254</v>
+        <v>243516</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>243516</v>
+        <v>172346</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,116 +6555,116 @@
       <c r="Q35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>57</v>
+      <c r="R35" s="13" t="n">
+        <v>10680</v>
       </c>
       <c r="S35" s="13" t="n">
-        <v>10680</v>
+        <v>20560</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>20560</v>
+        <v>16951</v>
       </c>
       <c r="U35" s="13" t="n">
-        <v>16951</v>
+        <v>20143</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>20143</v>
+        <v>22386</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>22386</v>
+        <v>24346</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>24346</v>
+        <v>20598</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>20598</v>
+        <v>23029</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>23029</v>
+        <v>25439</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>25439</v>
+        <v>16218</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>16218</v>
+        <v>21107</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>21107</v>
+        <v>19146</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>19146</v>
+        <v>23062</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>23062</v>
+        <v>30101</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>30101</v>
+        <v>28292</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>28292</v>
+        <v>18260</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>18260</v>
+        <v>13990</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>13990</v>
+        <v>17715</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>17715</v>
+        <v>22284</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>22284</v>
+        <v>27801</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>27801</v>
+        <v>28488</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>28488</v>
+        <v>24261</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>24261</v>
+        <v>22915</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>22915</v>
+        <v>25213</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>25213</v>
+        <v>26445</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>26445</v>
+        <v>24083</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>24083</v>
+        <v>31393</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>31393</v>
+        <v>22787</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>22787</v>
+        <v>29511</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>29511</v>
+        <v>30968</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>30968</v>
+        <v>33090</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>33090</v>
+        <v>35026</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>35026</v>
+        <v>25256</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>25256</v>
+        <v>26819</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>26819</v>
+        <v>25930</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>25930</v>
+        <v>29583</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>29583</v>
+        <v>29467</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,20 +6687,20 @@
       <c r="H36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>57</v>
+      <c r="I36" s="16" t="n">
+        <v>6634</v>
       </c>
       <c r="J36" s="16" t="n">
-        <v>6634</v>
+        <v>3356</v>
       </c>
       <c r="K36" s="16" t="n">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>0</v>
+        <v>10016</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>10016</v>
+        <v>0</v>
       </c>
       <c r="N36" s="16" t="n">
         <v>0</v>
@@ -6714,8 +6714,8 @@
       <c r="Q36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="16" t="n">
-        <v>0</v>
+      <c r="R36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>57</v>
@@ -6750,14 +6750,14 @@
       <c r="AC36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD36" s="16" t="s">
-        <v>57</v>
+      <c r="AD36" s="16" t="n">
+        <v>587</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>587</v>
+        <v>4412</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>4412</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="16" t="n">
         <v>0</v>
@@ -6775,13 +6775,13 @@
         <v>0</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>1118</v>
-      </c>
-      <c r="AN36" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AO36" s="16" t="s">
         <v>57</v>
@@ -6873,116 +6873,116 @@
       <c r="Q37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>57</v>
+      <c r="R37" s="13" t="n">
+        <v>88614</v>
       </c>
       <c r="S37" s="13" t="n">
-        <v>88614</v>
+        <v>187766</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>187766</v>
+        <v>157818</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>157818</v>
+        <v>171953</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>171953</v>
+        <v>158348</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>158348</v>
+        <v>150876</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>150876</v>
+        <v>156400</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>156400</v>
+        <v>209304</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>209304</v>
+        <v>141379</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>141379</v>
+        <v>129647</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>129647</v>
+        <v>117928</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>117928</v>
+        <v>129919</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>129919</v>
+        <v>92070</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>92070</v>
+        <v>137385</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>137385</v>
+        <v>159155</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>159155</v>
+        <v>124244</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>124244</v>
+        <v>90034</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>90034</v>
+        <v>147875</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>147875</v>
+        <v>146275</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>146275</v>
+        <v>161714</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>161714</v>
+        <v>167202</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>167202</v>
+        <v>147237</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>147237</v>
+        <v>146937</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>146937</v>
+        <v>170847</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>170847</v>
+        <v>124668</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>124668</v>
+        <v>156883</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>156883</v>
+        <v>160445</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>160445</v>
+        <v>130644</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>130644</v>
+        <v>133425</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>133425</v>
+        <v>180290</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>180290</v>
+        <v>152750</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>152750</v>
+        <v>174888</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>174888</v>
+        <v>205623</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>205623</v>
+        <v>189069</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>189069</v>
+        <v>180909</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>180909</v>
+        <v>185332</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>185332</v>
+        <v>140001</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6996,44 +6996,44 @@
       <c r="E38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>57</v>
+      <c r="F38" s="16" t="n">
+        <v>5685</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>5685</v>
+        <v>11504</v>
       </c>
       <c r="H38" s="16" t="n">
-        <v>11504</v>
+        <v>6679</v>
       </c>
       <c r="I38" s="16" t="n">
-        <v>6679</v>
+        <v>2932</v>
       </c>
       <c r="J38" s="16" t="n">
-        <v>2932</v>
+        <v>1808</v>
       </c>
       <c r="K38" s="16" t="n">
-        <v>1808</v>
+        <v>1749</v>
       </c>
       <c r="L38" s="16" t="n">
+        <v>1715</v>
+      </c>
+      <c r="M38" s="16" t="n">
+        <v>1642</v>
+      </c>
+      <c r="N38" s="16" t="n">
         <v>1749</v>
       </c>
-      <c r="M38" s="16" t="n">
-        <v>1715</v>
-      </c>
-      <c r="N38" s="16" t="n">
-        <v>1642</v>
-      </c>
       <c r="O38" s="16" t="n">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="P38" s="16" t="n">
-        <v>1743</v>
+        <v>1595</v>
       </c>
       <c r="Q38" s="16" t="n">
-        <v>1595</v>
-      </c>
-      <c r="R38" s="16" t="n">
         <v>1854</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S38" s="16" t="s">
         <v>57</v>
@@ -7155,44 +7155,44 @@
       <c r="E39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>57</v>
+      <c r="F39" s="13" t="n">
+        <v>3523</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>3523</v>
+        <v>6879</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>6879</v>
+        <v>6584</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>6584</v>
+        <v>8180</v>
       </c>
       <c r="J39" s="13" t="n">
-        <v>8180</v>
+        <v>7371</v>
       </c>
       <c r="K39" s="13" t="n">
-        <v>7371</v>
+        <v>6289</v>
       </c>
       <c r="L39" s="13" t="n">
-        <v>6289</v>
+        <v>6929</v>
       </c>
       <c r="M39" s="13" t="n">
-        <v>6929</v>
+        <v>7171</v>
       </c>
       <c r="N39" s="13" t="n">
-        <v>7171</v>
+        <v>6677</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>6677</v>
+        <v>7158</v>
       </c>
       <c r="P39" s="13" t="n">
-        <v>7158</v>
+        <v>6645</v>
       </c>
       <c r="Q39" s="13" t="n">
-        <v>6645</v>
-      </c>
-      <c r="R39" s="13" t="n">
         <v>8438</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S39" s="13" t="s">
         <v>57</v>
@@ -7314,44 +7314,44 @@
       <c r="E40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>57</v>
+      <c r="F40" s="16" t="n">
+        <v>1327</v>
       </c>
       <c r="G40" s="16" t="n">
-        <v>1327</v>
+        <v>2053</v>
       </c>
       <c r="H40" s="16" t="n">
-        <v>2053</v>
+        <v>463</v>
       </c>
       <c r="I40" s="16" t="n">
-        <v>463</v>
+        <v>732</v>
       </c>
       <c r="J40" s="16" t="n">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="K40" s="16" t="n">
-        <v>805</v>
+        <v>1081</v>
       </c>
       <c r="L40" s="16" t="n">
-        <v>1081</v>
+        <v>970</v>
       </c>
       <c r="M40" s="16" t="n">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="N40" s="16" t="n">
-        <v>994</v>
+        <v>1172</v>
       </c>
       <c r="O40" s="16" t="n">
-        <v>1172</v>
+        <v>1015</v>
       </c>
       <c r="P40" s="16" t="n">
-        <v>1015</v>
+        <v>614</v>
       </c>
       <c r="Q40" s="16" t="n">
-        <v>614</v>
-      </c>
-      <c r="R40" s="16" t="n">
         <v>978</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>57</v>
@@ -7512,11 +7512,11 @@
       <c r="R41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S41" s="13" t="s">
-        <v>57</v>
+      <c r="S41" s="13" t="n">
+        <v>15</v>
       </c>
       <c r="T41" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U41" s="13" t="n">
         <v>0</v>
@@ -7534,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="13" t="n">
         <v>0</v>
@@ -7545,8 +7545,8 @@
       <c r="AC41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" s="13" t="n">
-        <v>0</v>
+      <c r="AD41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE41" s="13" t="s">
         <v>57</v>
@@ -7575,11 +7575,11 @@
       <c r="AM41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN41" s="13" t="s">
-        <v>57</v>
+      <c r="AN41" s="13" t="n">
+        <v>4613</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>4613</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="13" t="n">
         <v>0</v>
@@ -7609,16 +7609,16 @@
         <v>0</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB41" s="13" t="n">
-        <v>0</v>
+      <c r="BB41" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,80 +7632,80 @@
       <c r="E42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>57</v>
+      <c r="F42" s="16" t="n">
+        <v>299</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="H42" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>0</v>
+        <v>3375</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>3375</v>
+        <v>4900</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>4900</v>
+        <v>4173</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>4173</v>
+        <v>4588</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>4588</v>
+        <v>6723</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>6723</v>
+        <v>4032</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>4032</v>
+        <v>3413</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>3413</v>
+        <v>5951</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>5951</v>
-      </c>
-      <c r="R42" s="16" t="n">
         <v>4115</v>
       </c>
+      <c r="R42" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S42" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="16" t="s">
-        <v>57</v>
+      <c r="U42" s="16" t="n">
+        <v>5759</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>5759</v>
+        <v>5002</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>5002</v>
+        <v>4146</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>4146</v>
+        <v>5775</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>5775</v>
+        <v>5183</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>5183</v>
+        <v>5265</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>5265</v>
+        <v>5682</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>5682</v>
+        <v>5488</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>5488</v>
-      </c>
-      <c r="AD42" s="16" t="n">
         <v>7856</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE42" s="16" t="s">
         <v>57</v>
@@ -7803,17 +7803,17 @@
       <c r="I43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>57</v>
+      <c r="J43" s="13" t="n">
+        <v>956</v>
       </c>
       <c r="K43" s="13" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="L43" s="13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M43" s="13" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N43" s="13" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="13" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Q43" s="13" t="n">
-        <v>294</v>
-      </c>
-      <c r="R43" s="13" t="n">
         <v>197</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S43" s="13" t="s">
         <v>57</v>
@@ -7986,45 +7986,45 @@
       <c r="Q44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>57</v>
+      <c r="R44" s="16" t="n">
+        <v>26375</v>
       </c>
       <c r="S44" s="16" t="n">
-        <v>26375</v>
+        <v>78925</v>
       </c>
       <c r="T44" s="16" t="n">
-        <v>78925</v>
+        <v>62365</v>
       </c>
       <c r="U44" s="16" t="n">
-        <v>62365</v>
+        <v>38739</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>38739</v>
+        <v>17230</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>17230</v>
+        <v>0</v>
       </c>
       <c r="X44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>0</v>
+        <v>10626</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>10626</v>
+        <v>36929</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>36929</v>
+        <v>67415</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>67415</v>
+        <v>62289</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>62289</v>
-      </c>
-      <c r="AD44" s="16" t="n">
         <v>20479</v>
       </c>
+      <c r="AD44" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE44" s="16" t="s">
         <v>57</v>
       </c>
@@ -8052,8 +8052,8 @@
       <c r="AM44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AN44" s="16" t="s">
-        <v>57</v>
+      <c r="AN44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO44" s="16" t="n">
         <v>0</v>
@@ -8074,28 +8074,28 @@
         <v>0</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>2448</v>
+        <v>28955</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>28955</v>
+        <v>97568</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>97568</v>
+        <v>56400</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>56400</v>
+        <v>104075</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>104075</v>
+        <v>72683</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>72683</v>
+        <v>30062</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>30062</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,14 +8109,14 @@
       <c r="E45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>57</v>
+      <c r="F45" s="13" t="n">
+        <v>27691</v>
       </c>
       <c r="G45" s="13" t="n">
-        <v>27691</v>
+        <v>72296</v>
       </c>
       <c r="H45" s="13" t="n">
-        <v>72296</v>
+        <v>0</v>
       </c>
       <c r="I45" s="13" t="n">
         <v>0</v>
@@ -8134,20 +8134,20 @@
         <v>0</v>
       </c>
       <c r="N45" s="13" t="n">
-        <v>0</v>
+        <v>1513</v>
       </c>
       <c r="O45" s="13" t="n">
-        <v>1513</v>
+        <v>43021</v>
       </c>
       <c r="P45" s="13" t="n">
-        <v>43021</v>
+        <v>47679</v>
       </c>
       <c r="Q45" s="13" t="n">
-        <v>47679</v>
-      </c>
-      <c r="R45" s="13" t="n">
         <v>13935</v>
       </c>
+      <c r="R45" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S45" s="13" t="s">
         <v>57</v>
       </c>
@@ -8181,14 +8181,14 @@
       <c r="AC45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="13" t="s">
-        <v>57</v>
+      <c r="AD45" s="13" t="n">
+        <v>40166</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>40166</v>
+        <v>121040</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>121040</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="13" t="n">
         <v>0</v>
@@ -8211,8 +8211,8 @@
       <c r="AM45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN45" s="13" t="n">
-        <v>0</v>
+      <c r="AN45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO45" s="13" t="s">
         <v>57</v>
@@ -8304,17 +8304,17 @@
       <c r="Q46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R46" s="16" t="s">
-        <v>57</v>
+      <c r="R46" s="16" t="n">
+        <v>2809</v>
       </c>
       <c r="S46" s="16" t="n">
-        <v>2809</v>
+        <v>7731</v>
       </c>
       <c r="T46" s="16" t="n">
-        <v>7731</v>
-      </c>
-      <c r="U46" s="16" t="n">
         <v>6481</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V46" s="16" t="s">
         <v>57</v>
@@ -8427,44 +8427,44 @@
       <c r="E47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>57</v>
+      <c r="F47" s="13" t="n">
+        <v>37109</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>37109</v>
+        <v>66084</v>
       </c>
       <c r="H47" s="13" t="n">
-        <v>66084</v>
+        <v>54027</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>54027</v>
+        <v>56030</v>
       </c>
       <c r="J47" s="13" t="n">
-        <v>56030</v>
+        <v>48485</v>
       </c>
       <c r="K47" s="13" t="n">
-        <v>48485</v>
+        <v>53334</v>
       </c>
       <c r="L47" s="13" t="n">
-        <v>53334</v>
+        <v>62021</v>
       </c>
       <c r="M47" s="13" t="n">
-        <v>62021</v>
+        <v>48501</v>
       </c>
       <c r="N47" s="13" t="n">
-        <v>48501</v>
+        <v>48465</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>48465</v>
+        <v>39927</v>
       </c>
       <c r="P47" s="13" t="n">
-        <v>39927</v>
+        <v>43232</v>
       </c>
       <c r="Q47" s="13" t="n">
-        <v>43232</v>
-      </c>
-      <c r="R47" s="13" t="n">
         <v>59472</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S47" s="13" t="s">
         <v>57</v>
@@ -8586,44 +8586,44 @@
       <c r="E48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>57</v>
+      <c r="F48" s="16" t="n">
+        <v>38276</v>
       </c>
       <c r="G48" s="16" t="n">
-        <v>38276</v>
+        <v>82074</v>
       </c>
       <c r="H48" s="16" t="n">
-        <v>82074</v>
+        <v>76520</v>
       </c>
       <c r="I48" s="16" t="n">
-        <v>76520</v>
+        <v>72238</v>
       </c>
       <c r="J48" s="16" t="n">
-        <v>72238</v>
+        <v>84546</v>
       </c>
       <c r="K48" s="16" t="n">
-        <v>84546</v>
+        <v>75221</v>
       </c>
       <c r="L48" s="16" t="n">
-        <v>75221</v>
+        <v>79999</v>
       </c>
       <c r="M48" s="16" t="n">
-        <v>79999</v>
+        <v>72743</v>
       </c>
       <c r="N48" s="16" t="n">
-        <v>72743</v>
+        <v>81537</v>
       </c>
       <c r="O48" s="16" t="n">
-        <v>81537</v>
+        <v>82527</v>
       </c>
       <c r="P48" s="16" t="n">
-        <v>82527</v>
+        <v>82977</v>
       </c>
       <c r="Q48" s="16" t="n">
-        <v>82977</v>
-      </c>
-      <c r="R48" s="16" t="n">
         <v>97497</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S48" s="16" t="s">
         <v>57</v>
@@ -8745,44 +8745,44 @@
       <c r="E49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>57</v>
+      <c r="F49" s="13" t="n">
+        <v>3342</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>3342</v>
+        <v>7464</v>
       </c>
       <c r="H49" s="13" t="n">
-        <v>7464</v>
+        <v>6943</v>
       </c>
       <c r="I49" s="13" t="n">
-        <v>6943</v>
+        <v>8109</v>
       </c>
       <c r="J49" s="13" t="n">
-        <v>8109</v>
+        <v>6167</v>
       </c>
       <c r="K49" s="13" t="n">
-        <v>6167</v>
+        <v>5450</v>
       </c>
       <c r="L49" s="13" t="n">
-        <v>5450</v>
+        <v>5619</v>
       </c>
       <c r="M49" s="13" t="n">
-        <v>5619</v>
+        <v>5489</v>
       </c>
       <c r="N49" s="13" t="n">
-        <v>5489</v>
+        <v>5558</v>
       </c>
       <c r="O49" s="13" t="n">
-        <v>5558</v>
+        <v>5329</v>
       </c>
       <c r="P49" s="13" t="n">
-        <v>5329</v>
+        <v>4485</v>
       </c>
       <c r="Q49" s="13" t="n">
-        <v>4485</v>
-      </c>
-      <c r="R49" s="13" t="n">
         <v>6314</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S49" s="13" t="s">
         <v>57</v>
@@ -9004,8 +9004,8 @@
       <c r="T51" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>57</v>
+      <c r="U51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="20" t="n">
         <v>0</v>
@@ -9218,8 +9218,8 @@
       <c r="T53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U53" s="20" t="s">
-        <v>57</v>
+      <c r="U53" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="20" t="n">
         <v>0</v>
@@ -9331,151 +9331,151 @@
         <v>0</v>
       </c>
       <c r="F54" s="22" t="n">
-        <v>0</v>
+        <v>117252</v>
       </c>
       <c r="G54" s="22" t="n">
-        <v>117252</v>
+        <v>248354</v>
       </c>
       <c r="H54" s="22" t="n">
-        <v>248354</v>
+        <v>151216</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>151216</v>
+        <v>158230</v>
       </c>
       <c r="J54" s="22" t="n">
-        <v>158230</v>
+        <v>158394</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>158394</v>
+        <v>147297</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>147297</v>
+        <v>172357</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>172357</v>
+        <v>143263</v>
       </c>
       <c r="N54" s="22" t="n">
-        <v>143263</v>
+        <v>150703</v>
       </c>
       <c r="O54" s="22" t="n">
-        <v>150703</v>
+        <v>184133</v>
       </c>
       <c r="P54" s="22" t="n">
-        <v>184133</v>
+        <v>193472</v>
       </c>
       <c r="Q54" s="22" t="n">
-        <v>193472</v>
+        <v>192800</v>
       </c>
       <c r="R54" s="22" t="n">
-        <v>192800</v>
+        <v>128478</v>
       </c>
       <c r="S54" s="22" t="n">
-        <v>128478</v>
+        <v>294997</v>
       </c>
       <c r="T54" s="22" t="n">
-        <v>294997</v>
+        <v>243615</v>
       </c>
       <c r="U54" s="22" t="n">
-        <v>243615</v>
+        <v>236594</v>
       </c>
       <c r="V54" s="22" t="n">
-        <v>236594</v>
+        <v>202966</v>
       </c>
       <c r="W54" s="22" t="n">
-        <v>202966</v>
+        <v>179368</v>
       </c>
       <c r="X54" s="22" t="n">
-        <v>179368</v>
+        <v>182773</v>
       </c>
       <c r="Y54" s="22" t="n">
-        <v>182773</v>
+        <v>248142</v>
       </c>
       <c r="Z54" s="22" t="n">
-        <v>248142</v>
+        <v>209289</v>
       </c>
       <c r="AA54" s="22" t="n">
-        <v>209289</v>
+        <v>218962</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>218962</v>
+        <v>206812</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>206812</v>
+        <v>177400</v>
       </c>
       <c r="AD54" s="22" t="n">
-        <v>177400</v>
+        <v>155885</v>
       </c>
       <c r="AE54" s="22" t="n">
-        <v>155885</v>
+        <v>292938</v>
       </c>
       <c r="AF54" s="22" t="n">
-        <v>292938</v>
+        <v>187447</v>
       </c>
       <c r="AG54" s="22" t="n">
-        <v>187447</v>
+        <v>142504</v>
       </c>
       <c r="AH54" s="22" t="n">
-        <v>142504</v>
+        <v>104024</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>104024</v>
+        <v>165589</v>
       </c>
       <c r="AJ54" s="22" t="n">
-        <v>165589</v>
+        <v>168559</v>
       </c>
       <c r="AK54" s="22" t="n">
-        <v>168559</v>
+        <v>189515</v>
       </c>
       <c r="AL54" s="22" t="n">
-        <v>189515</v>
+        <v>196808</v>
       </c>
       <c r="AM54" s="22" t="n">
-        <v>196808</v>
+        <v>171498</v>
       </c>
       <c r="AN54" s="22" t="n">
-        <v>171498</v>
+        <v>174465</v>
       </c>
       <c r="AO54" s="22" t="n">
-        <v>174465</v>
+        <v>196060</v>
       </c>
       <c r="AP54" s="22" t="n">
-        <v>196060</v>
+        <v>151113</v>
       </c>
       <c r="AQ54" s="22" t="n">
-        <v>151113</v>
+        <v>180965</v>
       </c>
       <c r="AR54" s="22" t="n">
-        <v>180965</v>
+        <v>191838</v>
       </c>
       <c r="AS54" s="22" t="n">
-        <v>191838</v>
+        <v>153431</v>
       </c>
       <c r="AT54" s="22" t="n">
-        <v>153431</v>
+        <v>162936</v>
       </c>
       <c r="AU54" s="22" t="n">
-        <v>162936</v>
+        <v>213706</v>
       </c>
       <c r="AV54" s="22" t="n">
-        <v>213706</v>
+        <v>214795</v>
       </c>
       <c r="AW54" s="22" t="n">
-        <v>214795</v>
+        <v>307482</v>
       </c>
       <c r="AX54" s="22" t="n">
-        <v>307482</v>
+        <v>287279</v>
       </c>
       <c r="AY54" s="22" t="n">
-        <v>287279</v>
+        <v>320368</v>
       </c>
       <c r="AZ54" s="22" t="n">
-        <v>320368</v>
+        <v>279522</v>
       </c>
       <c r="BA54" s="22" t="n">
-        <v>279522</v>
+        <v>244977</v>
       </c>
       <c r="BB54" s="22" t="n">
-        <v>244977</v>
+        <v>185111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9959,116 +9959,116 @@
       <c r="Q61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R61" s="13" t="s">
-        <v>57</v>
+      <c r="R61" s="13" t="n">
+        <v>39627</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>39627</v>
+        <v>77027</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>77027</v>
+        <v>65801</v>
       </c>
       <c r="U61" s="13" t="n">
-        <v>65801</v>
+        <v>89345</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>89345</v>
+        <v>104936</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>104936</v>
+        <v>116390</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>116390</v>
+        <v>99437</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>99437</v>
+        <v>117329</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>117329</v>
+        <v>131846</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>131846</v>
+        <v>83934</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>83934</v>
+        <v>109324</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>109324</v>
+        <v>98840</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>98840</v>
+        <v>167186</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>167186</v>
+        <v>219772</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>219772</v>
+        <v>218995</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>218995</v>
+        <v>166798</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>166798</v>
+        <v>149244</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>149244</v>
+        <v>227989</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>227989</v>
+        <v>267371</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>267371</v>
+        <v>307669</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>307669</v>
+        <v>312157</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>312157</v>
+        <v>237996</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>237996</v>
+        <v>230133</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>230133</v>
+        <v>269861</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>269861</v>
+        <v>235604</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>235604</v>
+        <v>297108</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>297108</v>
+        <v>443918</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>443918</v>
+        <v>390281</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>390281</v>
+        <v>482051</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>482051</v>
+        <v>478687</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>478687</v>
+        <v>427419</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>427419</v>
+        <v>477039</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>477039</v>
+        <v>404948</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>404948</v>
+        <v>404767</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>404767</v>
+        <v>404035</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>404035</v>
+        <v>505023</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>505023</v>
+        <v>583620</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,20 +10091,20 @@
       <c r="H62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I62" s="16" t="s">
-        <v>57</v>
+      <c r="I62" s="16" t="n">
+        <v>31684</v>
       </c>
       <c r="J62" s="16" t="n">
-        <v>31684</v>
+        <v>15738</v>
       </c>
       <c r="K62" s="16" t="n">
-        <v>15738</v>
+        <v>0</v>
       </c>
       <c r="L62" s="16" t="n">
-        <v>0</v>
+        <v>47528</v>
       </c>
       <c r="M62" s="16" t="n">
-        <v>47528</v>
+        <v>0</v>
       </c>
       <c r="N62" s="16" t="n">
         <v>0</v>
@@ -10118,8 +10118,8 @@
       <c r="Q62" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R62" s="16" t="n">
-        <v>0</v>
+      <c r="R62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S62" s="16" t="s">
         <v>57</v>
@@ -10154,14 +10154,14 @@
       <c r="AC62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="16" t="s">
-        <v>57</v>
+      <c r="AD62" s="16" t="n">
+        <v>5455</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>5455</v>
+        <v>40352</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>40352</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="16" t="n">
         <v>0</v>
@@ -10179,13 +10179,13 @@
         <v>0</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>0</v>
+        <v>14108</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>14108</v>
-      </c>
-      <c r="AN62" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AO62" s="16" t="s">
         <v>57</v>
@@ -10277,116 +10277,116 @@
       <c r="Q63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R63" s="13" t="s">
-        <v>57</v>
+      <c r="R63" s="13" t="n">
+        <v>156660</v>
       </c>
       <c r="S63" s="13" t="n">
-        <v>156660</v>
+        <v>325816</v>
       </c>
       <c r="T63" s="13" t="n">
-        <v>325816</v>
+        <v>282701</v>
       </c>
       <c r="U63" s="13" t="n">
-        <v>282701</v>
+        <v>363783</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>363783</v>
+        <v>376275</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>376275</v>
+        <v>359067</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>359067</v>
+        <v>378334</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>378334</v>
+        <v>534901</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>534901</v>
+        <v>355004</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>355004</v>
+        <v>328996</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>328996</v>
+        <v>295609</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>295609</v>
+        <v>331053</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>331053</v>
+        <v>252271</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>252271</v>
+        <v>490846</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>490846</v>
+        <v>565164</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>565164</v>
+        <v>536861</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>536861</v>
+        <v>539113</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>539113</v>
+        <v>955486</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>955486</v>
+        <v>669700</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>669700</v>
+        <v>719700</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>719700</v>
+        <v>799824</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>799824</v>
+        <v>693602</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>693602</v>
+        <v>667009</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>667009</v>
+        <v>863788</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>863788</v>
+        <v>625079</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>625079</v>
+        <v>774630</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>774630</v>
+        <v>1039274</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>1039274</v>
+        <v>1072318</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>1072318</v>
+        <v>1020364</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>1020364</v>
+        <v>1257899</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>1257899</v>
+        <v>1043249</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>1043249</v>
+        <v>1152788</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>1152788</v>
+        <v>1293920</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>1293920</v>
+        <v>1166046</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>1166046</v>
+        <v>1224621</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>1224621</v>
+        <v>1406607</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>1406607</v>
+        <v>1130226</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10400,44 +10400,44 @@
       <c r="E64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>57</v>
+      <c r="F64" s="16" t="n">
+        <v>19129</v>
       </c>
       <c r="G64" s="16" t="n">
-        <v>19129</v>
+        <v>40353</v>
       </c>
       <c r="H64" s="16" t="n">
-        <v>40353</v>
+        <v>23589</v>
       </c>
       <c r="I64" s="16" t="n">
-        <v>23589</v>
+        <v>9372</v>
       </c>
       <c r="J64" s="16" t="n">
-        <v>9372</v>
+        <v>6939</v>
       </c>
       <c r="K64" s="16" t="n">
-        <v>6939</v>
+        <v>6679</v>
       </c>
       <c r="L64" s="16" t="n">
-        <v>6679</v>
+        <v>6356</v>
       </c>
       <c r="M64" s="16" t="n">
-        <v>6356</v>
+        <v>6022</v>
       </c>
       <c r="N64" s="16" t="n">
-        <v>6022</v>
+        <v>6414</v>
       </c>
       <c r="O64" s="16" t="n">
-        <v>6414</v>
+        <v>6391</v>
       </c>
       <c r="P64" s="16" t="n">
-        <v>6391</v>
+        <v>5847</v>
       </c>
       <c r="Q64" s="16" t="n">
-        <v>5847</v>
-      </c>
-      <c r="R64" s="16" t="n">
         <v>6798</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S64" s="16" t="s">
         <v>57</v>
@@ -10559,44 +10559,44 @@
       <c r="E65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>57</v>
+      <c r="F65" s="13" t="n">
+        <v>10796</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>10796</v>
+        <v>21113</v>
       </c>
       <c r="H65" s="13" t="n">
-        <v>21113</v>
+        <v>20222</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>20222</v>
+        <v>26315</v>
       </c>
       <c r="J65" s="13" t="n">
-        <v>26315</v>
+        <v>28391</v>
       </c>
       <c r="K65" s="13" t="n">
-        <v>28391</v>
+        <v>24929</v>
       </c>
       <c r="L65" s="13" t="n">
-        <v>24929</v>
+        <v>26409</v>
       </c>
       <c r="M65" s="13" t="n">
-        <v>26409</v>
+        <v>27022</v>
       </c>
       <c r="N65" s="13" t="n">
-        <v>27022</v>
+        <v>25078</v>
       </c>
       <c r="O65" s="13" t="n">
-        <v>25078</v>
+        <v>27007</v>
       </c>
       <c r="P65" s="13" t="n">
-        <v>27007</v>
+        <v>25016</v>
       </c>
       <c r="Q65" s="13" t="n">
-        <v>25016</v>
-      </c>
-      <c r="R65" s="13" t="n">
         <v>31832</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S65" s="13" t="s">
         <v>57</v>
@@ -10718,44 +10718,44 @@
       <c r="E66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>57</v>
+      <c r="F66" s="16" t="n">
+        <v>4532</v>
       </c>
       <c r="G66" s="16" t="n">
-        <v>4532</v>
+        <v>6237</v>
       </c>
       <c r="H66" s="16" t="n">
-        <v>6237</v>
+        <v>1205</v>
       </c>
       <c r="I66" s="16" t="n">
-        <v>1205</v>
+        <v>1903</v>
       </c>
       <c r="J66" s="16" t="n">
-        <v>1903</v>
+        <v>2659</v>
       </c>
       <c r="K66" s="16" t="n">
-        <v>2659</v>
+        <v>3785</v>
       </c>
       <c r="L66" s="16" t="n">
-        <v>3785</v>
+        <v>3396</v>
       </c>
       <c r="M66" s="16" t="n">
-        <v>3396</v>
+        <v>3480</v>
       </c>
       <c r="N66" s="16" t="n">
-        <v>3480</v>
+        <v>4101</v>
       </c>
       <c r="O66" s="16" t="n">
-        <v>4101</v>
+        <v>3554</v>
       </c>
       <c r="P66" s="16" t="n">
-        <v>3554</v>
+        <v>2147</v>
       </c>
       <c r="Q66" s="16" t="n">
-        <v>2147</v>
-      </c>
-      <c r="R66" s="16" t="n">
         <v>3425</v>
+      </c>
+      <c r="R66" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S66" s="16" t="s">
         <v>57</v>
@@ -10916,11 +10916,11 @@
       <c r="R67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S67" s="13" t="s">
-        <v>57</v>
+      <c r="S67" s="13" t="n">
+        <v>76</v>
       </c>
       <c r="T67" s="13" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="U67" s="13" t="n">
         <v>0</v>
@@ -10938,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="Z67" s="13" t="n">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="AA67" s="13" t="n">
-        <v>2591</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="13" t="n">
         <v>0</v>
@@ -10949,8 +10949,8 @@
       <c r="AC67" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD67" s="13" t="n">
-        <v>0</v>
+      <c r="AD67" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE67" s="13" t="s">
         <v>57</v>
@@ -10979,11 +10979,11 @@
       <c r="AM67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN67" s="13" t="s">
-        <v>57</v>
+      <c r="AN67" s="13" t="n">
+        <v>51026</v>
       </c>
       <c r="AO67" s="13" t="n">
-        <v>51026</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="13" t="n">
         <v>0</v>
@@ -11013,16 +11013,16 @@
         <v>0</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>0</v>
+        <v>6529</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>6529</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB67" s="13" t="n">
-        <v>0</v>
+      <c r="BB67" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11036,80 +11036,80 @@
       <c r="E68" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>57</v>
+      <c r="F68" s="16" t="n">
+        <v>882</v>
       </c>
       <c r="G68" s="16" t="n">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="H68" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="16" t="n">
-        <v>0</v>
+        <v>15115</v>
       </c>
       <c r="J68" s="16" t="n">
-        <v>15115</v>
+        <v>21509</v>
       </c>
       <c r="K68" s="16" t="n">
-        <v>21509</v>
+        <v>16888</v>
       </c>
       <c r="L68" s="16" t="n">
-        <v>16888</v>
+        <v>19662</v>
       </c>
       <c r="M68" s="16" t="n">
-        <v>19662</v>
+        <v>27275</v>
       </c>
       <c r="N68" s="16" t="n">
-        <v>27275</v>
+        <v>16017</v>
       </c>
       <c r="O68" s="16" t="n">
-        <v>16017</v>
+        <v>15332</v>
       </c>
       <c r="P68" s="16" t="n">
-        <v>15332</v>
+        <v>28893</v>
       </c>
       <c r="Q68" s="16" t="n">
-        <v>28893</v>
-      </c>
-      <c r="R68" s="16" t="n">
         <v>23824</v>
       </c>
+      <c r="R68" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S68" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T68" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U68" s="16" t="s">
-        <v>57</v>
+      <c r="U68" s="16" t="n">
+        <v>45458</v>
       </c>
       <c r="V68" s="16" t="n">
-        <v>45458</v>
+        <v>45558</v>
       </c>
       <c r="W68" s="16" t="n">
-        <v>45558</v>
+        <v>39157</v>
       </c>
       <c r="X68" s="16" t="n">
-        <v>39157</v>
+        <v>62886</v>
       </c>
       <c r="Y68" s="16" t="n">
-        <v>62886</v>
+        <v>59124</v>
       </c>
       <c r="Z68" s="16" t="n">
-        <v>59124</v>
+        <v>60297</v>
       </c>
       <c r="AA68" s="16" t="n">
-        <v>60297</v>
+        <v>61127</v>
       </c>
       <c r="AB68" s="16" t="n">
-        <v>61127</v>
+        <v>56456</v>
       </c>
       <c r="AC68" s="16" t="n">
-        <v>56456</v>
-      </c>
-      <c r="AD68" s="16" t="n">
         <v>80043</v>
+      </c>
+      <c r="AD68" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE68" s="16" t="s">
         <v>57</v>
@@ -11207,17 +11207,17 @@
       <c r="I69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>57</v>
+      <c r="J69" s="13" t="n">
+        <v>4055</v>
       </c>
       <c r="K69" s="13" t="n">
-        <v>4055</v>
+        <v>0</v>
       </c>
       <c r="L69" s="13" t="n">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="M69" s="13" t="n">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="N69" s="13" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>0</v>
       </c>
       <c r="P69" s="13" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="Q69" s="13" t="n">
-        <v>1054</v>
-      </c>
-      <c r="R69" s="13" t="n">
         <v>746</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S69" s="13" t="s">
         <v>57</v>
@@ -11390,45 +11390,45 @@
       <c r="Q70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R70" s="16" t="s">
-        <v>57</v>
+      <c r="R70" s="16" t="n">
+        <v>64472</v>
       </c>
       <c r="S70" s="16" t="n">
-        <v>64472</v>
+        <v>192480</v>
       </c>
       <c r="T70" s="16" t="n">
-        <v>192480</v>
+        <v>170349</v>
       </c>
       <c r="U70" s="16" t="n">
-        <v>170349</v>
+        <v>116074</v>
       </c>
       <c r="V70" s="16" t="n">
-        <v>116074</v>
+        <v>61457</v>
       </c>
       <c r="W70" s="16" t="n">
-        <v>61457</v>
+        <v>0</v>
       </c>
       <c r="X70" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y70" s="16" t="n">
-        <v>0</v>
+        <v>45154</v>
       </c>
       <c r="Z70" s="16" t="n">
-        <v>45154</v>
+        <v>157142</v>
       </c>
       <c r="AA70" s="16" t="n">
-        <v>157142</v>
+        <v>295990</v>
       </c>
       <c r="AB70" s="16" t="n">
-        <v>295990</v>
+        <v>263674</v>
       </c>
       <c r="AC70" s="16" t="n">
-        <v>263674</v>
-      </c>
-      <c r="AD70" s="16" t="n">
         <v>89605</v>
       </c>
+      <c r="AD70" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE70" s="16" t="s">
         <v>57</v>
       </c>
@@ -11456,8 +11456,8 @@
       <c r="AM70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AN70" s="16" t="s">
-        <v>57</v>
+      <c r="AN70" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO70" s="16" t="n">
         <v>0</v>
@@ -11478,28 +11478,28 @@
         <v>0</v>
       </c>
       <c r="AU70" s="16" t="n">
-        <v>0</v>
+        <v>20305</v>
       </c>
       <c r="AV70" s="16" t="n">
-        <v>20305</v>
+        <v>240180</v>
       </c>
       <c r="AW70" s="16" t="n">
-        <v>240180</v>
+        <v>812608</v>
       </c>
       <c r="AX70" s="16" t="n">
-        <v>812608</v>
+        <v>476775</v>
       </c>
       <c r="AY70" s="16" t="n">
-        <v>476775</v>
+        <v>736576</v>
       </c>
       <c r="AZ70" s="16" t="n">
-        <v>736576</v>
+        <v>512883</v>
       </c>
       <c r="BA70" s="16" t="n">
-        <v>512883</v>
+        <v>323811</v>
       </c>
       <c r="BB70" s="16" t="n">
-        <v>323811</v>
+        <v>184357</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11513,14 +11513,14 @@
       <c r="E71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>57</v>
+      <c r="F71" s="13" t="n">
+        <v>50144</v>
       </c>
       <c r="G71" s="13" t="n">
-        <v>50144</v>
+        <v>157469</v>
       </c>
       <c r="H71" s="13" t="n">
-        <v>157469</v>
+        <v>0</v>
       </c>
       <c r="I71" s="13" t="n">
         <v>0</v>
@@ -11538,20 +11538,20 @@
         <v>0</v>
       </c>
       <c r="N71" s="13" t="n">
-        <v>0</v>
+        <v>2873</v>
       </c>
       <c r="O71" s="13" t="n">
-        <v>2873</v>
+        <v>85453</v>
       </c>
       <c r="P71" s="13" t="n">
-        <v>85453</v>
+        <v>104007</v>
       </c>
       <c r="Q71" s="13" t="n">
-        <v>104007</v>
-      </c>
-      <c r="R71" s="13" t="n">
         <v>32132</v>
       </c>
+      <c r="R71" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S71" s="13" t="s">
         <v>57</v>
       </c>
@@ -11585,14 +11585,14 @@
       <c r="AC71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD71" s="13" t="s">
-        <v>57</v>
+      <c r="AD71" s="13" t="n">
+        <v>176054</v>
       </c>
       <c r="AE71" s="13" t="n">
-        <v>176054</v>
+        <v>535629</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>535629</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="13" t="n">
         <v>0</v>
@@ -11615,8 +11615,8 @@
       <c r="AM71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AN71" s="13" t="n">
-        <v>0</v>
+      <c r="AN71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO71" s="13" t="s">
         <v>57</v>
@@ -11708,17 +11708,17 @@
       <c r="Q72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R72" s="16" t="s">
-        <v>57</v>
+      <c r="R72" s="16" t="n">
+        <v>19087</v>
       </c>
       <c r="S72" s="16" t="n">
-        <v>19087</v>
+        <v>53917</v>
       </c>
       <c r="T72" s="16" t="n">
-        <v>53917</v>
-      </c>
-      <c r="U72" s="16" t="n">
         <v>51595</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V72" s="16" t="s">
         <v>57</v>
@@ -11831,44 +11831,44 @@
       <c r="E73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>57</v>
+      <c r="F73" s="13" t="n">
+        <v>52229</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>52229</v>
+        <v>95548</v>
       </c>
       <c r="H73" s="13" t="n">
-        <v>95548</v>
+        <v>82163</v>
       </c>
       <c r="I73" s="13" t="n">
-        <v>82163</v>
+        <v>103198</v>
       </c>
       <c r="J73" s="13" t="n">
-        <v>103198</v>
+        <v>97749</v>
       </c>
       <c r="K73" s="13" t="n">
-        <v>97749</v>
+        <v>105575</v>
       </c>
       <c r="L73" s="13" t="n">
-        <v>105575</v>
+        <v>122308</v>
       </c>
       <c r="M73" s="13" t="n">
-        <v>122308</v>
+        <v>96015</v>
       </c>
       <c r="N73" s="13" t="n">
-        <v>96015</v>
+        <v>95841</v>
       </c>
       <c r="O73" s="13" t="n">
-        <v>95841</v>
+        <v>79188</v>
       </c>
       <c r="P73" s="13" t="n">
-        <v>79188</v>
+        <v>83241</v>
       </c>
       <c r="Q73" s="13" t="n">
-        <v>83241</v>
-      </c>
-      <c r="R73" s="13" t="n">
         <v>114474</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S73" s="13" t="s">
         <v>57</v>
@@ -11990,44 +11990,44 @@
       <c r="E74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>57</v>
+      <c r="F74" s="16" t="n">
+        <v>41014</v>
       </c>
       <c r="G74" s="16" t="n">
-        <v>41014</v>
+        <v>91155</v>
       </c>
       <c r="H74" s="16" t="n">
-        <v>91155</v>
+        <v>88537</v>
       </c>
       <c r="I74" s="16" t="n">
-        <v>88537</v>
+        <v>106990</v>
       </c>
       <c r="J74" s="16" t="n">
-        <v>106990</v>
+        <v>138344</v>
       </c>
       <c r="K74" s="16" t="n">
-        <v>138344</v>
+        <v>125416</v>
       </c>
       <c r="L74" s="16" t="n">
-        <v>125416</v>
+        <v>133235</v>
       </c>
       <c r="M74" s="16" t="n">
-        <v>133235</v>
+        <v>118425</v>
       </c>
       <c r="N74" s="16" t="n">
-        <v>118425</v>
+        <v>131779</v>
       </c>
       <c r="O74" s="16" t="n">
-        <v>131779</v>
+        <v>134157</v>
       </c>
       <c r="P74" s="16" t="n">
-        <v>134157</v>
+        <v>131689</v>
       </c>
       <c r="Q74" s="16" t="n">
-        <v>131689</v>
-      </c>
-      <c r="R74" s="16" t="n">
         <v>154047</v>
+      </c>
+      <c r="R74" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S74" s="16" t="s">
         <v>57</v>
@@ -12149,44 +12149,44 @@
       <c r="E75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>57</v>
+      <c r="F75" s="13" t="n">
+        <v>9903</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>9903</v>
+        <v>22147</v>
       </c>
       <c r="H75" s="13" t="n">
-        <v>22147</v>
+        <v>20630</v>
       </c>
       <c r="I75" s="13" t="n">
-        <v>20630</v>
+        <v>25187</v>
       </c>
       <c r="J75" s="13" t="n">
-        <v>25187</v>
+        <v>23926</v>
       </c>
       <c r="K75" s="13" t="n">
-        <v>23926</v>
+        <v>21146</v>
       </c>
       <c r="L75" s="13" t="n">
-        <v>21146</v>
+        <v>21015</v>
       </c>
       <c r="M75" s="13" t="n">
-        <v>21015</v>
+        <v>20348</v>
       </c>
       <c r="N75" s="13" t="n">
-        <v>20348</v>
+        <v>20588</v>
       </c>
       <c r="O75" s="13" t="n">
-        <v>20588</v>
+        <v>19722</v>
       </c>
       <c r="P75" s="13" t="n">
-        <v>19722</v>
+        <v>16577</v>
       </c>
       <c r="Q75" s="13" t="n">
-        <v>16577</v>
-      </c>
-      <c r="R75" s="13" t="n">
         <v>23375</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S75" s="13" t="s">
         <v>57</v>
@@ -12410,8 +12410,8 @@
       <c r="T77" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U77" s="20" t="s">
-        <v>57</v>
+      <c r="U77" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V77" s="23" t="n">
         <v>0</v>
@@ -12626,8 +12626,8 @@
       <c r="T79" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="20" t="s">
-        <v>57</v>
+      <c r="U79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V79" s="23" t="n">
         <v>0</v>
@@ -12842,8 +12842,8 @@
       <c r="T81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>57</v>
+      <c r="U81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V81" s="13" t="n">
         <v>0</v>
@@ -12955,151 +12955,151 @@
         <v>0</v>
       </c>
       <c r="F82" s="22" t="n">
-        <v>0</v>
+        <v>188629</v>
       </c>
       <c r="G82" s="22" t="n">
-        <v>188629</v>
+        <v>434022</v>
       </c>
       <c r="H82" s="22" t="n">
-        <v>434022</v>
+        <v>236346</v>
       </c>
       <c r="I82" s="22" t="n">
-        <v>236346</v>
+        <v>319764</v>
       </c>
       <c r="J82" s="22" t="n">
-        <v>319764</v>
+        <v>339310</v>
       </c>
       <c r="K82" s="22" t="n">
-        <v>339310</v>
+        <v>304418</v>
       </c>
       <c r="L82" s="22" t="n">
-        <v>304418</v>
+        <v>381464</v>
       </c>
       <c r="M82" s="22" t="n">
-        <v>381464</v>
+        <v>298587</v>
       </c>
       <c r="N82" s="22" t="n">
-        <v>298587</v>
+        <v>302691</v>
       </c>
       <c r="O82" s="22" t="n">
-        <v>302691</v>
+        <v>370804</v>
       </c>
       <c r="P82" s="22" t="n">
-        <v>370804</v>
+        <v>398471</v>
       </c>
       <c r="Q82" s="22" t="n">
-        <v>398471</v>
+        <v>390653</v>
       </c>
       <c r="R82" s="22" t="n">
-        <v>390653</v>
+        <v>279846</v>
       </c>
       <c r="S82" s="22" t="n">
-        <v>279846</v>
+        <v>649316</v>
       </c>
       <c r="T82" s="22" t="n">
-        <v>649316</v>
+        <v>570446</v>
       </c>
       <c r="U82" s="22" t="n">
-        <v>570446</v>
+        <v>614660</v>
       </c>
       <c r="V82" s="22" t="n">
-        <v>614660</v>
+        <v>588226</v>
       </c>
       <c r="W82" s="22" t="n">
-        <v>588226</v>
+        <v>514614</v>
       </c>
       <c r="X82" s="22" t="n">
-        <v>514614</v>
+        <v>540657</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>540657</v>
+        <v>756508</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>756508</v>
+        <v>706880</v>
       </c>
       <c r="AA82" s="22" t="n">
-        <v>706880</v>
+        <v>770047</v>
       </c>
       <c r="AB82" s="22" t="n">
-        <v>770047</v>
+        <v>725063</v>
       </c>
       <c r="AC82" s="22" t="n">
-        <v>725063</v>
+        <v>599541</v>
       </c>
       <c r="AD82" s="22" t="n">
-        <v>599541</v>
+        <v>600966</v>
       </c>
       <c r="AE82" s="22" t="n">
-        <v>600966</v>
+        <v>1286599</v>
       </c>
       <c r="AF82" s="22" t="n">
-        <v>1286599</v>
+        <v>784159</v>
       </c>
       <c r="AG82" s="22" t="n">
-        <v>784159</v>
+        <v>703659</v>
       </c>
       <c r="AH82" s="22" t="n">
-        <v>703659</v>
+        <v>688357</v>
       </c>
       <c r="AI82" s="22" t="n">
-        <v>688357</v>
+        <v>1183475</v>
       </c>
       <c r="AJ82" s="22" t="n">
-        <v>1183475</v>
+        <v>937071</v>
       </c>
       <c r="AK82" s="22" t="n">
-        <v>937071</v>
+        <v>1027369</v>
       </c>
       <c r="AL82" s="22" t="n">
-        <v>1027369</v>
+        <v>1126089</v>
       </c>
       <c r="AM82" s="22" t="n">
-        <v>1126089</v>
+        <v>931598</v>
       </c>
       <c r="AN82" s="22" t="n">
-        <v>931598</v>
+        <v>948168</v>
       </c>
       <c r="AO82" s="22" t="n">
-        <v>948168</v>
+        <v>1133649</v>
       </c>
       <c r="AP82" s="22" t="n">
-        <v>1133649</v>
+        <v>860683</v>
       </c>
       <c r="AQ82" s="22" t="n">
-        <v>860683</v>
+        <v>1071738</v>
       </c>
       <c r="AR82" s="22" t="n">
-        <v>1071738</v>
+        <v>1483192</v>
       </c>
       <c r="AS82" s="22" t="n">
-        <v>1483192</v>
+        <v>1462599</v>
       </c>
       <c r="AT82" s="22" t="n">
-        <v>1462599</v>
+        <v>1502415</v>
       </c>
       <c r="AU82" s="22" t="n">
-        <v>1502415</v>
+        <v>1756891</v>
       </c>
       <c r="AV82" s="22" t="n">
-        <v>1756891</v>
+        <v>1710848</v>
       </c>
       <c r="AW82" s="22" t="n">
-        <v>1710848</v>
+        <v>2442435</v>
       </c>
       <c r="AX82" s="22" t="n">
-        <v>2442435</v>
+        <v>2175643</v>
       </c>
       <c r="AY82" s="22" t="n">
-        <v>2175643</v>
+        <v>2313918</v>
       </c>
       <c r="AZ82" s="22" t="n">
-        <v>2313918</v>
+        <v>2141539</v>
       </c>
       <c r="BA82" s="22" t="n">
-        <v>2141539</v>
+        <v>2235441</v>
       </c>
       <c r="BB82" s="22" t="n">
-        <v>2235441</v>
+        <v>1898203</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13583,116 +13583,116 @@
       <c r="Q89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R89" s="13" t="s">
-        <v>57</v>
+      <c r="R89" s="13" t="n">
+        <v>3710393</v>
       </c>
       <c r="S89" s="13" t="n">
-        <v>3710393</v>
+        <v>3746449</v>
       </c>
       <c r="T89" s="13" t="n">
-        <v>3746449</v>
+        <v>3881836</v>
       </c>
       <c r="U89" s="13" t="n">
-        <v>3881836</v>
+        <v>4435536</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>4435536</v>
+        <v>4687573</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>4687573</v>
+        <v>4780662</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>4780662</v>
+        <v>4827508</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>4827508</v>
+        <v>5094837</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>5094837</v>
+        <v>5182830</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>5182830</v>
+        <v>5175361</v>
       </c>
       <c r="AB89" s="13" t="n">
-        <v>5175361</v>
+        <v>5179514</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>5179514</v>
+        <v>5162436</v>
       </c>
       <c r="AD89" s="13" t="n">
-        <v>5162436</v>
+        <v>7249415</v>
       </c>
       <c r="AE89" s="13" t="n">
-        <v>7249415</v>
+        <v>7301153</v>
       </c>
       <c r="AF89" s="13" t="n">
-        <v>7301153</v>
+        <v>7740527</v>
       </c>
       <c r="AG89" s="13" t="n">
-        <v>7740527</v>
+        <v>9134741</v>
       </c>
       <c r="AH89" s="13" t="n">
-        <v>9134741</v>
+        <v>10667906</v>
       </c>
       <c r="AI89" s="13" t="n">
-        <v>10667906</v>
+        <v>12870147</v>
       </c>
       <c r="AJ89" s="13" t="n">
-        <v>12870147</v>
+        <v>11998404</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>11998404</v>
+        <v>11066832</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>11066832</v>
+        <v>10957583</v>
       </c>
       <c r="AM89" s="13" t="n">
-        <v>10957583</v>
+        <v>9809818</v>
       </c>
       <c r="AN89" s="13" t="n">
-        <v>9809818</v>
+        <v>10042898</v>
       </c>
       <c r="AO89" s="13" t="n">
-        <v>10042898</v>
+        <v>10703248</v>
       </c>
       <c r="AP89" s="13" t="n">
-        <v>10703248</v>
+        <v>8909235</v>
       </c>
       <c r="AQ89" s="13" t="n">
-        <v>8909235</v>
+        <v>12337091</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>12337091</v>
+        <v>14140668</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>14140668</v>
+        <v>17127699</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>17127699</v>
+        <v>16334621</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>16334621</v>
+        <v>15457472</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>15457472</v>
+        <v>12916863</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>12916863</v>
+        <v>13619568</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>13619568</v>
+        <v>16033735</v>
       </c>
       <c r="AY89" s="13" t="n">
-        <v>16033735</v>
+        <v>15092546</v>
       </c>
       <c r="AZ89" s="13" t="n">
-        <v>15092546</v>
+        <v>15581759</v>
       </c>
       <c r="BA89" s="13" t="n">
-        <v>15581759</v>
+        <v>17071392</v>
       </c>
       <c r="BB89" s="13" t="n">
-        <v>17071392</v>
+        <v>19805885</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13715,20 +13715,20 @@
       <c r="H90" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>57</v>
+      <c r="I90" s="16" t="n">
+        <v>4776002</v>
       </c>
       <c r="J90" s="16" t="n">
-        <v>4776002</v>
+        <v>4689511</v>
       </c>
       <c r="K90" s="16" t="n">
-        <v>4689511</v>
+        <v>0</v>
       </c>
       <c r="L90" s="16" t="n">
-        <v>0</v>
+        <v>4745208</v>
       </c>
       <c r="M90" s="16" t="n">
-        <v>4745208</v>
+        <v>0</v>
       </c>
       <c r="N90" s="16" t="n">
         <v>0</v>
@@ -13742,8 +13742,8 @@
       <c r="Q90" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R90" s="16" t="n">
-        <v>0</v>
+      <c r="R90" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S90" s="16" t="s">
         <v>57</v>
@@ -13778,15 +13778,15 @@
       <c r="AC90" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD90" s="16" t="s">
-        <v>57</v>
+      <c r="AD90" s="16" t="n">
+        <v>9293015</v>
       </c>
       <c r="AE90" s="16" t="n">
-        <v>9293015</v>
-      </c>
-      <c r="AF90" s="16" t="n">
         <v>9145966</v>
       </c>
+      <c r="AF90" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AG90" s="16" t="s">
         <v>57</v>
       </c>
@@ -13802,11 +13802,11 @@
       <c r="AK90" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AL90" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM90" s="16" t="n">
+      <c r="AL90" s="16" t="n">
         <v>12621672</v>
+      </c>
+      <c r="AM90" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AN90" s="16" t="s">
         <v>57</v>
@@ -13901,116 +13901,116 @@
       <c r="Q91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R91" s="13" t="s">
-        <v>57</v>
+      <c r="R91" s="13" t="n">
+        <v>1767892</v>
       </c>
       <c r="S91" s="13" t="n">
-        <v>1767892</v>
+        <v>1735224</v>
       </c>
       <c r="T91" s="13" t="n">
-        <v>1735224</v>
+        <v>1791310</v>
       </c>
       <c r="U91" s="13" t="n">
-        <v>1791310</v>
+        <v>2115596</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>2115596</v>
+        <v>2376254</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>2376254</v>
+        <v>2379881</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>2379881</v>
+        <v>2419015</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>2419015</v>
+        <v>2555618</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>2555618</v>
+        <v>2511009</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>2511009</v>
+        <v>2537629</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>2537629</v>
+        <v>2506691</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>2506691</v>
+        <v>2548149</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>2548149</v>
+        <v>2739991</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>2739991</v>
+        <v>3572777</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>3572777</v>
+        <v>3551029</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>3551029</v>
+        <v>4321022</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>4321022</v>
+        <v>5987882</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>5987882</v>
+        <v>6461456</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>6461456</v>
+        <v>4578363</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>4578363</v>
+        <v>4450450</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>4450450</v>
+        <v>4783579</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>4783579</v>
+        <v>4710786</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>4710786</v>
+        <v>4539422</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>4539422</v>
+        <v>5055916</v>
       </c>
       <c r="AP91" s="13" t="n">
-        <v>5055916</v>
+        <v>5013949</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>5013949</v>
+        <v>4937644</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>4937644</v>
+        <v>6477447</v>
       </c>
       <c r="AS91" s="13" t="n">
-        <v>6477447</v>
+        <v>8207939</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>8207939</v>
+        <v>7647472</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>7647472</v>
+        <v>6977087</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>6977087</v>
+        <v>6829781</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>6829781</v>
+        <v>6591579</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>6591579</v>
+        <v>6292681</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>6292681</v>
+        <v>6167304</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>6167304</v>
+        <v>6769265</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>6769265</v>
+        <v>7589661</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>7589661</v>
+        <v>8072985</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14024,44 +14024,44 @@
       <c r="E92" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>57</v>
+      <c r="F92" s="16" t="n">
+        <v>3364820</v>
       </c>
       <c r="G92" s="16" t="n">
-        <v>3364820</v>
+        <v>3507736</v>
       </c>
       <c r="H92" s="16" t="n">
-        <v>3507736</v>
+        <v>3531816</v>
       </c>
       <c r="I92" s="16" t="n">
-        <v>3531816</v>
+        <v>3196453</v>
       </c>
       <c r="J92" s="16" t="n">
-        <v>3196453</v>
+        <v>3837942</v>
       </c>
       <c r="K92" s="16" t="n">
-        <v>3837942</v>
+        <v>3818754</v>
       </c>
       <c r="L92" s="16" t="n">
-        <v>3818754</v>
+        <v>3706122</v>
       </c>
       <c r="M92" s="16" t="n">
-        <v>3706122</v>
+        <v>3667479</v>
       </c>
       <c r="N92" s="16" t="n">
-        <v>3667479</v>
+        <v>3667238</v>
       </c>
       <c r="O92" s="16" t="n">
-        <v>3667238</v>
+        <v>3666667</v>
       </c>
       <c r="P92" s="16" t="n">
+        <v>3665831</v>
+      </c>
+      <c r="Q92" s="16" t="n">
         <v>3666667</v>
       </c>
-      <c r="Q92" s="16" t="n">
-        <v>3665831</v>
-      </c>
-      <c r="R92" s="16" t="n">
-        <v>3666667</v>
+      <c r="R92" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S92" s="16" t="s">
         <v>57</v>
@@ -14183,44 +14183,44 @@
       <c r="E93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>57</v>
+      <c r="F93" s="13" t="n">
+        <v>3064434</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>3064434</v>
+        <v>3069196</v>
       </c>
       <c r="H93" s="13" t="n">
-        <v>3069196</v>
+        <v>3071385</v>
       </c>
       <c r="I93" s="13" t="n">
-        <v>3071385</v>
+        <v>3216993</v>
       </c>
       <c r="J93" s="13" t="n">
-        <v>3216993</v>
+        <v>3851716</v>
       </c>
       <c r="K93" s="13" t="n">
-        <v>3851716</v>
+        <v>3963905</v>
       </c>
       <c r="L93" s="13" t="n">
-        <v>3963905</v>
+        <v>3811372</v>
       </c>
       <c r="M93" s="13" t="n">
-        <v>3811372</v>
+        <v>3768233</v>
       </c>
       <c r="N93" s="13" t="n">
-        <v>3768233</v>
+        <v>3755878</v>
       </c>
       <c r="O93" s="13" t="n">
-        <v>3755878</v>
+        <v>3772981</v>
       </c>
       <c r="P93" s="13" t="n">
-        <v>3772981</v>
+        <v>3764635</v>
       </c>
       <c r="Q93" s="13" t="n">
-        <v>3764635</v>
-      </c>
-      <c r="R93" s="13" t="n">
         <v>3772458</v>
+      </c>
+      <c r="R93" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S93" s="13" t="s">
         <v>57</v>
@@ -14342,44 +14342,44 @@
       <c r="E94" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>57</v>
+      <c r="F94" s="16" t="n">
+        <v>3415222</v>
       </c>
       <c r="G94" s="16" t="n">
-        <v>3415222</v>
+        <v>3037993</v>
       </c>
       <c r="H94" s="16" t="n">
-        <v>3037993</v>
+        <v>2602592</v>
       </c>
       <c r="I94" s="16" t="n">
-        <v>2602592</v>
+        <v>2599727</v>
       </c>
       <c r="J94" s="16" t="n">
-        <v>2599727</v>
+        <v>3303106</v>
       </c>
       <c r="K94" s="16" t="n">
-        <v>3303106</v>
+        <v>3501388</v>
       </c>
       <c r="L94" s="16" t="n">
-        <v>3501388</v>
+        <v>3501031</v>
       </c>
       <c r="M94" s="16" t="n">
-        <v>3501031</v>
+        <v>3501006</v>
       </c>
       <c r="N94" s="16" t="n">
-        <v>3501006</v>
+        <v>3499147</v>
       </c>
       <c r="O94" s="16" t="n">
-        <v>3499147</v>
+        <v>3501478</v>
       </c>
       <c r="P94" s="16" t="n">
-        <v>3501478</v>
+        <v>3496743</v>
       </c>
       <c r="Q94" s="16" t="n">
-        <v>3496743</v>
-      </c>
-      <c r="R94" s="16" t="n">
         <v>3502045</v>
+      </c>
+      <c r="R94" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S94" s="16" t="s">
         <v>57</v>
@@ -14540,12 +14540,12 @@
       <c r="R95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T95" s="13" t="n">
+      <c r="S95" s="13" t="n">
         <v>5066667</v>
       </c>
+      <c r="T95" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U95" s="13" t="s">
         <v>57</v>
       </c>
@@ -14561,12 +14561,12 @@
       <c r="Y95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA95" s="13" t="n">
+      <c r="Z95" s="13" t="n">
         <v>9353791</v>
       </c>
+      <c r="AA95" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB95" s="13" t="s">
         <v>57</v>
       </c>
@@ -14603,12 +14603,12 @@
       <c r="AM95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO95" s="13" t="n">
+      <c r="AN95" s="13" t="n">
         <v>11061348</v>
       </c>
+      <c r="AO95" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AP95" s="13" t="s">
         <v>57</v>
       </c>
@@ -14636,11 +14636,11 @@
       <c r="AX95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ95" s="13" t="n">
+      <c r="AY95" s="13" t="n">
         <v>16120988</v>
+      </c>
+      <c r="AZ95" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BA95" s="13" t="s">
         <v>57</v>
@@ -14660,80 +14660,80 @@
       <c r="E96" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F96" s="16" t="s">
-        <v>57</v>
+      <c r="F96" s="16" t="n">
+        <v>2949833</v>
       </c>
       <c r="G96" s="16" t="n">
-        <v>2949833</v>
+        <v>0</v>
       </c>
       <c r="H96" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="16" t="n">
-        <v>0</v>
+        <v>4478519</v>
       </c>
       <c r="J96" s="16" t="n">
-        <v>4478519</v>
+        <v>4389592</v>
       </c>
       <c r="K96" s="16" t="n">
-        <v>4389592</v>
+        <v>4046969</v>
       </c>
       <c r="L96" s="16" t="n">
-        <v>4046969</v>
+        <v>4285527</v>
       </c>
       <c r="M96" s="16" t="n">
-        <v>4285527</v>
+        <v>4056969</v>
       </c>
       <c r="N96" s="16" t="n">
-        <v>4056969</v>
+        <v>3972470</v>
       </c>
       <c r="O96" s="16" t="n">
-        <v>3972470</v>
+        <v>4492236</v>
       </c>
       <c r="P96" s="16" t="n">
-        <v>4492236</v>
+        <v>4855150</v>
       </c>
       <c r="Q96" s="16" t="n">
-        <v>4855150</v>
-      </c>
-      <c r="R96" s="16" t="n">
         <v>5789550</v>
       </c>
+      <c r="R96" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S96" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T96" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U96" s="16" t="s">
-        <v>57</v>
+      <c r="U96" s="16" t="n">
+        <v>7893384</v>
       </c>
       <c r="V96" s="16" t="n">
-        <v>7893384</v>
+        <v>9107957</v>
       </c>
       <c r="W96" s="16" t="n">
-        <v>9107957</v>
+        <v>9444525</v>
       </c>
       <c r="X96" s="16" t="n">
-        <v>9444525</v>
+        <v>10889351</v>
       </c>
       <c r="Y96" s="16" t="n">
-        <v>10889351</v>
+        <v>11407293</v>
       </c>
       <c r="Z96" s="16" t="n">
-        <v>11407293</v>
+        <v>11452422</v>
       </c>
       <c r="AA96" s="16" t="n">
-        <v>11452422</v>
+        <v>10758008</v>
       </c>
       <c r="AB96" s="16" t="n">
-        <v>10758008</v>
+        <v>10287172</v>
       </c>
       <c r="AC96" s="16" t="n">
-        <v>10287172</v>
-      </c>
-      <c r="AD96" s="16" t="n">
         <v>10188773</v>
+      </c>
+      <c r="AD96" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE96" s="16" t="s">
         <v>57</v>
@@ -14831,17 +14831,17 @@
       <c r="I97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J97" s="13" t="s">
-        <v>57</v>
+      <c r="J97" s="13" t="n">
+        <v>4241632</v>
       </c>
       <c r="K97" s="13" t="n">
-        <v>4241632</v>
+        <v>0</v>
       </c>
       <c r="L97" s="13" t="n">
-        <v>0</v>
+        <v>3110000</v>
       </c>
       <c r="M97" s="13" t="n">
-        <v>3110000</v>
+        <v>0</v>
       </c>
       <c r="N97" s="13" t="n">
         <v>0</v>
@@ -14850,13 +14850,13 @@
         <v>0</v>
       </c>
       <c r="P97" s="13" t="n">
-        <v>0</v>
+        <v>3585034</v>
       </c>
       <c r="Q97" s="13" t="n">
-        <v>3585034</v>
-      </c>
-      <c r="R97" s="13" t="n">
         <v>3786802</v>
+      </c>
+      <c r="R97" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S97" s="13" t="s">
         <v>57</v>
@@ -15014,45 +15014,45 @@
       <c r="Q98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R98" s="16" t="s">
-        <v>57</v>
+      <c r="R98" s="16" t="n">
+        <v>2444436</v>
       </c>
       <c r="S98" s="16" t="n">
-        <v>2444436</v>
+        <v>2438771</v>
       </c>
       <c r="T98" s="16" t="n">
-        <v>2438771</v>
+        <v>2731484</v>
       </c>
       <c r="U98" s="16" t="n">
-        <v>2731484</v>
+        <v>2996309</v>
       </c>
       <c r="V98" s="16" t="n">
-        <v>2996309</v>
-      </c>
-      <c r="W98" s="16" t="n">
         <v>3566860</v>
       </c>
+      <c r="W98" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="X98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y98" s="16" t="s">
-        <v>57</v>
+      <c r="Y98" s="16" t="n">
+        <v>4249388</v>
       </c>
       <c r="Z98" s="16" t="n">
-        <v>4249388</v>
+        <v>4255247</v>
       </c>
       <c r="AA98" s="16" t="n">
-        <v>4255247</v>
+        <v>4390566</v>
       </c>
       <c r="AB98" s="16" t="n">
-        <v>4390566</v>
+        <v>4233075</v>
       </c>
       <c r="AC98" s="16" t="n">
-        <v>4233075</v>
-      </c>
-      <c r="AD98" s="16" t="n">
         <v>4375458</v>
       </c>
+      <c r="AD98" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE98" s="16" t="s">
         <v>57</v>
       </c>
@@ -15101,29 +15101,29 @@
       <c r="AT98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AU98" s="16" t="s">
-        <v>57</v>
+      <c r="AU98" s="16" t="n">
+        <v>8294526</v>
       </c>
       <c r="AV98" s="16" t="n">
-        <v>8294526</v>
+        <v>8294940</v>
       </c>
       <c r="AW98" s="16" t="n">
-        <v>8294940</v>
+        <v>8328632</v>
       </c>
       <c r="AX98" s="16" t="n">
-        <v>8328632</v>
+        <v>8453457</v>
       </c>
       <c r="AY98" s="16" t="n">
-        <v>8453457</v>
+        <v>7077358</v>
       </c>
       <c r="AZ98" s="16" t="n">
-        <v>7077358</v>
+        <v>7056437</v>
       </c>
       <c r="BA98" s="16" t="n">
-        <v>7056437</v>
+        <v>10771439</v>
       </c>
       <c r="BB98" s="16" t="n">
-        <v>10771439</v>
+        <v>11785271</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15137,14 +15137,14 @@
       <c r="E99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>57</v>
+      <c r="F99" s="13" t="n">
+        <v>1810841</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>1810841</v>
+        <v>2178115</v>
       </c>
       <c r="H99" s="13" t="n">
-        <v>2178115</v>
+        <v>0</v>
       </c>
       <c r="I99" s="13" t="n">
         <v>0</v>
@@ -15162,20 +15162,20 @@
         <v>0</v>
       </c>
       <c r="N99" s="13" t="n">
-        <v>0</v>
+        <v>1898876</v>
       </c>
       <c r="O99" s="13" t="n">
-        <v>1898876</v>
+        <v>1986309</v>
       </c>
       <c r="P99" s="13" t="n">
-        <v>1986309</v>
+        <v>2181401</v>
       </c>
       <c r="Q99" s="13" t="n">
-        <v>2181401</v>
-      </c>
-      <c r="R99" s="13" t="n">
         <v>2305849</v>
       </c>
+      <c r="R99" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S99" s="13" t="s">
         <v>57</v>
       </c>
@@ -15209,14 +15209,14 @@
       <c r="AC99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD99" s="13" t="s">
-        <v>57</v>
+      <c r="AD99" s="13" t="n">
+        <v>4383160</v>
       </c>
       <c r="AE99" s="13" t="n">
-        <v>4383160</v>
-      </c>
-      <c r="AF99" s="13" t="n">
         <v>4425223</v>
+      </c>
+      <c r="AF99" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG99" s="13" t="s">
         <v>57</v>
@@ -15332,17 +15332,17 @@
       <c r="Q100" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R100" s="16" t="s">
-        <v>57</v>
+      <c r="R100" s="16" t="n">
+        <v>6794945</v>
       </c>
       <c r="S100" s="16" t="n">
-        <v>6794945</v>
+        <v>6974130</v>
       </c>
       <c r="T100" s="16" t="n">
-        <v>6974130</v>
-      </c>
-      <c r="U100" s="16" t="n">
         <v>7960963</v>
+      </c>
+      <c r="U100" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V100" s="16" t="s">
         <v>57</v>
@@ -15455,44 +15455,44 @@
       <c r="E101" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>57</v>
+      <c r="F101" s="13" t="n">
+        <v>1407448</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>1407448</v>
+        <v>1445857</v>
       </c>
       <c r="H101" s="13" t="n">
-        <v>1445857</v>
+        <v>1520777</v>
       </c>
       <c r="I101" s="13" t="n">
-        <v>1520777</v>
+        <v>1841835</v>
       </c>
       <c r="J101" s="13" t="n">
-        <v>1841835</v>
+        <v>2016067</v>
       </c>
       <c r="K101" s="13" t="n">
-        <v>2016067</v>
+        <v>1979507</v>
       </c>
       <c r="L101" s="13" t="n">
-        <v>1979507</v>
+        <v>1972042</v>
       </c>
       <c r="M101" s="13" t="n">
-        <v>1972042</v>
+        <v>1979650</v>
       </c>
       <c r="N101" s="13" t="n">
-        <v>1979650</v>
+        <v>1977530</v>
       </c>
       <c r="O101" s="13" t="n">
-        <v>1977530</v>
+        <v>1983320</v>
       </c>
       <c r="P101" s="13" t="n">
-        <v>1983320</v>
+        <v>1925449</v>
       </c>
       <c r="Q101" s="13" t="n">
-        <v>1925449</v>
-      </c>
-      <c r="R101" s="13" t="n">
         <v>1924839</v>
+      </c>
+      <c r="R101" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S101" s="13" t="s">
         <v>57</v>
@@ -15614,44 +15614,44 @@
       <c r="E102" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="16" t="s">
-        <v>57</v>
+      <c r="F102" s="16" t="n">
+        <v>1071533</v>
       </c>
       <c r="G102" s="16" t="n">
-        <v>1071533</v>
+        <v>1110644</v>
       </c>
       <c r="H102" s="16" t="n">
-        <v>1110644</v>
+        <v>1157044</v>
       </c>
       <c r="I102" s="16" t="n">
-        <v>1157044</v>
+        <v>1481076</v>
       </c>
       <c r="J102" s="16" t="n">
-        <v>1481076</v>
+        <v>1636316</v>
       </c>
       <c r="K102" s="16" t="n">
-        <v>1636316</v>
+        <v>1667300</v>
       </c>
       <c r="L102" s="16" t="n">
-        <v>1667300</v>
+        <v>1665458</v>
       </c>
       <c r="M102" s="16" t="n">
-        <v>1665458</v>
+        <v>1627992</v>
       </c>
       <c r="N102" s="16" t="n">
-        <v>1627992</v>
+        <v>1616187</v>
       </c>
       <c r="O102" s="16" t="n">
-        <v>1616187</v>
+        <v>1625613</v>
       </c>
       <c r="P102" s="16" t="n">
-        <v>1625613</v>
+        <v>1587054</v>
       </c>
       <c r="Q102" s="16" t="n">
-        <v>1587054</v>
-      </c>
-      <c r="R102" s="16" t="n">
         <v>1580018</v>
+      </c>
+      <c r="R102" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S102" s="16" t="s">
         <v>57</v>
@@ -15773,44 +15773,44 @@
       <c r="E103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>57</v>
+      <c r="F103" s="13" t="n">
+        <v>2963196</v>
       </c>
       <c r="G103" s="13" t="n">
-        <v>2963196</v>
+        <v>2967176</v>
       </c>
       <c r="H103" s="13" t="n">
-        <v>2967176</v>
+        <v>2971338</v>
       </c>
       <c r="I103" s="13" t="n">
-        <v>2971338</v>
+        <v>3106055</v>
       </c>
       <c r="J103" s="13" t="n">
-        <v>3106055</v>
+        <v>3879682</v>
       </c>
       <c r="K103" s="13" t="n">
-        <v>3879682</v>
+        <v>3880000</v>
       </c>
       <c r="L103" s="13" t="n">
-        <v>3880000</v>
+        <v>3739989</v>
       </c>
       <c r="M103" s="13" t="n">
-        <v>3739989</v>
+        <v>3707050</v>
       </c>
       <c r="N103" s="13" t="n">
-        <v>3707050</v>
+        <v>3704210</v>
       </c>
       <c r="O103" s="13" t="n">
-        <v>3704210</v>
+        <v>3700882</v>
       </c>
       <c r="P103" s="13" t="n">
-        <v>3700882</v>
+        <v>3696098</v>
       </c>
       <c r="Q103" s="13" t="n">
-        <v>3696098</v>
-      </c>
-      <c r="R103" s="13" t="n">
         <v>3702091</v>
+      </c>
+      <c r="R103" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S103" s="13" t="s">
         <v>57</v>
